--- a/data/144/SCB/NR0103ENS2010T10SKv.xlsx
+++ b/data/144/SCB/NR0103ENS2010T10SKv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <x:si>
     <x:t>GDP: expenditure approach (ESA2010) by type of use, seasonally adjusted, constant prices reference year 2020, SEK million by type of use and quarter</x:t>
   </x:si>
@@ -520,6 +520,9 @@
     <x:t>2021K3</x:t>
   </x:si>
   <x:si>
+    <x:t>2021K4</x:t>
+  </x:si>
+  <x:si>
     <x:t>- GDP at market prices</x:t>
   </x:si>
   <x:si>
@@ -559,7 +562,7 @@
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211129 09:30</x:t>
+    <x:t>20220228 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -631,7 +634,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="1" formatCode="0"/>
+    <x:numFmt numFmtId="165" formatCode="0"/>
   </x:numFmts>
   <x:fonts count="3">
     <x:font>
@@ -685,48 +688,42 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+  <x:cellStyleXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -737,7 +734,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -1020,27 +1017,26 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:FL55"/>
+  <x:dimension ref="A1:FM55"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="168" width="9.130625" style="0" customWidth="1"/>
+    <x:col min="1" max="169" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:168">
+    <x:row r="1" spans="1:169">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:168">
+    <x:row r="3" spans="1:169">
       <x:c r="B3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1542,2055 +1538,2070 @@
       <x:c r="FL3" s="2" t="s">
         <x:v>167</x:v>
       </x:c>
+      <x:c r="FM3" s="2" t="s">
+        <x:v>168</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:168">
+    <x:row r="4" spans="1:169">
       <x:c r="A4" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F4" s="4" t="n">
-        <x:v>545897</x:v>
+        <x:v>546145</x:v>
       </x:c>
       <x:c r="G4" s="4" t="n">
-        <x:v>549396</x:v>
+        <x:v>549646</x:v>
       </x:c>
       <x:c r="H4" s="4" t="n">
-        <x:v>556211</x:v>
+        <x:v>556464</x:v>
       </x:c>
       <x:c r="I4" s="4" t="n">
-        <x:v>554265</x:v>
+        <x:v>554516</x:v>
       </x:c>
       <x:c r="J4" s="4" t="n">
-        <x:v>557613</x:v>
+        <x:v>557866</x:v>
       </x:c>
       <x:c r="K4" s="4" t="n">
-        <x:v>559088</x:v>
+        <x:v>559342</x:v>
       </x:c>
       <x:c r="L4" s="4" t="n">
-        <x:v>556031</x:v>
+        <x:v>556283</x:v>
       </x:c>
       <x:c r="M4" s="4" t="n">
-        <x:v>560530</x:v>
+        <x:v>560784</x:v>
       </x:c>
       <x:c r="N4" s="4" t="n">
-        <x:v>558722</x:v>
+        <x:v>558976</x:v>
       </x:c>
       <x:c r="O4" s="4" t="n">
-        <x:v>564990</x:v>
+        <x:v>565246</x:v>
       </x:c>
       <x:c r="P4" s="4" t="n">
-        <x:v>574139</x:v>
+        <x:v>574400</x:v>
       </x:c>
       <x:c r="Q4" s="4" t="n">
-        <x:v>580692</x:v>
+        <x:v>580956</x:v>
       </x:c>
       <x:c r="R4" s="4" t="n">
-        <x:v>595319</x:v>
+        <x:v>595590</x:v>
       </x:c>
       <x:c r="S4" s="4" t="n">
-        <x:v>593057</x:v>
+        <x:v>593326</x:v>
       </x:c>
       <x:c r="T4" s="4" t="n">
-        <x:v>593150</x:v>
+        <x:v>593419</x:v>
       </x:c>
       <x:c r="U4" s="4" t="n">
-        <x:v>598839</x:v>
+        <x:v>599110</x:v>
       </x:c>
       <x:c r="V4" s="4" t="n">
-        <x:v>595182</x:v>
+        <x:v>595452</x:v>
       </x:c>
       <x:c r="W4" s="4" t="n">
-        <x:v>607913</x:v>
+        <x:v>608189</x:v>
       </x:c>
       <x:c r="X4" s="4" t="n">
-        <x:v>615856</x:v>
+        <x:v>616136</x:v>
       </x:c>
       <x:c r="Y4" s="4" t="n">
-        <x:v>619006</x:v>
+        <x:v>619287</x:v>
       </x:c>
       <x:c r="Z4" s="4" t="n">
-        <x:v>626702</x:v>
+        <x:v>626986</x:v>
       </x:c>
       <x:c r="AA4" s="4" t="n">
-        <x:v>625220</x:v>
+        <x:v>625503</x:v>
       </x:c>
       <x:c r="AB4" s="4" t="n">
-        <x:v>628191</x:v>
+        <x:v>628476</x:v>
       </x:c>
       <x:c r="AC4" s="4" t="n">
-        <x:v>632390</x:v>
+        <x:v>632677</x:v>
       </x:c>
       <x:c r="AD4" s="4" t="n">
-        <x:v>636580</x:v>
+        <x:v>636869</x:v>
       </x:c>
       <x:c r="AE4" s="4" t="n">
-        <x:v>645757</x:v>
+        <x:v>646050</x:v>
       </x:c>
       <x:c r="AF4" s="4" t="n">
-        <x:v>653892</x:v>
+        <x:v>654189</x:v>
       </x:c>
       <x:c r="AG4" s="4" t="n">
-        <x:v>657830</x:v>
+        <x:v>658129</x:v>
       </x:c>
       <x:c r="AH4" s="4" t="n">
-        <x:v>660914</x:v>
+        <x:v>661214</x:v>
       </x:c>
       <x:c r="AI4" s="4" t="n">
-        <x:v>661444</x:v>
+        <x:v>661744</x:v>
       </x:c>
       <x:c r="AJ4" s="4" t="n">
-        <x:v>661783</x:v>
+        <x:v>662083</x:v>
       </x:c>
       <x:c r="AK4" s="4" t="n">
-        <x:v>667254</x:v>
+        <x:v>667556</x:v>
       </x:c>
       <x:c r="AL4" s="4" t="n">
-        <x:v>676175</x:v>
+        <x:v>676482</x:v>
       </x:c>
       <x:c r="AM4" s="4" t="n">
-        <x:v>678667</x:v>
+        <x:v>678975</x:v>
       </x:c>
       <x:c r="AN4" s="4" t="n">
-        <x:v>683967</x:v>
+        <x:v>684277</x:v>
       </x:c>
       <x:c r="AO4" s="4" t="n">
-        <x:v>684311</x:v>
+        <x:v>684622</x:v>
       </x:c>
       <x:c r="AP4" s="4" t="n">
-        <x:v>684076</x:v>
+        <x:v>684386</x:v>
       </x:c>
       <x:c r="AQ4" s="4" t="n">
-        <x:v>690454</x:v>
+        <x:v>690767</x:v>
       </x:c>
       <x:c r="AR4" s="4" t="n">
-        <x:v>685245</x:v>
+        <x:v>685556</x:v>
       </x:c>
       <x:c r="AS4" s="4" t="n">
-        <x:v>686378</x:v>
+        <x:v>686689</x:v>
       </x:c>
       <x:c r="AT4" s="4" t="n">
-        <x:v>681388</x:v>
+        <x:v>681697</x:v>
       </x:c>
       <x:c r="AU4" s="4" t="n">
-        <x:v>677523</x:v>
+        <x:v>677830</x:v>
       </x:c>
       <x:c r="AV4" s="4" t="n">
-        <x:v>677623</x:v>
+        <x:v>677931</x:v>
       </x:c>
       <x:c r="AW4" s="4" t="n">
-        <x:v>683242</x:v>
+        <x:v>683552</x:v>
       </x:c>
       <x:c r="AX4" s="4" t="n">
-        <x:v>680246</x:v>
+        <x:v>680555</x:v>
       </x:c>
       <x:c r="AY4" s="4" t="n">
-        <x:v>677413</x:v>
+        <x:v>677720</x:v>
       </x:c>
       <x:c r="AZ4" s="4" t="n">
-        <x:v>676080</x:v>
+        <x:v>676386</x:v>
       </x:c>
       <x:c r="BA4" s="4" t="n">
-        <x:v>659733</x:v>
+        <x:v>660032</x:v>
       </x:c>
       <x:c r="BB4" s="4" t="n">
-        <x:v>649937</x:v>
+        <x:v>650287</x:v>
       </x:c>
       <x:c r="BC4" s="4" t="n">
-        <x:v>658427</x:v>
+        <x:v>658748</x:v>
       </x:c>
       <x:c r="BD4" s="4" t="n">
-        <x:v>667464</x:v>
+        <x:v>667738</x:v>
       </x:c>
       <x:c r="BE4" s="4" t="n">
-        <x:v>666277</x:v>
+        <x:v>666624</x:v>
       </x:c>
       <x:c r="BF4" s="4" t="n">
-        <x:v>673917</x:v>
+        <x:v>674237</x:v>
       </x:c>
       <x:c r="BG4" s="4" t="n">
-        <x:v>680758</x:v>
+        <x:v>681107</x:v>
       </x:c>
       <x:c r="BH4" s="4" t="n">
-        <x:v>688684</x:v>
+        <x:v>689014</x:v>
       </x:c>
       <x:c r="BI4" s="4" t="n">
-        <x:v>699139</x:v>
+        <x:v>699467</x:v>
       </x:c>
       <x:c r="BJ4" s="4" t="n">
-        <x:v>708146</x:v>
+        <x:v>708422</x:v>
       </x:c>
       <x:c r="BK4" s="4" t="n">
-        <x:v>711168</x:v>
+        <x:v>711572</x:v>
       </x:c>
       <x:c r="BL4" s="4" t="n">
-        <x:v>714737</x:v>
+        <x:v>715149</x:v>
       </x:c>
       <x:c r="BM4" s="4" t="n">
-        <x:v>722046</x:v>
+        <x:v>722379</x:v>
       </x:c>
       <x:c r="BN4" s="4" t="n">
-        <x:v>727076</x:v>
+        <x:v>727343</x:v>
       </x:c>
       <x:c r="BO4" s="4" t="n">
-        <x:v>720864</x:v>
+        <x:v>721272</x:v>
       </x:c>
       <x:c r="BP4" s="4" t="n">
-        <x:v>724363</x:v>
+        <x:v>724786</x:v>
       </x:c>
       <x:c r="BQ4" s="4" t="n">
-        <x:v>729249</x:v>
+        <x:v>729596</x:v>
       </x:c>
       <x:c r="BR4" s="4" t="n">
-        <x:v>735687</x:v>
+        <x:v>736083</x:v>
       </x:c>
       <x:c r="BS4" s="4" t="n">
-        <x:v>744633</x:v>
+        <x:v>744977</x:v>
       </x:c>
       <x:c r="BT4" s="4" t="n">
-        <x:v>750223</x:v>
+        <x:v>750664</x:v>
       </x:c>
       <x:c r="BU4" s="4" t="n">
-        <x:v>765418</x:v>
+        <x:v>765770</x:v>
       </x:c>
       <x:c r="BV4" s="4" t="n">
-        <x:v>768411</x:v>
+        <x:v>768801</x:v>
       </x:c>
       <x:c r="BW4" s="4" t="n">
-        <x:v>778879</x:v>
+        <x:v>779270</x:v>
       </x:c>
       <x:c r="BX4" s="4" t="n">
-        <x:v>783065</x:v>
+        <x:v>783518</x:v>
       </x:c>
       <x:c r="BY4" s="4" t="n">
-        <x:v>792274</x:v>
+        <x:v>792620</x:v>
       </x:c>
       <x:c r="BZ4" s="4" t="n">
-        <x:v>801103</x:v>
+        <x:v>801539</x:v>
       </x:c>
       <x:c r="CA4" s="4" t="n">
-        <x:v>806423</x:v>
+        <x:v>806773</x:v>
       </x:c>
       <x:c r="CB4" s="4" t="n">
-        <x:v>812606</x:v>
+        <x:v>813043</x:v>
       </x:c>
       <x:c r="CC4" s="4" t="n">
-        <x:v>827985</x:v>
+        <x:v>828351</x:v>
       </x:c>
       <x:c r="CD4" s="4" t="n">
-        <x:v>833444</x:v>
+        <x:v>833881</x:v>
       </x:c>
       <x:c r="CE4" s="4" t="n">
-        <x:v>854423</x:v>
+        <x:v>854810</x:v>
       </x:c>
       <x:c r="CF4" s="4" t="n">
-        <x:v>861169</x:v>
+        <x:v>861600</x:v>
       </x:c>
       <x:c r="CG4" s="4" t="n">
-        <x:v>858600</x:v>
+        <x:v>859018</x:v>
       </x:c>
       <x:c r="CH4" s="4" t="n">
-        <x:v>861739</x:v>
+        <x:v>862199</x:v>
       </x:c>
       <x:c r="CI4" s="4" t="n">
-        <x:v>861821</x:v>
+        <x:v>862247</x:v>
       </x:c>
       <x:c r="CJ4" s="4" t="n">
-        <x:v>865138</x:v>
+        <x:v>865560</x:v>
       </x:c>
       <x:c r="CK4" s="4" t="n">
-        <x:v>872493</x:v>
+        <x:v>872953</x:v>
       </x:c>
       <x:c r="CL4" s="4" t="n">
-        <x:v>871151</x:v>
+        <x:v>871633</x:v>
       </x:c>
       <x:c r="CM4" s="4" t="n">
-        <x:v>884986</x:v>
+        <x:v>885430</x:v>
       </x:c>
       <x:c r="CN4" s="4" t="n">
-        <x:v>890258</x:v>
+        <x:v>890660</x:v>
       </x:c>
       <x:c r="CO4" s="4" t="n">
-        <x:v>891511</x:v>
+        <x:v>891994</x:v>
       </x:c>
       <x:c r="CP4" s="4" t="n">
-        <x:v>902075</x:v>
+        <x:v>902513</x:v>
       </x:c>
       <x:c r="CQ4" s="4" t="n">
-        <x:v>896631</x:v>
+        <x:v>897153</x:v>
       </x:c>
       <x:c r="CR4" s="4" t="n">
-        <x:v>909871</x:v>
+        <x:v>910294</x:v>
       </x:c>
       <x:c r="CS4" s="4" t="n">
-        <x:v>915398</x:v>
+        <x:v>915910</x:v>
       </x:c>
       <x:c r="CT4" s="4" t="n">
-        <x:v>932504</x:v>
+        <x:v>932892</x:v>
       </x:c>
       <x:c r="CU4" s="4" t="n">
-        <x:v>936097</x:v>
+        <x:v>936608</x:v>
       </x:c>
       <x:c r="CV4" s="4" t="n">
-        <x:v>943618</x:v>
+        <x:v>944049</x:v>
       </x:c>
       <x:c r="CW4" s="4" t="n">
-        <x:v>951553</x:v>
+        <x:v>952018</x:v>
       </x:c>
       <x:c r="CX4" s="4" t="n">
-        <x:v>955459</x:v>
+        <x:v>955956</x:v>
       </x:c>
       <x:c r="CY4" s="4" t="n">
-        <x:v>962078</x:v>
+        <x:v>962520</x:v>
       </x:c>
       <x:c r="CZ4" s="4" t="n">
-        <x:v>973499</x:v>
+        <x:v>973939</x:v>
       </x:c>
       <x:c r="DA4" s="4" t="n">
-        <x:v>980101</x:v>
+        <x:v>980571</x:v>
       </x:c>
       <x:c r="DB4" s="4" t="n">
-        <x:v>995293</x:v>
+        <x:v>995750</x:v>
       </x:c>
       <x:c r="DC4" s="4" t="n">
-        <x:v>1011408</x:v>
+        <x:v>1011962</x:v>
       </x:c>
       <x:c r="DD4" s="4" t="n">
-        <x:v>1023421</x:v>
+        <x:v>1023916</x:v>
       </x:c>
       <x:c r="DE4" s="4" t="n">
-        <x:v>1030205</x:v>
+        <x:v>1030684</x:v>
       </x:c>
       <x:c r="DF4" s="4" t="n">
-        <x:v>1040217</x:v>
+        <x:v>1040726</x:v>
       </x:c>
       <x:c r="DG4" s="4" t="n">
-        <x:v>1045334</x:v>
+        <x:v>1045922</x:v>
       </x:c>
       <x:c r="DH4" s="4" t="n">
-        <x:v>1053543</x:v>
+        <x:v>1054087</x:v>
       </x:c>
       <x:c r="DI4" s="4" t="n">
-        <x:v>1065643</x:v>
+        <x:v>1066112</x:v>
       </x:c>
       <x:c r="DJ4" s="4" t="n">
-        <x:v>1057067</x:v>
+        <x:v>1057659</x:v>
       </x:c>
       <x:c r="DK4" s="4" t="n">
-        <x:v>1056833</x:v>
+        <x:v>1057311</x:v>
       </x:c>
       <x:c r="DL4" s="4" t="n">
-        <x:v>1051317</x:v>
+        <x:v>1051850</x:v>
       </x:c>
       <x:c r="DM4" s="4" t="n">
-        <x:v>1014135</x:v>
+        <x:v>1014603</x:v>
       </x:c>
       <x:c r="DN4" s="4" t="n">
-        <x:v>999023</x:v>
+        <x:v>999561</x:v>
       </x:c>
       <x:c r="DO4" s="4" t="n">
-        <x:v>999756</x:v>
+        <x:v>1000243</x:v>
       </x:c>
       <x:c r="DP4" s="4" t="n">
-        <x:v>999249</x:v>
+        <x:v>999752</x:v>
       </x:c>
       <x:c r="DQ4" s="4" t="n">
-        <x:v>1003825</x:v>
+        <x:v>1004347</x:v>
       </x:c>
       <x:c r="DR4" s="4" t="n">
-        <x:v>1030613</x:v>
+        <x:v>1031154</x:v>
       </x:c>
       <x:c r="DS4" s="4" t="n">
-        <x:v>1052041</x:v>
+        <x:v>1052489</x:v>
       </x:c>
       <x:c r="DT4" s="4" t="n">
-        <x:v>1064791</x:v>
+        <x:v>1065255</x:v>
       </x:c>
       <x:c r="DU4" s="4" t="n">
-        <x:v>1081884</x:v>
+        <x:v>1082459</x:v>
       </x:c>
       <x:c r="DV4" s="4" t="n">
-        <x:v>1085805</x:v>
+        <x:v>1086340</x:v>
       </x:c>
       <x:c r="DW4" s="4" t="n">
-        <x:v>1089280</x:v>
+        <x:v>1089799</x:v>
       </x:c>
       <x:c r="DX4" s="4" t="n">
-        <x:v>1103715</x:v>
+        <x:v>1104151</x:v>
       </x:c>
       <x:c r="DY4" s="4" t="n">
-        <x:v>1088010</x:v>
+        <x:v>1088629</x:v>
       </x:c>
       <x:c r="DZ4" s="4" t="n">
-        <x:v>1090186</x:v>
+        <x:v>1090663</x:v>
       </x:c>
       <x:c r="EA4" s="4" t="n">
-        <x:v>1091506</x:v>
+        <x:v>1092068</x:v>
       </x:c>
       <x:c r="EB4" s="4" t="n">
-        <x:v>1090215</x:v>
+        <x:v>1090708</x:v>
       </x:c>
       <x:c r="EC4" s="4" t="n">
-        <x:v>1082200</x:v>
+        <x:v>1082895</x:v>
       </x:c>
       <x:c r="ED4" s="4" t="n">
-        <x:v>1097525</x:v>
+        <x:v>1098040</x:v>
       </x:c>
       <x:c r="EE4" s="4" t="n">
-        <x:v>1096400</x:v>
+        <x:v>1096929</x:v>
       </x:c>
       <x:c r="EF4" s="4" t="n">
-        <x:v>1101440</x:v>
+        <x:v>1101956</x:v>
       </x:c>
       <x:c r="EG4" s="4" t="n">
-        <x:v>1108968</x:v>
+        <x:v>1109630</x:v>
       </x:c>
       <x:c r="EH4" s="4" t="n">
-        <x:v>1118300</x:v>
+        <x:v>1118821</x:v>
       </x:c>
       <x:c r="EI4" s="4" t="n">
-        <x:v>1127373</x:v>
+        <x:v>1127974</x:v>
       </x:c>
       <x:c r="EJ4" s="4" t="n">
-        <x:v>1135615</x:v>
+        <x:v>1136182</x:v>
       </x:c>
       <x:c r="EK4" s="4" t="n">
-        <x:v>1144283</x:v>
+        <x:v>1144895</x:v>
       </x:c>
       <x:c r="EL4" s="4" t="n">
-        <x:v>1160399</x:v>
+        <x:v>1160965</x:v>
       </x:c>
       <x:c r="EM4" s="4" t="n">
-        <x:v>1171950</x:v>
+        <x:v>1172564</x:v>
       </x:c>
       <x:c r="EN4" s="4" t="n">
-        <x:v>1188295</x:v>
+        <x:v>1188921</x:v>
       </x:c>
       <x:c r="EO4" s="4" t="n">
-        <x:v>1197263</x:v>
+        <x:v>1197760</x:v>
       </x:c>
       <x:c r="EP4" s="4" t="n">
-        <x:v>1195956</x:v>
+        <x:v>1196587</x:v>
       </x:c>
       <x:c r="EQ4" s="4" t="n">
-        <x:v>1197037</x:v>
+        <x:v>1197593</x:v>
       </x:c>
       <x:c r="ER4" s="4" t="n">
-        <x:v>1200651</x:v>
+        <x:v>1201374</x:v>
       </x:c>
       <x:c r="ES4" s="4" t="n">
-        <x:v>1211616</x:v>
+        <x:v>1212007</x:v>
       </x:c>
       <x:c r="ET4" s="4" t="n">
-        <x:v>1216671</x:v>
+        <x:v>1217178</x:v>
       </x:c>
       <x:c r="EU4" s="4" t="n">
-        <x:v>1232273</x:v>
+        <x:v>1232960</x:v>
       </x:c>
       <x:c r="EV4" s="4" t="n">
-        <x:v>1244163</x:v>
+        <x:v>1245090</x:v>
       </x:c>
       <x:c r="EW4" s="4" t="n">
-        <x:v>1246982</x:v>
+        <x:v>1247302</x:v>
       </x:c>
       <x:c r="EX4" s="4" t="n">
-        <x:v>1249911</x:v>
+        <x:v>1250388</x:v>
       </x:c>
       <x:c r="EY4" s="4" t="n">
-        <x:v>1263373</x:v>
+        <x:v>1264084</x:v>
       </x:c>
       <x:c r="EZ4" s="4" t="n">
-        <x:v>1254333</x:v>
+        <x:v>1255537</x:v>
       </x:c>
       <x:c r="FA4" s="4" t="n">
-        <x:v>1272720</x:v>
+        <x:v>1272865</x:v>
       </x:c>
       <x:c r="FB4" s="4" t="n">
-        <x:v>1279316</x:v>
+        <x:v>1279611</x:v>
       </x:c>
       <x:c r="FC4" s="4" t="n">
-        <x:v>1285506</x:v>
+        <x:v>1286430</x:v>
       </x:c>
       <x:c r="FD4" s="4" t="n">
-        <x:v>1287105</x:v>
+        <x:v>1288707</x:v>
       </x:c>
       <x:c r="FE4" s="4" t="n">
-        <x:v>1290328</x:v>
+        <x:v>1290066</x:v>
       </x:c>
       <x:c r="FF4" s="4" t="n">
-        <x:v>1279654</x:v>
+        <x:v>1279514</x:v>
       </x:c>
       <x:c r="FG4" s="4" t="n">
-        <x:v>1178945</x:v>
+        <x:v>1179909</x:v>
       </x:c>
       <x:c r="FH4" s="4" t="n">
-        <x:v>1260290</x:v>
+        <x:v>1262304</x:v>
       </x:c>
       <x:c r="FI4" s="4" t="n">
-        <x:v>1264354</x:v>
+        <x:v>1264044</x:v>
       </x:c>
       <x:c r="FJ4" s="4" t="n">
-        <x:v>1279743</x:v>
+        <x:v>1279935</x:v>
       </x:c>
       <x:c r="FK4" s="4" t="n">
-        <x:v>1292021</x:v>
+        <x:v>1290671</x:v>
       </x:c>
       <x:c r="FL4" s="4" t="n">
-        <x:v>1317606</x:v>
+        <x:v>1314766</x:v>
+      </x:c>
+      <x:c r="FM4" s="4" t="n">
+        <x:v>1329535</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:168">
+    <x:row r="5" spans="1:169">
       <x:c r="A5" s="2" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>169</x:v>
-      </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F5" s="4" t="n">
-        <x:v>108316</x:v>
+        <x:v>108282</x:v>
       </x:c>
       <x:c r="G5" s="4" t="n">
-        <x:v>107003</x:v>
+        <x:v>106970</x:v>
       </x:c>
       <x:c r="H5" s="4" t="n">
-        <x:v>108174</x:v>
+        <x:v>108141</x:v>
       </x:c>
       <x:c r="I5" s="4" t="n">
-        <x:v>106289</x:v>
+        <x:v>106256</x:v>
       </x:c>
       <x:c r="J5" s="4" t="n">
-        <x:v>109384</x:v>
+        <x:v>109350</x:v>
       </x:c>
       <x:c r="K5" s="4" t="n">
-        <x:v>109292</x:v>
+        <x:v>109259</x:v>
       </x:c>
       <x:c r="L5" s="4" t="n">
-        <x:v>113255</x:v>
+        <x:v>113220</x:v>
       </x:c>
       <x:c r="M5" s="4" t="n">
-        <x:v>114292</x:v>
+        <x:v>114256</x:v>
       </x:c>
       <x:c r="N5" s="4" t="n">
-        <x:v>110392</x:v>
+        <x:v>110358</x:v>
       </x:c>
       <x:c r="O5" s="4" t="n">
-        <x:v>110491</x:v>
+        <x:v>110457</x:v>
       </x:c>
       <x:c r="P5" s="4" t="n">
-        <x:v>113524</x:v>
+        <x:v>113489</x:v>
       </x:c>
       <x:c r="Q5" s="4" t="n">
-        <x:v>114644</x:v>
+        <x:v>114609</x:v>
       </x:c>
       <x:c r="R5" s="4" t="n">
-        <x:v>114969</x:v>
+        <x:v>114934</x:v>
       </x:c>
       <x:c r="S5" s="4" t="n">
-        <x:v>119531</x:v>
+        <x:v>119495</x:v>
       </x:c>
       <x:c r="T5" s="4" t="n">
-        <x:v>120134</x:v>
+        <x:v>120097</x:v>
       </x:c>
       <x:c r="U5" s="4" t="n">
-        <x:v>123891</x:v>
+        <x:v>123853</x:v>
       </x:c>
       <x:c r="V5" s="4" t="n">
-        <x:v>129591</x:v>
+        <x:v>129551</x:v>
       </x:c>
       <x:c r="W5" s="4" t="n">
-        <x:v>131428</x:v>
+        <x:v>131388</x:v>
       </x:c>
       <x:c r="X5" s="4" t="n">
-        <x:v>127659</x:v>
+        <x:v>127620</x:v>
       </x:c>
       <x:c r="Y5" s="4" t="n">
-        <x:v>127460</x:v>
+        <x:v>127421</x:v>
       </x:c>
       <x:c r="Z5" s="4" t="n">
-        <x:v>128672</x:v>
+        <x:v>128632</x:v>
       </x:c>
       <x:c r="AA5" s="4" t="n">
-        <x:v>135131</x:v>
+        <x:v>135089</x:v>
       </x:c>
       <x:c r="AB5" s="4" t="n">
-        <x:v>135622</x:v>
+        <x:v>135580</x:v>
       </x:c>
       <x:c r="AC5" s="4" t="n">
-        <x:v>135961</x:v>
+        <x:v>135919</x:v>
       </x:c>
       <x:c r="AD5" s="4" t="n">
-        <x:v>134839</x:v>
+        <x:v>134798</x:v>
       </x:c>
       <x:c r="AE5" s="4" t="n">
-        <x:v>142208</x:v>
+        <x:v>142164</x:v>
       </x:c>
       <x:c r="AF5" s="4" t="n">
-        <x:v>145364</x:v>
+        <x:v>145319</x:v>
       </x:c>
       <x:c r="AG5" s="4" t="n">
-        <x:v>150085</x:v>
+        <x:v>150039</x:v>
       </x:c>
       <x:c r="AH5" s="4" t="n">
-        <x:v>144526</x:v>
+        <x:v>144482</x:v>
       </x:c>
       <x:c r="AI5" s="4" t="n">
-        <x:v>148038</x:v>
+        <x:v>147992</x:v>
       </x:c>
       <x:c r="AJ5" s="4" t="n">
-        <x:v>149577</x:v>
+        <x:v>149531</x:v>
       </x:c>
       <x:c r="AK5" s="4" t="n">
-        <x:v>152058</x:v>
+        <x:v>152011</x:v>
       </x:c>
       <x:c r="AL5" s="4" t="n">
-        <x:v>157837</x:v>
+        <x:v>157789</x:v>
       </x:c>
       <x:c r="AM5" s="4" t="n">
-        <x:v>158901</x:v>
+        <x:v>158853</x:v>
       </x:c>
       <x:c r="AN5" s="4" t="n">
-        <x:v>162331</x:v>
+        <x:v>162282</x:v>
       </x:c>
       <x:c r="AO5" s="4" t="n">
-        <x:v>165636</x:v>
+        <x:v>165585</x:v>
       </x:c>
       <x:c r="AP5" s="4" t="n">
-        <x:v>164148</x:v>
+        <x:v>164098</x:v>
       </x:c>
       <x:c r="AQ5" s="4" t="n">
-        <x:v>167814</x:v>
+        <x:v>167763</x:v>
       </x:c>
       <x:c r="AR5" s="4" t="n">
-        <x:v>163377</x:v>
+        <x:v>163327</x:v>
       </x:c>
       <x:c r="AS5" s="4" t="n">
-        <x:v>160877</x:v>
+        <x:v>160828</x:v>
       </x:c>
       <x:c r="AT5" s="4" t="n">
-        <x:v>155116</x:v>
+        <x:v>155069</x:v>
       </x:c>
       <x:c r="AU5" s="4" t="n">
-        <x:v>153902</x:v>
+        <x:v>153855</x:v>
       </x:c>
       <x:c r="AV5" s="4" t="n">
-        <x:v>158824</x:v>
+        <x:v>158775</x:v>
       </x:c>
       <x:c r="AW5" s="4" t="n">
-        <x:v>156137</x:v>
+        <x:v>156089</x:v>
       </x:c>
       <x:c r="AX5" s="4" t="n">
-        <x:v>160892</x:v>
+        <x:v>160843</x:v>
       </x:c>
       <x:c r="AY5" s="4" t="n">
-        <x:v>158549</x:v>
+        <x:v>158501</x:v>
       </x:c>
       <x:c r="AZ5" s="4" t="n">
-        <x:v>162638</x:v>
+        <x:v>162589</x:v>
       </x:c>
       <x:c r="BA5" s="4" t="n">
-        <x:v>150600</x:v>
+        <x:v>150554</x:v>
       </x:c>
       <x:c r="BB5" s="4" t="n">
-        <x:v>150448</x:v>
+        <x:v>150326</x:v>
       </x:c>
       <x:c r="BC5" s="4" t="n">
-        <x:v>150450</x:v>
+        <x:v>150409</x:v>
       </x:c>
       <x:c r="BD5" s="4" t="n">
-        <x:v>153661</x:v>
+        <x:v>153652</x:v>
       </x:c>
       <x:c r="BE5" s="4" t="n">
-        <x:v>157477</x:v>
+        <x:v>157456</x:v>
       </x:c>
       <x:c r="BF5" s="4" t="n">
-        <x:v>162957</x:v>
+        <x:v>162821</x:v>
       </x:c>
       <x:c r="BG5" s="4" t="n">
-        <x:v>170847</x:v>
+        <x:v>170772</x:v>
       </x:c>
       <x:c r="BH5" s="4" t="n">
-        <x:v>170967</x:v>
+        <x:v>170943</x:v>
       </x:c>
       <x:c r="BI5" s="4" t="n">
-        <x:v>184086</x:v>
+        <x:v>184065</x:v>
       </x:c>
       <x:c r="BJ5" s="4" t="n">
-        <x:v>181903</x:v>
+        <x:v>181794</x:v>
       </x:c>
       <x:c r="BK5" s="4" t="n">
-        <x:v>183705</x:v>
+        <x:v>183640</x:v>
       </x:c>
       <x:c r="BL5" s="4" t="n">
-        <x:v>187241</x:v>
+        <x:v>187219</x:v>
       </x:c>
       <x:c r="BM5" s="4" t="n">
-        <x:v>189205</x:v>
+        <x:v>189192</x:v>
       </x:c>
       <x:c r="BN5" s="4" t="n">
-        <x:v>186912</x:v>
+        <x:v>186854</x:v>
       </x:c>
       <x:c r="BO5" s="4" t="n">
-        <x:v>189015</x:v>
+        <x:v>188947</x:v>
       </x:c>
       <x:c r="BP5" s="4" t="n">
-        <x:v>191948</x:v>
+        <x:v>191875</x:v>
       </x:c>
       <x:c r="BQ5" s="4" t="n">
-        <x:v>199975</x:v>
+        <x:v>199974</x:v>
       </x:c>
       <x:c r="BR5" s="4" t="n">
-        <x:v>205420</x:v>
+        <x:v>205491</x:v>
       </x:c>
       <x:c r="BS5" s="4" t="n">
-        <x:v>214797</x:v>
+        <x:v>214680</x:v>
       </x:c>
       <x:c r="BT5" s="4" t="n">
-        <x:v>218144</x:v>
+        <x:v>218047</x:v>
       </x:c>
       <x:c r="BU5" s="4" t="n">
-        <x:v>226693</x:v>
+        <x:v>226675</x:v>
       </x:c>
       <x:c r="BV5" s="4" t="n">
-        <x:v>235317</x:v>
+        <x:v>235309</x:v>
       </x:c>
       <x:c r="BW5" s="4" t="n">
-        <x:v>238580</x:v>
+        <x:v>238583</x:v>
       </x:c>
       <x:c r="BX5" s="4" t="n">
-        <x:v>240366</x:v>
+        <x:v>240249</x:v>
       </x:c>
       <x:c r="BY5" s="4" t="n">
-        <x:v>244398</x:v>
+        <x:v>244318</x:v>
       </x:c>
       <x:c r="BZ5" s="4" t="n">
-        <x:v>244534</x:v>
+        <x:v>244516</x:v>
       </x:c>
       <x:c r="CA5" s="4" t="n">
-        <x:v>247032</x:v>
+        <x:v>247019</x:v>
       </x:c>
       <x:c r="CB5" s="4" t="n">
-        <x:v>254702</x:v>
+        <x:v>254569</x:v>
       </x:c>
       <x:c r="CC5" s="4" t="n">
-        <x:v>260436</x:v>
+        <x:v>260310</x:v>
       </x:c>
       <x:c r="CD5" s="4" t="n">
-        <x:v>269460</x:v>
+        <x:v>269350</x:v>
       </x:c>
       <x:c r="CE5" s="4" t="n">
-        <x:v>281488</x:v>
+        <x:v>281518</x:v>
       </x:c>
       <x:c r="CF5" s="4" t="n">
-        <x:v>292872</x:v>
+        <x:v>292818</x:v>
       </x:c>
       <x:c r="CG5" s="4" t="n">
-        <x:v>288514</x:v>
+        <x:v>288368</x:v>
       </x:c>
       <x:c r="CH5" s="4" t="n">
-        <x:v>289283</x:v>
+        <x:v>289166</x:v>
       </x:c>
       <x:c r="CI5" s="4" t="n">
-        <x:v>278488</x:v>
+        <x:v>278493</x:v>
       </x:c>
       <x:c r="CJ5" s="4" t="n">
-        <x:v>274288</x:v>
+        <x:v>274283</x:v>
       </x:c>
       <x:c r="CK5" s="4" t="n">
-        <x:v>275020</x:v>
+        <x:v>274938</x:v>
       </x:c>
       <x:c r="CL5" s="4" t="n">
-        <x:v>278640</x:v>
+        <x:v>278596</x:v>
       </x:c>
       <x:c r="CM5" s="4" t="n">
-        <x:v>276782</x:v>
+        <x:v>276675</x:v>
       </x:c>
       <x:c r="CN5" s="4" t="n">
-        <x:v>272153</x:v>
+        <x:v>272157</x:v>
       </x:c>
       <x:c r="CO5" s="4" t="n">
-        <x:v>277290</x:v>
+        <x:v>277239</x:v>
       </x:c>
       <x:c r="CP5" s="4" t="n">
-        <x:v>284203</x:v>
+        <x:v>284175</x:v>
       </x:c>
       <x:c r="CQ5" s="4" t="n">
-        <x:v>282404</x:v>
+        <x:v>282295</x:v>
       </x:c>
       <x:c r="CR5" s="4" t="n">
-        <x:v>284573</x:v>
+        <x:v>284537</x:v>
       </x:c>
       <x:c r="CS5" s="4" t="n">
-        <x:v>290389</x:v>
+        <x:v>290362</x:v>
       </x:c>
       <x:c r="CT5" s="4" t="n">
-        <x:v>291600</x:v>
+        <x:v>291569</x:v>
       </x:c>
       <x:c r="CU5" s="4" t="n">
-        <x:v>302883</x:v>
+        <x:v>302712</x:v>
       </x:c>
       <x:c r="CV5" s="4" t="n">
-        <x:v>305857</x:v>
+        <x:v>305788</x:v>
       </x:c>
       <x:c r="CW5" s="4" t="n">
-        <x:v>310789</x:v>
+        <x:v>310664</x:v>
       </x:c>
       <x:c r="CX5" s="4" t="n">
-        <x:v>310762</x:v>
+        <x:v>310811</x:v>
       </x:c>
       <x:c r="CY5" s="4" t="n">
-        <x:v>320067</x:v>
+        <x:v>319866</x:v>
       </x:c>
       <x:c r="CZ5" s="4" t="n">
-        <x:v>326274</x:v>
+        <x:v>326157</x:v>
       </x:c>
       <x:c r="DA5" s="4" t="n">
-        <x:v>336578</x:v>
+        <x:v>336449</x:v>
       </x:c>
       <x:c r="DB5" s="4" t="n">
-        <x:v>339266</x:v>
+        <x:v>339122</x:v>
       </x:c>
       <x:c r="DC5" s="4" t="n">
-        <x:v>346853</x:v>
+        <x:v>346807</x:v>
       </x:c>
       <x:c r="DD5" s="4" t="n">
-        <x:v>354461</x:v>
+        <x:v>354433</x:v>
       </x:c>
       <x:c r="DE5" s="4" t="n">
-        <x:v>367009</x:v>
+        <x:v>366910</x:v>
       </x:c>
       <x:c r="DF5" s="4" t="n">
-        <x:v>369720</x:v>
+        <x:v>369542</x:v>
       </x:c>
       <x:c r="DG5" s="4" t="n">
-        <x:v>373043</x:v>
+        <x:v>372979</x:v>
       </x:c>
       <x:c r="DH5" s="4" t="n">
-        <x:v>388350</x:v>
+        <x:v>388344</x:v>
       </x:c>
       <x:c r="DI5" s="4" t="n">
-        <x:v>392996</x:v>
+        <x:v>392963</x:v>
       </x:c>
       <x:c r="DJ5" s="4" t="n">
-        <x:v>401328</x:v>
+        <x:v>401202</x:v>
       </x:c>
       <x:c r="DK5" s="4" t="n">
-        <x:v>400612</x:v>
+        <x:v>400415</x:v>
       </x:c>
       <x:c r="DL5" s="4" t="n">
-        <x:v>394115</x:v>
+        <x:v>393992</x:v>
       </x:c>
       <x:c r="DM5" s="4" t="n">
-        <x:v>370070</x:v>
+        <x:v>370077</x:v>
       </x:c>
       <x:c r="DN5" s="4" t="n">
-        <x:v>338958</x:v>
+        <x:v>338900</x:v>
       </x:c>
       <x:c r="DO5" s="4" t="n">
-        <x:v>320836</x:v>
+        <x:v>320751</x:v>
       </x:c>
       <x:c r="DP5" s="4" t="n">
-        <x:v>336399</x:v>
+        <x:v>336235</x:v>
       </x:c>
       <x:c r="DQ5" s="4" t="n">
-        <x:v>344304</x:v>
+        <x:v>344257</x:v>
       </x:c>
       <x:c r="DR5" s="4" t="n">
-        <x:v>351230</x:v>
+        <x:v>351215</x:v>
       </x:c>
       <x:c r="DS5" s="4" t="n">
-        <x:v>369131</x:v>
+        <x:v>369002</x:v>
       </x:c>
       <x:c r="DT5" s="4" t="n">
-        <x:v>383381</x:v>
+        <x:v>383174</x:v>
       </x:c>
       <x:c r="DU5" s="4" t="n">
-        <x:v>384349</x:v>
+        <x:v>384234</x:v>
       </x:c>
       <x:c r="DV5" s="4" t="n">
-        <x:v>397102</x:v>
+        <x:v>397065</x:v>
       </x:c>
       <x:c r="DW5" s="4" t="n">
-        <x:v>399671</x:v>
+        <x:v>399538</x:v>
       </x:c>
       <x:c r="DX5" s="4" t="n">
-        <x:v>400941</x:v>
+        <x:v>400760</x:v>
       </x:c>
       <x:c r="DY5" s="4" t="n">
-        <x:v>396329</x:v>
+        <x:v>396242</x:v>
       </x:c>
       <x:c r="DZ5" s="4" t="n">
-        <x:v>404262</x:v>
+        <x:v>404126</x:v>
       </x:c>
       <x:c r="EA5" s="4" t="n">
-        <x:v>406575</x:v>
+        <x:v>406455</x:v>
       </x:c>
       <x:c r="EB5" s="4" t="n">
-        <x:v>407152</x:v>
+        <x:v>407064</x:v>
       </x:c>
       <x:c r="EC5" s="4" t="n">
-        <x:v>400646</x:v>
+        <x:v>400633</x:v>
       </x:c>
       <x:c r="ED5" s="4" t="n">
-        <x:v>395573</x:v>
+        <x:v>395584</x:v>
       </x:c>
       <x:c r="EE5" s="4" t="n">
-        <x:v>405574</x:v>
+        <x:v>405401</x:v>
       </x:c>
       <x:c r="EF5" s="4" t="n">
-        <x:v>405949</x:v>
+        <x:v>405795</x:v>
       </x:c>
       <x:c r="EG5" s="4" t="n">
-        <x:v>407550</x:v>
+        <x:v>407537</x:v>
       </x:c>
       <x:c r="EH5" s="4" t="n">
-        <x:v>417721</x:v>
+        <x:v>417692</x:v>
       </x:c>
       <x:c r="EI5" s="4" t="n">
-        <x:v>430124</x:v>
+        <x:v>430032</x:v>
       </x:c>
       <x:c r="EJ5" s="4" t="n">
-        <x:v>430703</x:v>
+        <x:v>430587</x:v>
       </x:c>
       <x:c r="EK5" s="4" t="n">
-        <x:v>441248</x:v>
+        <x:v>441154</x:v>
       </x:c>
       <x:c r="EL5" s="4" t="n">
-        <x:v>445100</x:v>
+        <x:v>445071</x:v>
       </x:c>
       <x:c r="EM5" s="4" t="n">
-        <x:v>444932</x:v>
+        <x:v>444812</x:v>
       </x:c>
       <x:c r="EN5" s="4" t="n">
-        <x:v>459782</x:v>
+        <x:v>459656</x:v>
       </x:c>
       <x:c r="EO5" s="4" t="n">
-        <x:v>468731</x:v>
+        <x:v>468573</x:v>
       </x:c>
       <x:c r="EP5" s="4" t="n">
-        <x:v>467463</x:v>
+        <x:v>467501</x:v>
       </x:c>
       <x:c r="EQ5" s="4" t="n">
-        <x:v>469791</x:v>
+        <x:v>469549</x:v>
       </x:c>
       <x:c r="ER5" s="4" t="n">
-        <x:v>479153</x:v>
+        <x:v>478941</x:v>
       </x:c>
       <x:c r="ES5" s="4" t="n">
-        <x:v>477693</x:v>
+        <x:v>477578</x:v>
       </x:c>
       <x:c r="ET5" s="4" t="n">
-        <x:v>484551</x:v>
+        <x:v>484396</x:v>
       </x:c>
       <x:c r="EU5" s="4" t="n">
-        <x:v>496652</x:v>
+        <x:v>496569</x:v>
       </x:c>
       <x:c r="EV5" s="4" t="n">
-        <x:v>503733</x:v>
+        <x:v>503481</x:v>
       </x:c>
       <x:c r="EW5" s="4" t="n">
-        <x:v>505418</x:v>
+        <x:v>505432</x:v>
       </x:c>
       <x:c r="EX5" s="4" t="n">
-        <x:v>513479</x:v>
+        <x:v>513314</x:v>
       </x:c>
       <x:c r="EY5" s="4" t="n">
-        <x:v>515964</x:v>
+        <x:v>515901</x:v>
       </x:c>
       <x:c r="EZ5" s="4" t="n">
-        <x:v>512110</x:v>
+        <x:v>511815</x:v>
       </x:c>
       <x:c r="FA5" s="4" t="n">
-        <x:v>527815</x:v>
+        <x:v>527945</x:v>
       </x:c>
       <x:c r="FB5" s="4" t="n">
-        <x:v>528575</x:v>
+        <x:v>528352</x:v>
       </x:c>
       <x:c r="FC5" s="4" t="n">
-        <x:v>532995</x:v>
+        <x:v>532960</x:v>
       </x:c>
       <x:c r="FD5" s="4" t="n">
-        <x:v>532525</x:v>
+        <x:v>532201</x:v>
       </x:c>
       <x:c r="FE5" s="4" t="n">
-        <x:v>520317</x:v>
+        <x:v>520511</x:v>
       </x:c>
       <x:c r="FF5" s="4" t="n">
-        <x:v>520310</x:v>
+        <x:v>519786</x:v>
       </x:c>
       <x:c r="FG5" s="4" t="n">
-        <x:v>456307</x:v>
+        <x:v>456339</x:v>
       </x:c>
       <x:c r="FH5" s="4" t="n">
-        <x:v>495578</x:v>
+        <x:v>495427</x:v>
       </x:c>
       <x:c r="FI5" s="4" t="n">
-        <x:v>516818</x:v>
+        <x:v>516872</x:v>
       </x:c>
       <x:c r="FJ5" s="4" t="n">
-        <x:v>528047</x:v>
+        <x:v>528632</x:v>
       </x:c>
       <x:c r="FK5" s="4" t="n">
-        <x:v>533380</x:v>
+        <x:v>533932</x:v>
       </x:c>
       <x:c r="FL5" s="4" t="n">
-        <x:v>546316</x:v>
+        <x:v>547306</x:v>
+      </x:c>
+      <x:c r="FM5" s="4" t="n">
+        <x:v>560178</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:168">
+    <x:row r="6" spans="1:169">
       <x:c r="A6" s="2" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F6" s="4" t="n">
-        <x:v>71273</x:v>
+        <x:v>71249</x:v>
       </x:c>
       <x:c r="G6" s="4" t="n">
-        <x:v>70012</x:v>
+        <x:v>69989</x:v>
       </x:c>
       <x:c r="H6" s="4" t="n">
-        <x:v>71430</x:v>
+        <x:v>71407</x:v>
       </x:c>
       <x:c r="I6" s="4" t="n">
-        <x:v>71268</x:v>
+        <x:v>71245</x:v>
       </x:c>
       <x:c r="J6" s="4" t="n">
-        <x:v>71689</x:v>
+        <x:v>71666</x:v>
       </x:c>
       <x:c r="K6" s="4" t="n">
-        <x:v>71419</x:v>
+        <x:v>71396</x:v>
       </x:c>
       <x:c r="L6" s="4" t="n">
-        <x:v>74885</x:v>
+        <x:v>74861</x:v>
       </x:c>
       <x:c r="M6" s="4" t="n">
-        <x:v>77509</x:v>
+        <x:v>77484</x:v>
       </x:c>
       <x:c r="N6" s="4" t="n">
-        <x:v>73431</x:v>
+        <x:v>73407</x:v>
       </x:c>
       <x:c r="O6" s="4" t="n">
-        <x:v>72724</x:v>
+        <x:v>72700</x:v>
       </x:c>
       <x:c r="P6" s="4" t="n">
-        <x:v>76574</x:v>
+        <x:v>76549</x:v>
       </x:c>
       <x:c r="Q6" s="4" t="n">
-        <x:v>76754</x:v>
+        <x:v>76729</x:v>
       </x:c>
       <x:c r="R6" s="4" t="n">
-        <x:v>77330</x:v>
+        <x:v>77305</x:v>
       </x:c>
       <x:c r="S6" s="4" t="n">
-        <x:v>79987</x:v>
+        <x:v>79961</x:v>
       </x:c>
       <x:c r="T6" s="4" t="n">
-        <x:v>79450</x:v>
+        <x:v>79425</x:v>
       </x:c>
       <x:c r="U6" s="4" t="n">
-        <x:v>82051</x:v>
+        <x:v>82024</x:v>
       </x:c>
       <x:c r="V6" s="4" t="n">
-        <x:v>87281</x:v>
+        <x:v>87253</x:v>
       </x:c>
       <x:c r="W6" s="4" t="n">
-        <x:v>88470</x:v>
+        <x:v>88441</x:v>
       </x:c>
       <x:c r="X6" s="4" t="n">
-        <x:v>85702</x:v>
+        <x:v>85674</x:v>
       </x:c>
       <x:c r="Y6" s="4" t="n">
-        <x:v>84379</x:v>
+        <x:v>84352</x:v>
       </x:c>
       <x:c r="Z6" s="4" t="n">
-        <x:v>86693</x:v>
+        <x:v>86665</x:v>
       </x:c>
       <x:c r="AA6" s="4" t="n">
-        <x:v>90353</x:v>
+        <x:v>90324</x:v>
       </x:c>
       <x:c r="AB6" s="4" t="n">
-        <x:v>92803</x:v>
+        <x:v>92773</x:v>
       </x:c>
       <x:c r="AC6" s="4" t="n">
-        <x:v>91366</x:v>
+        <x:v>91336</x:v>
       </x:c>
       <x:c r="AD6" s="4" t="n">
-        <x:v>92547</x:v>
+        <x:v>92517</x:v>
       </x:c>
       <x:c r="AE6" s="4" t="n">
-        <x:v>96030</x:v>
+        <x:v>96000</x:v>
       </x:c>
       <x:c r="AF6" s="4" t="n">
-        <x:v>97186</x:v>
+        <x:v>97155</x:v>
       </x:c>
       <x:c r="AG6" s="4" t="n">
-        <x:v>99982</x:v>
+        <x:v>99950</x:v>
       </x:c>
       <x:c r="AH6" s="4" t="n">
-        <x:v>97046</x:v>
+        <x:v>97015</x:v>
       </x:c>
       <x:c r="AI6" s="4" t="n">
-        <x:v>98770</x:v>
+        <x:v>98739</x:v>
       </x:c>
       <x:c r="AJ6" s="4" t="n">
-        <x:v>99910</x:v>
+        <x:v>99878</x:v>
       </x:c>
       <x:c r="AK6" s="4" t="n">
-        <x:v>102438</x:v>
+        <x:v>102405</x:v>
       </x:c>
       <x:c r="AL6" s="4" t="n">
-        <x:v>104663</x:v>
+        <x:v>104630</x:v>
       </x:c>
       <x:c r="AM6" s="4" t="n">
-        <x:v>105491</x:v>
+        <x:v>105457</x:v>
       </x:c>
       <x:c r="AN6" s="4" t="n">
-        <x:v>108011</x:v>
+        <x:v>107976</x:v>
       </x:c>
       <x:c r="AO6" s="4" t="n">
-        <x:v>110299</x:v>
+        <x:v>110264</x:v>
       </x:c>
       <x:c r="AP6" s="4" t="n">
-        <x:v>108818</x:v>
+        <x:v>108783</x:v>
       </x:c>
       <x:c r="AQ6" s="4" t="n">
-        <x:v>109656</x:v>
+        <x:v>109621</x:v>
       </x:c>
       <x:c r="AR6" s="4" t="n">
-        <x:v>106719</x:v>
+        <x:v>106685</x:v>
       </x:c>
       <x:c r="AS6" s="4" t="n">
-        <x:v>104006</x:v>
+        <x:v>103972</x:v>
       </x:c>
       <x:c r="AT6" s="4" t="n">
-        <x:v>102824</x:v>
+        <x:v>102791</x:v>
       </x:c>
       <x:c r="AU6" s="4" t="n">
-        <x:v>101965</x:v>
+        <x:v>101932</x:v>
       </x:c>
       <x:c r="AV6" s="4" t="n">
-        <x:v>102752</x:v>
+        <x:v>102719</x:v>
       </x:c>
       <x:c r="AW6" s="4" t="n">
-        <x:v>100520</x:v>
+        <x:v>100488</x:v>
       </x:c>
       <x:c r="AX6" s="4" t="n">
-        <x:v>103683</x:v>
+        <x:v>103649</x:v>
       </x:c>
       <x:c r="AY6" s="4" t="n">
-        <x:v>102045</x:v>
+        <x:v>102012</x:v>
       </x:c>
       <x:c r="AZ6" s="4" t="n">
-        <x:v>100946</x:v>
+        <x:v>100914</x:v>
       </x:c>
       <x:c r="BA6" s="4" t="n">
-        <x:v>96130</x:v>
+        <x:v>96099</x:v>
       </x:c>
       <x:c r="BB6" s="4" t="n">
-        <x:v>101152</x:v>
+        <x:v>101056</x:v>
       </x:c>
       <x:c r="BC6" s="4" t="n">
-        <x:v>100990</x:v>
+        <x:v>100958</x:v>
       </x:c>
       <x:c r="BD6" s="4" t="n">
         <x:v>103067</x:v>
       </x:c>
       <x:c r="BE6" s="4" t="n">
-        <x:v>105974</x:v>
+        <x:v>105953</x:v>
       </x:c>
       <x:c r="BF6" s="4" t="n">
-        <x:v>110212</x:v>
+        <x:v>110101</x:v>
       </x:c>
       <x:c r="BG6" s="4" t="n">
-        <x:v>116228</x:v>
+        <x:v>116177</x:v>
       </x:c>
       <x:c r="BH6" s="4" t="n">
-        <x:v>115771</x:v>
+        <x:v>115766</x:v>
       </x:c>
       <x:c r="BI6" s="4" t="n">
-        <x:v>127828</x:v>
+        <x:v>127804</x:v>
       </x:c>
       <x:c r="BJ6" s="4" t="n">
-        <x:v>125631</x:v>
+        <x:v>125535</x:v>
       </x:c>
       <x:c r="BK6" s="4" t="n">
-        <x:v>126569</x:v>
+        <x:v>126519</x:v>
       </x:c>
       <x:c r="BL6" s="4" t="n">
-        <x:v>129004</x:v>
+        <x:v>129001</x:v>
       </x:c>
       <x:c r="BM6" s="4" t="n">
-        <x:v>130965</x:v>
+        <x:v>130948</x:v>
       </x:c>
       <x:c r="BN6" s="4" t="n">
-        <x:v>128308</x:v>
+        <x:v>128257</x:v>
       </x:c>
       <x:c r="BO6" s="4" t="n">
-        <x:v>129822</x:v>
+        <x:v>129769</x:v>
       </x:c>
       <x:c r="BP6" s="4" t="n">
-        <x:v>131309</x:v>
+        <x:v>131263</x:v>
       </x:c>
       <x:c r="BQ6" s="4" t="n">
-        <x:v>137167</x:v>
+        <x:v>137156</x:v>
       </x:c>
       <x:c r="BR6" s="4" t="n">
-        <x:v>140385</x:v>
+        <x:v>140436</x:v>
       </x:c>
       <x:c r="BS6" s="4" t="n">
-        <x:v>146412</x:v>
+        <x:v>146328</x:v>
       </x:c>
       <x:c r="BT6" s="4" t="n">
-        <x:v>146844</x:v>
+        <x:v>146776</x:v>
       </x:c>
       <x:c r="BU6" s="4" t="n">
-        <x:v>153756</x:v>
+        <x:v>153732</x:v>
       </x:c>
       <x:c r="BV6" s="4" t="n">
-        <x:v>159735</x:v>
+        <x:v>159732</x:v>
       </x:c>
       <x:c r="BW6" s="4" t="n">
-        <x:v>160989</x:v>
+        <x:v>161001</x:v>
       </x:c>
       <x:c r="BX6" s="4" t="n">
-        <x:v>162902</x:v>
+        <x:v>162802</x:v>
       </x:c>
       <x:c r="BY6" s="4" t="n">
-        <x:v>164137</x:v>
+        <x:v>164065</x:v>
       </x:c>
       <x:c r="BZ6" s="4" t="n">
-        <x:v>163351</x:v>
+        <x:v>163353</x:v>
       </x:c>
       <x:c r="CA6" s="4" t="n">
-        <x:v>164634</x:v>
+        <x:v>164630</x:v>
       </x:c>
       <x:c r="CB6" s="4" t="n">
-        <x:v>170167</x:v>
+        <x:v>170055</x:v>
       </x:c>
       <x:c r="CC6" s="4" t="n">
-        <x:v>174483</x:v>
+        <x:v>174368</x:v>
       </x:c>
       <x:c r="CD6" s="4" t="n">
-        <x:v>180005</x:v>
+        <x:v>179953</x:v>
       </x:c>
       <x:c r="CE6" s="4" t="n">
-        <x:v>189857</x:v>
+        <x:v>189885</x:v>
       </x:c>
       <x:c r="CF6" s="4" t="n">
-        <x:v>198506</x:v>
+        <x:v>198450</x:v>
       </x:c>
       <x:c r="CG6" s="4" t="n">
-        <x:v>193582</x:v>
+        <x:v>193445</x:v>
       </x:c>
       <x:c r="CH6" s="4" t="n">
-        <x:v>191344</x:v>
+        <x:v>191298</x:v>
       </x:c>
       <x:c r="CI6" s="4" t="n">
-        <x:v>182406</x:v>
+        <x:v>182416</x:v>
       </x:c>
       <x:c r="CJ6" s="4" t="n">
-        <x:v>179102</x:v>
+        <x:v>179080</x:v>
       </x:c>
       <x:c r="CK6" s="4" t="n">
-        <x:v>179994</x:v>
+        <x:v>179910</x:v>
       </x:c>
       <x:c r="CL6" s="4" t="n">
-        <x:v>183077</x:v>
+        <x:v>183072</x:v>
       </x:c>
       <x:c r="CM6" s="4" t="n">
-        <x:v>182665</x:v>
+        <x:v>182595</x:v>
       </x:c>
       <x:c r="CN6" s="4" t="n">
-        <x:v>180456</x:v>
+        <x:v>180444</x:v>
       </x:c>
       <x:c r="CO6" s="4" t="n">
-        <x:v>186253</x:v>
+        <x:v>186207</x:v>
       </x:c>
       <x:c r="CP6" s="4" t="n">
-        <x:v>192079</x:v>
+        <x:v>192055</x:v>
       </x:c>
       <x:c r="CQ6" s="4" t="n">
-        <x:v>191371</x:v>
+        <x:v>191297</x:v>
       </x:c>
       <x:c r="CR6" s="4" t="n">
-        <x:v>191797</x:v>
+        <x:v>191761</x:v>
       </x:c>
       <x:c r="CS6" s="4" t="n">
-        <x:v>197105</x:v>
+        <x:v>197107</x:v>
       </x:c>
       <x:c r="CT6" s="4" t="n">
-        <x:v>199381</x:v>
+        <x:v>199319</x:v>
       </x:c>
       <x:c r="CU6" s="4" t="n">
-        <x:v>205683</x:v>
+        <x:v>205571</x:v>
       </x:c>
       <x:c r="CV6" s="4" t="n">
-        <x:v>211163</x:v>
+        <x:v>211093</x:v>
       </x:c>
       <x:c r="CW6" s="4" t="n">
-        <x:v>211440</x:v>
+        <x:v>211405</x:v>
       </x:c>
       <x:c r="CX6" s="4" t="n">
-        <x:v>213714</x:v>
+        <x:v>213700</x:v>
       </x:c>
       <x:c r="CY6" s="4" t="n">
-        <x:v>220795</x:v>
+        <x:v>220632</x:v>
       </x:c>
       <x:c r="CZ6" s="4" t="n">
-        <x:v>222202</x:v>
+        <x:v>222106</x:v>
       </x:c>
       <x:c r="DA6" s="4" t="n">
-        <x:v>229722</x:v>
+        <x:v>229684</x:v>
       </x:c>
       <x:c r="DB6" s="4" t="n">
-        <x:v>233352</x:v>
+        <x:v>233204</x:v>
       </x:c>
       <x:c r="DC6" s="4" t="n">
-        <x:v>239528</x:v>
+        <x:v>239489</x:v>
       </x:c>
       <x:c r="DD6" s="4" t="n">
-        <x:v>246516</x:v>
+        <x:v>246480</x:v>
       </x:c>
       <x:c r="DE6" s="4" t="n">
-        <x:v>256799</x:v>
+        <x:v>256751</x:v>
       </x:c>
       <x:c r="DF6" s="4" t="n">
-        <x:v>257041</x:v>
+        <x:v>256884</x:v>
       </x:c>
       <x:c r="DG6" s="4" t="n">
-        <x:v>256137</x:v>
+        <x:v>256091</x:v>
       </x:c>
       <x:c r="DH6" s="4" t="n">
-        <x:v>269150</x:v>
+        <x:v>269128</x:v>
       </x:c>
       <x:c r="DI6" s="4" t="n">
-        <x:v>269912</x:v>
+        <x:v>269907</x:v>
       </x:c>
       <x:c r="DJ6" s="4" t="n">
-        <x:v>275556</x:v>
+        <x:v>275459</x:v>
       </x:c>
       <x:c r="DK6" s="4" t="n">
-        <x:v>275809</x:v>
+        <x:v>275644</x:v>
       </x:c>
       <x:c r="DL6" s="4" t="n">
-        <x:v>269786</x:v>
+        <x:v>269689</x:v>
       </x:c>
       <x:c r="DM6" s="4" t="n">
-        <x:v>248366</x:v>
+        <x:v>248379</x:v>
       </x:c>
       <x:c r="DN6" s="4" t="n">
-        <x:v>222786</x:v>
+        <x:v>222749</x:v>
       </x:c>
       <x:c r="DO6" s="4" t="n">
-        <x:v>207655</x:v>
+        <x:v>207576</x:v>
       </x:c>
       <x:c r="DP6" s="4" t="n">
-        <x:v>223836</x:v>
+        <x:v>223727</x:v>
       </x:c>
       <x:c r="DQ6" s="4" t="n">
-        <x:v>233326</x:v>
+        <x:v>233269</x:v>
       </x:c>
       <x:c r="DR6" s="4" t="n">
-        <x:v>237525</x:v>
+        <x:v>237531</x:v>
       </x:c>
       <x:c r="DS6" s="4" t="n">
-        <x:v>253967</x:v>
+        <x:v>253843</x:v>
       </x:c>
       <x:c r="DT6" s="4" t="n">
-        <x:v>263497</x:v>
+        <x:v>263368</x:v>
       </x:c>
       <x:c r="DU6" s="4" t="n">
-        <x:v>265522</x:v>
+        <x:v>265409</x:v>
       </x:c>
       <x:c r="DV6" s="4" t="n">
-        <x:v>276843</x:v>
+        <x:v>276836</x:v>
       </x:c>
       <x:c r="DW6" s="4" t="n">
-        <x:v>279412</x:v>
+        <x:v>279285</x:v>
       </x:c>
       <x:c r="DX6" s="4" t="n">
-        <x:v>278323</x:v>
+        <x:v>278189</x:v>
       </x:c>
       <x:c r="DY6" s="4" t="n">
-        <x:v>273448</x:v>
+        <x:v>273356</x:v>
       </x:c>
       <x:c r="DZ6" s="4" t="n">
-        <x:v>277856</x:v>
+        <x:v>277784</x:v>
       </x:c>
       <x:c r="EA6" s="4" t="n">
-        <x:v>280572</x:v>
+        <x:v>280490</x:v>
       </x:c>
       <x:c r="EB6" s="4" t="n">
-        <x:v>281791</x:v>
+        <x:v>281703</x:v>
       </x:c>
       <x:c r="EC6" s="4" t="n">
-        <x:v>275311</x:v>
+        <x:v>275275</x:v>
       </x:c>
       <x:c r="ED6" s="4" t="n">
-        <x:v>269812</x:v>
+        <x:v>269836</x:v>
       </x:c>
       <x:c r="EE6" s="4" t="n">
-        <x:v>274610</x:v>
+        <x:v>274516</x:v>
       </x:c>
       <x:c r="EF6" s="4" t="n">
-        <x:v>274905</x:v>
+        <x:v>274749</x:v>
       </x:c>
       <x:c r="EG6" s="4" t="n">
-        <x:v>276988</x:v>
+        <x:v>276972</x:v>
       </x:c>
       <x:c r="EH6" s="4" t="n">
-        <x:v>280350</x:v>
+        <x:v>280346</x:v>
       </x:c>
       <x:c r="EI6" s="4" t="n">
-        <x:v>289662</x:v>
+        <x:v>289611</x:v>
       </x:c>
       <x:c r="EJ6" s="4" t="n">
-        <x:v>290593</x:v>
+        <x:v>290435</x:v>
       </x:c>
       <x:c r="EK6" s="4" t="n">
-        <x:v>291287</x:v>
+        <x:v>291286</x:v>
       </x:c>
       <x:c r="EL6" s="4" t="n">
-        <x:v>297818</x:v>
+        <x:v>297798</x:v>
       </x:c>
       <x:c r="EM6" s="4" t="n">
-        <x:v>297339</x:v>
+        <x:v>297234</x:v>
       </x:c>
       <x:c r="EN6" s="4" t="n">
-        <x:v>310174</x:v>
+        <x:v>310026</x:v>
       </x:c>
       <x:c r="EO6" s="4" t="n">
-        <x:v>313610</x:v>
+        <x:v>313548</x:v>
       </x:c>
       <x:c r="EP6" s="4" t="n">
-        <x:v>317567</x:v>
+        <x:v>317598</x:v>
       </x:c>
       <x:c r="EQ6" s="4" t="n">
-        <x:v>318633</x:v>
+        <x:v>318443</x:v>
       </x:c>
       <x:c r="ER6" s="4" t="n">
-        <x:v>324986</x:v>
+        <x:v>324816</x:v>
       </x:c>
       <x:c r="ES6" s="4" t="n">
-        <x:v>324918</x:v>
+        <x:v>324781</x:v>
       </x:c>
       <x:c r="ET6" s="4" t="n">
-        <x:v>324908</x:v>
+        <x:v>324821</x:v>
       </x:c>
       <x:c r="EU6" s="4" t="n">
-        <x:v>330423</x:v>
+        <x:v>330388</x:v>
       </x:c>
       <x:c r="EV6" s="4" t="n">
-        <x:v>337185</x:v>
+        <x:v>337027</x:v>
       </x:c>
       <x:c r="EW6" s="4" t="n">
-        <x:v>343379</x:v>
+        <x:v>343280</x:v>
       </x:c>
       <x:c r="EX6" s="4" t="n">
-        <x:v>349155</x:v>
+        <x:v>349106</x:v>
       </x:c>
       <x:c r="EY6" s="4" t="n">
-        <x:v>355728</x:v>
+        <x:v>355674</x:v>
       </x:c>
       <x:c r="EZ6" s="4" t="n">
-        <x:v>346554</x:v>
+        <x:v>346361</x:v>
       </x:c>
       <x:c r="FA6" s="4" t="n">
-        <x:v>358955</x:v>
+        <x:v>358882</x:v>
       </x:c>
       <x:c r="FB6" s="4" t="n">
-        <x:v>353339</x:v>
+        <x:v>353298</x:v>
       </x:c>
       <x:c r="FC6" s="4" t="n">
-        <x:v>355979</x:v>
+        <x:v>355999</x:v>
       </x:c>
       <x:c r="FD6" s="4" t="n">
-        <x:v>356754</x:v>
+        <x:v>356580</x:v>
       </x:c>
       <x:c r="FE6" s="4" t="n">
-        <x:v>350020</x:v>
+        <x:v>349872</x:v>
       </x:c>
       <x:c r="FF6" s="4" t="n">
-        <x:v>343663</x:v>
+        <x:v>343646</x:v>
       </x:c>
       <x:c r="FG6" s="4" t="n">
-        <x:v>307388</x:v>
+        <x:v>307440</x:v>
       </x:c>
       <x:c r="FH6" s="4" t="n">
-        <x:v>346543</x:v>
+        <x:v>346440</x:v>
       </x:c>
       <x:c r="FI6" s="4" t="n">
-        <x:v>356982</x:v>
+        <x:v>356639</x:v>
       </x:c>
       <x:c r="FJ6" s="4" t="n">
-        <x:v>367645</x:v>
+        <x:v>367424</x:v>
       </x:c>
       <x:c r="FK6" s="4" t="n">
-        <x:v>368220</x:v>
+        <x:v>368236</x:v>
       </x:c>
       <x:c r="FL6" s="4" t="n">
-        <x:v>372744</x:v>
+        <x:v>373258</x:v>
+      </x:c>
+      <x:c r="FM6" s="4" t="n">
+        <x:v>381717</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:168">
+    <x:row r="7" spans="1:169">
       <x:c r="A7" s="2" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F7" s="4" t="n">
-        <x:v>37060</x:v>
+        <x:v>37051</x:v>
       </x:c>
       <x:c r="G7" s="4" t="n">
-        <x:v>36958</x:v>
+        <x:v>36949</x:v>
       </x:c>
       <x:c r="H7" s="4" t="n">
-        <x:v>36998</x:v>
+        <x:v>36989</x:v>
       </x:c>
       <x:c r="I7" s="4" t="n">
-        <x:v>36481</x:v>
+        <x:v>36472</x:v>
       </x:c>
       <x:c r="J7" s="4" t="n">
-        <x:v>38339</x:v>
+        <x:v>38330</x:v>
       </x:c>
       <x:c r="K7" s="4" t="n">
-        <x:v>38090</x:v>
+        <x:v>38081</x:v>
       </x:c>
       <x:c r="L7" s="4" t="n">
-        <x:v>38588</x:v>
+        <x:v>38579</x:v>
       </x:c>
       <x:c r="M7" s="4" t="n">
-        <x:v>36606</x:v>
+        <x:v>36597</x:v>
       </x:c>
       <x:c r="N7" s="4" t="n">
-        <x:v>37143</x:v>
+        <x:v>37134</x:v>
       </x:c>
       <x:c r="O7" s="4" t="n">
-        <x:v>37697</x:v>
+        <x:v>37688</x:v>
       </x:c>
       <x:c r="P7" s="4" t="n">
-        <x:v>36278</x:v>
+        <x:v>36270</x:v>
       </x:c>
       <x:c r="Q7" s="4" t="n">
-        <x:v>38133</x:v>
+        <x:v>38124</x:v>
       </x:c>
       <x:c r="R7" s="4" t="n">
-        <x:v>37679</x:v>
+        <x:v>37670</x:v>
       </x:c>
       <x:c r="S7" s="4" t="n">
-        <x:v>38414</x:v>
+        <x:v>38405</x:v>
       </x:c>
       <x:c r="T7" s="4" t="n">
-        <x:v>40819</x:v>
+        <x:v>40810</x:v>
       </x:c>
       <x:c r="U7" s="4" t="n">
-        <x:v>41771</x:v>
+        <x:v>41761</x:v>
       </x:c>
       <x:c r="V7" s="4" t="n">
-        <x:v>42364</x:v>
+        <x:v>42354</x:v>
       </x:c>
       <x:c r="W7" s="4" t="n">
-        <x:v>41237</x:v>
+        <x:v>41227</x:v>
       </x:c>
       <x:c r="X7" s="4" t="n">
-        <x:v>41895</x:v>
+        <x:v>41885</x:v>
       </x:c>
       <x:c r="Y7" s="4" t="n">
-        <x:v>42656</x:v>
+        <x:v>42646</x:v>
       </x:c>
       <x:c r="Z7" s="4" t="n">
-        <x:v>41888</x:v>
+        <x:v>41878</x:v>
       </x:c>
       <x:c r="AA7" s="4" t="n">
-        <x:v>43742</x:v>
+        <x:v>43731</x:v>
       </x:c>
       <x:c r="AB7" s="4" t="n">
-        <x:v>41607</x:v>
+        <x:v>41597</x:v>
       </x:c>
       <x:c r="AC7" s="4" t="n">
-        <x:v>42621</x:v>
+        <x:v>42611</x:v>
       </x:c>
       <x:c r="AD7" s="4" t="n">
-        <x:v>41867</x:v>
+        <x:v>41857</x:v>
       </x:c>
       <x:c r="AE7" s="4" t="n">
-        <x:v>44193</x:v>
+        <x:v>44182</x:v>
       </x:c>
       <x:c r="AF7" s="4" t="n">
-        <x:v>47329</x:v>
+        <x:v>47318</x:v>
       </x:c>
       <x:c r="AG7" s="4" t="n">
-        <x:v>49027</x:v>
+        <x:v>49015</x:v>
       </x:c>
       <x:c r="AH7" s="4" t="n">
-        <x:v>48255</x:v>
+        <x:v>48243</x:v>
       </x:c>
       <x:c r="AI7" s="4" t="n">
-        <x:v>48563</x:v>
+        <x:v>48552</x:v>
       </x:c>
       <x:c r="AJ7" s="4" t="n">
-        <x:v>49174</x:v>
+        <x:v>49163</x:v>
       </x:c>
       <x:c r="AK7" s="4" t="n">
-        <x:v>48693</x:v>
+        <x:v>48682</x:v>
       </x:c>
       <x:c r="AL7" s="4" t="n">
-        <x:v>53671</x:v>
+        <x:v>53658</x:v>
       </x:c>
       <x:c r="AM7" s="4" t="n">
-        <x:v>53241</x:v>
+        <x:v>53228</x:v>
       </x:c>
       <x:c r="AN7" s="4" t="n">
-        <x:v>53795</x:v>
+        <x:v>53782</x:v>
       </x:c>
       <x:c r="AO7" s="4" t="n">
-        <x:v>54934</x:v>
+        <x:v>54920</x:v>
       </x:c>
       <x:c r="AP7" s="4" t="n">
-        <x:v>56537</x:v>
+        <x:v>56523</x:v>
       </x:c>
       <x:c r="AQ7" s="4" t="n">
-        <x:v>58744</x:v>
+        <x:v>58730</x:v>
       </x:c>
       <x:c r="AR7" s="4" t="n">
-        <x:v>56296</x:v>
+        <x:v>56282</x:v>
       </x:c>
       <x:c r="AS7" s="4" t="n">
-        <x:v>57619</x:v>
+        <x:v>57605</x:v>
       </x:c>
       <x:c r="AT7" s="4" t="n">
-        <x:v>53071</x:v>
+        <x:v>53059</x:v>
       </x:c>
       <x:c r="AU7" s="4" t="n">
-        <x:v>53251</x:v>
+        <x:v>53238</x:v>
       </x:c>
       <x:c r="AV7" s="4" t="n">
-        <x:v>55760</x:v>
+        <x:v>55746</x:v>
       </x:c>
       <x:c r="AW7" s="4" t="n">
-        <x:v>56692</x:v>
+        <x:v>56679</x:v>
       </x:c>
       <x:c r="AX7" s="4" t="n">
-        <x:v>59433</x:v>
+        <x:v>59418</x:v>
       </x:c>
       <x:c r="AY7" s="4" t="n">
-        <x:v>59398</x:v>
+        <x:v>59383</x:v>
       </x:c>
       <x:c r="AZ7" s="4" t="n">
-        <x:v>61708</x:v>
+        <x:v>61693</x:v>
       </x:c>
       <x:c r="BA7" s="4" t="n">
-        <x:v>56431</x:v>
+        <x:v>56417</x:v>
       </x:c>
       <x:c r="BB7" s="4" t="n">
-        <x:v>49072</x:v>
+        <x:v>49049</x:v>
       </x:c>
       <x:c r="BC7" s="4" t="n">
-        <x:v>49276</x:v>
+        <x:v>49267</x:v>
       </x:c>
       <x:c r="BD7" s="4" t="n">
-        <x:v>50424</x:v>
+        <x:v>50413</x:v>
       </x:c>
       <x:c r="BE7" s="4" t="n">
-        <x:v>51246</x:v>
+        <x:v>51247</x:v>
       </x:c>
       <x:c r="BF7" s="4" t="n">
-        <x:v>52346</x:v>
+        <x:v>52325</x:v>
       </x:c>
       <x:c r="BG7" s="4" t="n">
-        <x:v>54038</x:v>
+        <x:v>54015</x:v>
       </x:c>
       <x:c r="BH7" s="4" t="n">
-        <x:v>54743</x:v>
+        <x:v>54722</x:v>
       </x:c>
       <x:c r="BI7" s="4" t="n">
-        <x:v>55011</x:v>
+        <x:v>55016</x:v>
       </x:c>
       <x:c r="BJ7" s="4" t="n">
-        <x:v>55148</x:v>
+        <x:v>55140</x:v>
       </x:c>
       <x:c r="BK7" s="4" t="n">
-        <x:v>56086</x:v>
+        <x:v>56072</x:v>
       </x:c>
       <x:c r="BL7" s="4" t="n">
-        <x:v>57166</x:v>
+        <x:v>57145</x:v>
       </x:c>
       <x:c r="BM7" s="4" t="n">
-        <x:v>56988</x:v>
+        <x:v>56994</x:v>
       </x:c>
       <x:c r="BN7" s="4" t="n">
-        <x:v>57701</x:v>
+        <x:v>57697</x:v>
       </x:c>
       <x:c r="BO7" s="4" t="n">
-        <x:v>58257</x:v>
+        <x:v>58243</x:v>
       </x:c>
       <x:c r="BP7" s="4" t="n">
-        <x:v>59860</x:v>
+        <x:v>59832</x:v>
       </x:c>
       <x:c r="BQ7" s="4" t="n">
-        <x:v>61878</x:v>
+        <x:v>61889</x:v>
       </x:c>
       <x:c r="BR7" s="4" t="n">
-        <x:v>64222</x:v>
+        <x:v>64241</x:v>
       </x:c>
       <x:c r="BS7" s="4" t="n">
-        <x:v>67640</x:v>
+        <x:v>67610</x:v>
       </x:c>
       <x:c r="BT7" s="4" t="n">
-        <x:v>71061</x:v>
+        <x:v>71033</x:v>
       </x:c>
       <x:c r="BU7" s="4" t="n">
-        <x:v>72365</x:v>
+        <x:v>72375</x:v>
       </x:c>
       <x:c r="BV7" s="4" t="n">
-        <x:v>74953</x:v>
+        <x:v>74947</x:v>
       </x:c>
       <x:c r="BW7" s="4" t="n">
-        <x:v>77217</x:v>
+        <x:v>77205</x:v>
       </x:c>
       <x:c r="BX7" s="4" t="n">
-        <x:v>76892</x:v>
+        <x:v>76882</x:v>
       </x:c>
       <x:c r="BY7" s="4" t="n">
-        <x:v>80091</x:v>
+        <x:v>80088</x:v>
       </x:c>
       <x:c r="BZ7" s="4" t="n">
-        <x:v>81242</x:v>
+        <x:v>81219</x:v>
       </x:c>
       <x:c r="CA7" s="4" t="n">
-        <x:v>82561</x:v>
+        <x:v>82551</x:v>
       </x:c>
       <x:c r="CB7" s="4" t="n">
-        <x:v>84590</x:v>
+        <x:v>84575</x:v>
       </x:c>
       <x:c r="CC7" s="4" t="n">
-        <x:v>85880</x:v>
+        <x:v>85877</x:v>
       </x:c>
       <x:c r="CD7" s="4" t="n">
-        <x:v>89518</x:v>
+        <x:v>89455</x:v>
       </x:c>
       <x:c r="CE7" s="4" t="n">
-        <x:v>91229</x:v>
+        <x:v>91230</x:v>
       </x:c>
       <x:c r="CF7" s="4" t="n">
-        <x:v>93698</x:v>
+        <x:v>93706</x:v>
       </x:c>
       <x:c r="CG7" s="4" t="n">
-        <x:v>94781</x:v>
+        <x:v>94783</x:v>
       </x:c>
       <x:c r="CH7" s="4" t="n">
-        <x:v>98568</x:v>
+        <x:v>98488</x:v>
       </x:c>
       <x:c r="CI7" s="4" t="n">
-        <x:v>97189</x:v>
+        <x:v>97184</x:v>
       </x:c>
       <x:c r="CJ7" s="4" t="n">
-        <x:v>96432</x:v>
+        <x:v>96454</x:v>
       </x:c>
       <x:c r="CK7" s="4" t="n">
-        <x:v>96161</x:v>
+        <x:v>96170</x:v>
       </x:c>
       <x:c r="CL7" s="4" t="n">
-        <x:v>96525</x:v>
+        <x:v>96481</x:v>
       </x:c>
       <x:c r="CM7" s="4" t="n">
-        <x:v>94875</x:v>
+        <x:v>94837</x:v>
       </x:c>
       <x:c r="CN7" s="4" t="n">
-        <x:v>92235</x:v>
+        <x:v>92254</x:v>
       </x:c>
       <x:c r="CO7" s="4" t="n">
-        <x:v>91000</x:v>
+        <x:v>90997</x:v>
       </x:c>
       <x:c r="CP7" s="4" t="n">
-        <x:v>91894</x:v>
+        <x:v>91889</x:v>
       </x:c>
       <x:c r="CQ7" s="4" t="n">
-        <x:v>90693</x:v>
+        <x:v>90658</x:v>
       </x:c>
       <x:c r="CR7" s="4" t="n">
-        <x:v>92662</x:v>
+        <x:v>92664</x:v>
       </x:c>
       <x:c r="CS7" s="4" t="n">
-        <x:v>92864</x:v>
+        <x:v>92829</x:v>
       </x:c>
       <x:c r="CT7" s="4" t="n">
-        <x:v>91546</x:v>
+        <x:v>91586</x:v>
       </x:c>
       <x:c r="CU7" s="4" t="n">
-        <x:v>96770</x:v>
+        <x:v>96711</x:v>
       </x:c>
       <x:c r="CV7" s="4" t="n">
-        <x:v>93601</x:v>
+        <x:v>93608</x:v>
       </x:c>
       <x:c r="CW7" s="4" t="n">
-        <x:v>98834</x:v>
+        <x:v>98735</x:v>
       </x:c>
       <x:c r="CX7" s="4" t="n">
-        <x:v>96098</x:v>
+        <x:v>96170</x:v>
       </x:c>
       <x:c r="CY7" s="4" t="n">
-        <x:v>98164</x:v>
+        <x:v>98133</x:v>
       </x:c>
       <x:c r="CZ7" s="4" t="n">
-        <x:v>103487</x:v>
+        <x:v>103469</x:v>
       </x:c>
       <x:c r="DA7" s="4" t="n">
-        <x:v>106158</x:v>
+        <x:v>106058</x:v>
       </x:c>
       <x:c r="DB7" s="4" t="n">
-        <x:v>104855</x:v>
+        <x:v>104869</x:v>
       </x:c>
       <x:c r="DC7" s="4" t="n">
-        <x:v>106042</x:v>
+        <x:v>106036</x:v>
       </x:c>
       <x:c r="DD7" s="4" t="n">
-        <x:v>106269</x:v>
+        <x:v>106280</x:v>
       </x:c>
       <x:c r="DE7" s="4" t="n">
-        <x:v>108147</x:v>
+        <x:v>108093</x:v>
       </x:c>
       <x:c r="DF7" s="4" t="n">
-        <x:v>110934</x:v>
+        <x:v>110922</x:v>
       </x:c>
       <x:c r="DG7" s="4" t="n">
-        <x:v>115900</x:v>
+        <x:v>115881</x:v>
       </x:c>
       <x:c r="DH7" s="4" t="n">
-        <x:v>117566</x:v>
+        <x:v>117585</x:v>
       </x:c>
       <x:c r="DI7" s="4" t="n">
-        <x:v>122007</x:v>
+        <x:v>121975</x:v>
       </x:c>
       <x:c r="DJ7" s="4" t="n">
-        <x:v>124665</x:v>
+        <x:v>124638</x:v>
       </x:c>
       <x:c r="DK7" s="4" t="n">
-        <x:v>123536</x:v>
+        <x:v>123512</x:v>
       </x:c>
       <x:c r="DL7" s="4" t="n">
-        <x:v>123419</x:v>
+        <x:v>123395</x:v>
       </x:c>
       <x:c r="DM7" s="4" t="n">
-        <x:v>121920</x:v>
+        <x:v>121913</x:v>
       </x:c>
       <x:c r="DN7" s="4" t="n">
-        <x:v>117404</x:v>
+        <x:v>117382</x:v>
       </x:c>
       <x:c r="DO7" s="4" t="n">
-        <x:v>115049</x:v>
+        <x:v>115048</x:v>
       </x:c>
       <x:c r="DP7" s="4" t="n">
-        <x:v>113189</x:v>
+        <x:v>113135</x:v>
       </x:c>
       <x:c r="DQ7" s="4" t="n">
-        <x:v>110696</x:v>
+        <x:v>110712</x:v>
       </x:c>
       <x:c r="DR7" s="4" t="n">
-        <x:v>113783</x:v>
+        <x:v>113759</x:v>
       </x:c>
       <x:c r="DS7" s="4" t="n">
         <x:v>114532</x:v>
       </x:c>
       <x:c r="DT7" s="4" t="n">
-        <x:v>119272</x:v>
+        <x:v>119191</x:v>
       </x:c>
       <x:c r="DU7" s="4" t="n">
-        <x:v>117989</x:v>
+        <x:v>117993</x:v>
       </x:c>
       <x:c r="DV7" s="4" t="n">
-        <x:v>118916</x:v>
+        <x:v>118882</x:v>
       </x:c>
       <x:c r="DW7" s="4" t="n">
-        <x:v>118768</x:v>
+        <x:v>118767</x:v>
       </x:c>
       <x:c r="DX7" s="4" t="n">
-        <x:v>121476</x:v>
+        <x:v>121431</x:v>
       </x:c>
       <x:c r="DY7" s="4" t="n">
-        <x:v>122053</x:v>
+        <x:v>122065</x:v>
       </x:c>
       <x:c r="DZ7" s="4" t="n">
-        <x:v>125717</x:v>
+        <x:v>125650</x:v>
       </x:c>
       <x:c r="EA7" s="4" t="n">
-        <x:v>125121</x:v>
+        <x:v>125082</x:v>
       </x:c>
       <x:c r="EB7" s="4" t="n">
-        <x:v>124338</x:v>
+        <x:v>124343</x:v>
       </x:c>
       <x:c r="EC7" s="4" t="n">
-        <x:v>124662</x:v>
+        <x:v>124690</x:v>
       </x:c>
       <x:c r="ED7" s="4" t="n">
-        <x:v>125358</x:v>
+        <x:v>125342</x:v>
       </x:c>
       <x:c r="EE7" s="4" t="n">
-        <x:v>130832</x:v>
+        <x:v>130751</x:v>
       </x:c>
       <x:c r="EF7" s="4" t="n">
-        <x:v>130906</x:v>
+        <x:v>130915</x:v>
       </x:c>
       <x:c r="EG7" s="4" t="n">
-        <x:v>130285</x:v>
+        <x:v>130289</x:v>
       </x:c>
       <x:c r="EH7" s="4" t="n">
-        <x:v>137458</x:v>
+        <x:v>137432</x:v>
       </x:c>
       <x:c r="EI7" s="4" t="n">
-        <x:v>140454</x:v>
+        <x:v>140412</x:v>
       </x:c>
       <x:c r="EJ7" s="4" t="n">
-        <x:v>140047</x:v>
+        <x:v>140099</x:v>
       </x:c>
       <x:c r="EK7" s="4" t="n">
-        <x:v>150533</x:v>
+        <x:v>150436</x:v>
       </x:c>
       <x:c r="EL7" s="4" t="n">
-        <x:v>147469</x:v>
+        <x:v>147462</x:v>
       </x:c>
       <x:c r="EM7" s="4" t="n">
-        <x:v>147810</x:v>
+        <x:v>147797</x:v>
       </x:c>
       <x:c r="EN7" s="4" t="n">
-        <x:v>149594</x:v>
+        <x:v>149623</x:v>
       </x:c>
       <x:c r="EO7" s="4" t="n">
-        <x:v>155320</x:v>
+        <x:v>155221</x:v>
       </x:c>
       <x:c r="EP7" s="4" t="n">
-        <x:v>149898</x:v>
+        <x:v>149905</x:v>
       </x:c>
       <x:c r="EQ7" s="4" t="n">
-        <x:v>151179</x:v>
+        <x:v>151128</x:v>
       </x:c>
       <x:c r="ER7" s="4" t="n">
-        <x:v>154188</x:v>
+        <x:v>154148</x:v>
       </x:c>
       <x:c r="ES7" s="4" t="n">
-        <x:v>152761</x:v>
+        <x:v>152787</x:v>
       </x:c>
       <x:c r="ET7" s="4" t="n">
-        <x:v>159708</x:v>
+        <x:v>159640</x:v>
       </x:c>
       <x:c r="EU7" s="4" t="n">
-        <x:v>166336</x:v>
+        <x:v>166290</x:v>
       </x:c>
       <x:c r="EV7" s="4" t="n">
-        <x:v>166625</x:v>
+        <x:v>166531</x:v>
       </x:c>
       <x:c r="EW7" s="4" t="n">
-        <x:v>162035</x:v>
+        <x:v>162151</x:v>
       </x:c>
       <x:c r="EX7" s="4" t="n">
-        <x:v>164230</x:v>
+        <x:v>164113</x:v>
       </x:c>
       <x:c r="EY7" s="4" t="n">
-        <x:v>159973</x:v>
+        <x:v>159965</x:v>
       </x:c>
       <x:c r="EZ7" s="4" t="n">
-        <x:v>165521</x:v>
+        <x:v>165419</x:v>
       </x:c>
       <x:c r="FA7" s="4" t="n">
-        <x:v>168761</x:v>
+        <x:v>168972</x:v>
       </x:c>
       <x:c r="FB7" s="4" t="n">
-        <x:v>175493</x:v>
+        <x:v>175305</x:v>
       </x:c>
       <x:c r="FC7" s="4" t="n">
-        <x:v>177293</x:v>
+        <x:v>177236</x:v>
       </x:c>
       <x:c r="FD7" s="4" t="n">
-        <x:v>175986</x:v>
+        <x:v>175835</x:v>
       </x:c>
       <x:c r="FE7" s="4" t="n">
-        <x:v>170426</x:v>
+        <x:v>170785</x:v>
       </x:c>
       <x:c r="FF7" s="4" t="n">
-        <x:v>176647</x:v>
+        <x:v>176140</x:v>
       </x:c>
       <x:c r="FG7" s="4" t="n">
-        <x:v>148919</x:v>
+        <x:v>148899</x:v>
       </x:c>
       <x:c r="FH7" s="4" t="n">
-        <x:v>149035</x:v>
+        <x:v>148987</x:v>
       </x:c>
       <x:c r="FI7" s="4" t="n">
-        <x:v>159836</x:v>
+        <x:v>160233</x:v>
       </x:c>
       <x:c r="FJ7" s="4" t="n">
-        <x:v>160402</x:v>
+        <x:v>161208</x:v>
       </x:c>
       <x:c r="FK7" s="4" t="n">
-        <x:v>165160</x:v>
+        <x:v>165696</x:v>
       </x:c>
       <x:c r="FL7" s="4" t="n">
-        <x:v>173572</x:v>
+        <x:v>174048</x:v>
+      </x:c>
+      <x:c r="FM7" s="4" t="n">
+        <x:v>178461</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:168">
+    <x:row r="8" spans="1:169">
       <x:c r="A8" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F8" s="4" t="n">
-        <x:v>272710</x:v>
+        <x:v>272709</x:v>
       </x:c>
       <x:c r="G8" s="4" t="n">
-        <x:v>274167</x:v>
+        <x:v>274166</x:v>
       </x:c>
       <x:c r="H8" s="4" t="n">
-        <x:v>274042</x:v>
+        <x:v>274041</x:v>
       </x:c>
       <x:c r="I8" s="4" t="n">
         <x:v>273017</x:v>
@@ -3599,495 +3610,498 @@
         <x:v>276576</x:v>
       </x:c>
       <x:c r="K8" s="4" t="n">
-        <x:v>275932</x:v>
+        <x:v>275931</x:v>
       </x:c>
       <x:c r="L8" s="4" t="n">
-        <x:v>274757</x:v>
+        <x:v>274756</x:v>
       </x:c>
       <x:c r="M8" s="4" t="n">
-        <x:v>275683</x:v>
+        <x:v>275682</x:v>
       </x:c>
       <x:c r="N8" s="4" t="n">
-        <x:v>269244</x:v>
+        <x:v>269243</x:v>
       </x:c>
       <x:c r="O8" s="4" t="n">
-        <x:v>268674</x:v>
+        <x:v>268673</x:v>
       </x:c>
       <x:c r="P8" s="4" t="n">
         <x:v>270804</x:v>
       </x:c>
       <x:c r="Q8" s="4" t="n">
-        <x:v>271986</x:v>
+        <x:v>271985</x:v>
       </x:c>
       <x:c r="R8" s="4" t="n">
-        <x:v>273889</x:v>
+        <x:v>273888</x:v>
       </x:c>
       <x:c r="S8" s="4" t="n">
-        <x:v>275516</x:v>
+        <x:v>275515</x:v>
       </x:c>
       <x:c r="T8" s="4" t="n">
-        <x:v>276793</x:v>
+        <x:v>276792</x:v>
       </x:c>
       <x:c r="U8" s="4" t="n">
         <x:v>277265</x:v>
       </x:c>
       <x:c r="V8" s="4" t="n">
-        <x:v>281625</x:v>
+        <x:v>281624</x:v>
       </x:c>
       <x:c r="W8" s="4" t="n">
-        <x:v>281825</x:v>
+        <x:v>281824</x:v>
       </x:c>
       <x:c r="X8" s="4" t="n">
-        <x:v>282093</x:v>
+        <x:v>282092</x:v>
       </x:c>
       <x:c r="Y8" s="4" t="n">
-        <x:v>285152</x:v>
+        <x:v>285151</x:v>
       </x:c>
       <x:c r="Z8" s="4" t="n">
-        <x:v>289562</x:v>
+        <x:v>289561</x:v>
       </x:c>
       <x:c r="AA8" s="4" t="n">
-        <x:v>292106</x:v>
+        <x:v>292105</x:v>
       </x:c>
       <x:c r="AB8" s="4" t="n">
-        <x:v>300625</x:v>
+        <x:v>300624</x:v>
       </x:c>
       <x:c r="AC8" s="4" t="n">
-        <x:v>303284</x:v>
+        <x:v>303283</x:v>
       </x:c>
       <x:c r="AD8" s="4" t="n">
-        <x:v>304386</x:v>
+        <x:v>304385</x:v>
       </x:c>
       <x:c r="AE8" s="4" t="n">
-        <x:v>313334</x:v>
+        <x:v>313333</x:v>
       </x:c>
       <x:c r="AF8" s="4" t="n">
-        <x:v>310789</x:v>
+        <x:v>310788</x:v>
       </x:c>
       <x:c r="AG8" s="4" t="n">
-        <x:v>316344</x:v>
+        <x:v>316343</x:v>
       </x:c>
       <x:c r="AH8" s="4" t="n">
         <x:v>320387</x:v>
       </x:c>
       <x:c r="AI8" s="4" t="n">
-        <x:v>317508</x:v>
+        <x:v>317507</x:v>
       </x:c>
       <x:c r="AJ8" s="4" t="n">
-        <x:v>321337</x:v>
+        <x:v>321336</x:v>
       </x:c>
       <x:c r="AK8" s="4" t="n">
-        <x:v>320009</x:v>
+        <x:v>320008</x:v>
       </x:c>
       <x:c r="AL8" s="4" t="n">
-        <x:v>321570</x:v>
+        <x:v>321569</x:v>
       </x:c>
       <x:c r="AM8" s="4" t="n">
-        <x:v>323533</x:v>
+        <x:v>323532</x:v>
       </x:c>
       <x:c r="AN8" s="4" t="n">
-        <x:v>324609</x:v>
+        <x:v>324608</x:v>
       </x:c>
       <x:c r="AO8" s="4" t="n">
-        <x:v>327744</x:v>
+        <x:v>327743</x:v>
       </x:c>
       <x:c r="AP8" s="4" t="n">
-        <x:v>324955</x:v>
+        <x:v>324954</x:v>
       </x:c>
       <x:c r="AQ8" s="4" t="n">
-        <x:v>325497</x:v>
+        <x:v>325496</x:v>
       </x:c>
       <x:c r="AR8" s="4" t="n">
-        <x:v>322886</x:v>
+        <x:v>322885</x:v>
       </x:c>
       <x:c r="AS8" s="4" t="n">
-        <x:v>318699</x:v>
+        <x:v>318698</x:v>
       </x:c>
       <x:c r="AT8" s="4" t="n">
-        <x:v>323108</x:v>
+        <x:v>323107</x:v>
       </x:c>
       <x:c r="AU8" s="4" t="n">
-        <x:v>322793</x:v>
+        <x:v>322792</x:v>
       </x:c>
       <x:c r="AV8" s="4" t="n">
-        <x:v>321184</x:v>
+        <x:v>321183</x:v>
       </x:c>
       <x:c r="AW8" s="4" t="n">
-        <x:v>325128</x:v>
+        <x:v>325127</x:v>
       </x:c>
       <x:c r="AX8" s="4" t="n">
-        <x:v>324092</x:v>
+        <x:v>324091</x:v>
       </x:c>
       <x:c r="AY8" s="4" t="n">
-        <x:v>319260</x:v>
+        <x:v>319259</x:v>
       </x:c>
       <x:c r="AZ8" s="4" t="n">
-        <x:v>316810</x:v>
+        <x:v>316809</x:v>
       </x:c>
       <x:c r="BA8" s="4" t="n">
-        <x:v>311131</x:v>
+        <x:v>311130</x:v>
       </x:c>
       <x:c r="BB8" s="4" t="n">
-        <x:v>306813</x:v>
+        <x:v>307134</x:v>
       </x:c>
       <x:c r="BC8" s="4" t="n">
-        <x:v>310536</x:v>
+        <x:v>310559</x:v>
       </x:c>
       <x:c r="BD8" s="4" t="n">
-        <x:v>310158</x:v>
+        <x:v>310025</x:v>
       </x:c>
       <x:c r="BE8" s="4" t="n">
-        <x:v>309781</x:v>
+        <x:v>309686</x:v>
       </x:c>
       <x:c r="BF8" s="4" t="n">
-        <x:v>313298</x:v>
+        <x:v>313561</x:v>
       </x:c>
       <x:c r="BG8" s="4" t="n">
-        <x:v>312594</x:v>
+        <x:v>312587</x:v>
       </x:c>
       <x:c r="BH8" s="4" t="n">
-        <x:v>314451</x:v>
+        <x:v>314355</x:v>
       </x:c>
       <x:c r="BI8" s="4" t="n">
-        <x:v>318518</x:v>
+        <x:v>318474</x:v>
       </x:c>
       <x:c r="BJ8" s="4" t="n">
-        <x:v>316346</x:v>
+        <x:v>316485</x:v>
       </x:c>
       <x:c r="BK8" s="4" t="n">
-        <x:v>318786</x:v>
+        <x:v>318828</x:v>
       </x:c>
       <x:c r="BL8" s="4" t="n">
-        <x:v>317917</x:v>
+        <x:v>317890</x:v>
       </x:c>
       <x:c r="BM8" s="4" t="n">
-        <x:v>318975</x:v>
+        <x:v>318924</x:v>
       </x:c>
       <x:c r="BN8" s="4" t="n">
-        <x:v>320523</x:v>
+        <x:v>320503</x:v>
       </x:c>
       <x:c r="BO8" s="4" t="n">
-        <x:v>321019</x:v>
+        <x:v>321104</x:v>
       </x:c>
       <x:c r="BP8" s="4" t="n">
-        <x:v>326290</x:v>
+        <x:v>326346</x:v>
       </x:c>
       <x:c r="BQ8" s="4" t="n">
-        <x:v>327026</x:v>
+        <x:v>326989</x:v>
       </x:c>
       <x:c r="BR8" s="4" t="n">
-        <x:v>329587</x:v>
+        <x:v>329476</x:v>
       </x:c>
       <x:c r="BS8" s="4" t="n">
-        <x:v>335060</x:v>
+        <x:v>335142</x:v>
       </x:c>
       <x:c r="BT8" s="4" t="n">
-        <x:v>333825</x:v>
+        <x:v>333923</x:v>
       </x:c>
       <x:c r="BU8" s="4" t="n">
         <x:v>336392</x:v>
       </x:c>
       <x:c r="BV8" s="4" t="n">
-        <x:v>338796</x:v>
+        <x:v>338691</x:v>
       </x:c>
       <x:c r="BW8" s="4" t="n">
-        <x:v>342836</x:v>
+        <x:v>342789</x:v>
       </x:c>
       <x:c r="BX8" s="4" t="n">
-        <x:v>346276</x:v>
+        <x:v>346396</x:v>
       </x:c>
       <x:c r="BY8" s="4" t="n">
-        <x:v>350987</x:v>
+        <x:v>351090</x:v>
       </x:c>
       <x:c r="BZ8" s="4" t="n">
-        <x:v>352368</x:v>
+        <x:v>352273</x:v>
       </x:c>
       <x:c r="CA8" s="4" t="n">
-        <x:v>354241</x:v>
+        <x:v>354143</x:v>
       </x:c>
       <x:c r="CB8" s="4" t="n">
-        <x:v>358689</x:v>
+        <x:v>358786</x:v>
       </x:c>
       <x:c r="CC8" s="4" t="n">
-        <x:v>369108</x:v>
+        <x:v>369241</x:v>
       </x:c>
       <x:c r="CD8" s="4" t="n">
-        <x:v>373643</x:v>
+        <x:v>373569</x:v>
       </x:c>
       <x:c r="CE8" s="4" t="n">
-        <x:v>379363</x:v>
+        <x:v>379284</x:v>
       </x:c>
       <x:c r="CF8" s="4" t="n">
-        <x:v>381014</x:v>
+        <x:v>381054</x:v>
       </x:c>
       <x:c r="CG8" s="4" t="n">
-        <x:v>379797</x:v>
+        <x:v>379945</x:v>
       </x:c>
       <x:c r="CH8" s="4" t="n">
-        <x:v>381623</x:v>
+        <x:v>381536</x:v>
       </x:c>
       <x:c r="CI8" s="4" t="n">
-        <x:v>381877</x:v>
+        <x:v>381852</x:v>
       </x:c>
       <x:c r="CJ8" s="4" t="n">
-        <x:v>382892</x:v>
+        <x:v>382899</x:v>
       </x:c>
       <x:c r="CK8" s="4" t="n">
-        <x:v>381115</x:v>
+        <x:v>381197</x:v>
       </x:c>
       <x:c r="CL8" s="4" t="n">
-        <x:v>388600</x:v>
+        <x:v>388563</x:v>
       </x:c>
       <x:c r="CM8" s="4" t="n">
-        <x:v>389879</x:v>
+        <x:v>389936</x:v>
       </x:c>
       <x:c r="CN8" s="4" t="n">
-        <x:v>390264</x:v>
+        <x:v>390228</x:v>
       </x:c>
       <x:c r="CO8" s="4" t="n">
-        <x:v>393040</x:v>
+        <x:v>393060</x:v>
       </x:c>
       <x:c r="CP8" s="4" t="n">
-        <x:v>393426</x:v>
+        <x:v>393414</x:v>
       </x:c>
       <x:c r="CQ8" s="4" t="n">
-        <x:v>394214</x:v>
+        <x:v>394283</x:v>
       </x:c>
       <x:c r="CR8" s="4" t="n">
-        <x:v>398811</x:v>
+        <x:v>398813</x:v>
       </x:c>
       <x:c r="CS8" s="4" t="n">
-        <x:v>400832</x:v>
+        <x:v>400783</x:v>
       </x:c>
       <x:c r="CT8" s="4" t="n">
-        <x:v>406512</x:v>
+        <x:v>406536</x:v>
       </x:c>
       <x:c r="CU8" s="4" t="n">
-        <x:v>404072</x:v>
+        <x:v>404122</x:v>
       </x:c>
       <x:c r="CV8" s="4" t="n">
-        <x:v>408655</x:v>
+        <x:v>408705</x:v>
       </x:c>
       <x:c r="CW8" s="4" t="n">
-        <x:v>411719</x:v>
+        <x:v>411627</x:v>
       </x:c>
       <x:c r="CX8" s="4" t="n">
-        <x:v>414297</x:v>
+        <x:v>414330</x:v>
       </x:c>
       <x:c r="CY8" s="4" t="n">
-        <x:v>417670</x:v>
+        <x:v>417683</x:v>
       </x:c>
       <x:c r="CZ8" s="4" t="n">
-        <x:v>423565</x:v>
+        <x:v>423637</x:v>
       </x:c>
       <x:c r="DA8" s="4" t="n">
-        <x:v>426549</x:v>
+        <x:v>426479</x:v>
       </x:c>
       <x:c r="DB8" s="4" t="n">
-        <x:v>427871</x:v>
+        <x:v>427919</x:v>
       </x:c>
       <x:c r="DC8" s="4" t="n">
-        <x:v>432615</x:v>
+        <x:v>432618</x:v>
       </x:c>
       <x:c r="DD8" s="4" t="n">
-        <x:v>434147</x:v>
+        <x:v>434146</x:v>
       </x:c>
       <x:c r="DE8" s="4" t="n">
-        <x:v>439798</x:v>
+        <x:v>439815</x:v>
       </x:c>
       <x:c r="DF8" s="4" t="n">
-        <x:v>443498</x:v>
+        <x:v>443524</x:v>
       </x:c>
       <x:c r="DG8" s="4" t="n">
-        <x:v>446407</x:v>
+        <x:v>446432</x:v>
       </x:c>
       <x:c r="DH8" s="4" t="n">
-        <x:v>454717</x:v>
+        <x:v>454688</x:v>
       </x:c>
       <x:c r="DI8" s="4" t="n">
-        <x:v>459803</x:v>
+        <x:v>459814</x:v>
       </x:c>
       <x:c r="DJ8" s="4" t="n">
-        <x:v>455434</x:v>
+        <x:v>455505</x:v>
       </x:c>
       <x:c r="DK8" s="4" t="n">
-        <x:v>455778</x:v>
+        <x:v>455798</x:v>
       </x:c>
       <x:c r="DL8" s="4" t="n">
-        <x:v>452519</x:v>
+        <x:v>452521</x:v>
       </x:c>
       <x:c r="DM8" s="4" t="n">
-        <x:v>447976</x:v>
+        <x:v>447893</x:v>
       </x:c>
       <x:c r="DN8" s="4" t="n">
-        <x:v>452433</x:v>
+        <x:v>452470</x:v>
       </x:c>
       <x:c r="DO8" s="4" t="n">
-        <x:v>456677</x:v>
+        <x:v>456749</x:v>
       </x:c>
       <x:c r="DP8" s="4" t="n">
-        <x:v>459271</x:v>
+        <x:v>459310</x:v>
       </x:c>
       <x:c r="DQ8" s="4" t="n">
-        <x:v>461779</x:v>
+        <x:v>461754</x:v>
       </x:c>
       <x:c r="DR8" s="4" t="n">
-        <x:v>472363</x:v>
+        <x:v>472356</x:v>
       </x:c>
       <x:c r="DS8" s="4" t="n">
-        <x:v>472157</x:v>
+        <x:v>472182</x:v>
       </x:c>
       <x:c r="DT8" s="4" t="n">
-        <x:v>478522</x:v>
+        <x:v>478535</x:v>
       </x:c>
       <x:c r="DU8" s="4" t="n">
-        <x:v>482402</x:v>
+        <x:v>482427</x:v>
       </x:c>
       <x:c r="DV8" s="4" t="n">
-        <x:v>483812</x:v>
+        <x:v>483752</x:v>
       </x:c>
       <x:c r="DW8" s="4" t="n">
-        <x:v>488152</x:v>
+        <x:v>488227</x:v>
       </x:c>
       <x:c r="DX8" s="4" t="n">
-        <x:v>486223</x:v>
+        <x:v>486215</x:v>
       </x:c>
       <x:c r="DY8" s="4" t="n">
-        <x:v>485505</x:v>
+        <x:v>485515</x:v>
       </x:c>
       <x:c r="DZ8" s="4" t="n">
-        <x:v>488428</x:v>
+        <x:v>488401</x:v>
       </x:c>
       <x:c r="EA8" s="4" t="n">
-        <x:v>487859</x:v>
+        <x:v>487920</x:v>
       </x:c>
       <x:c r="EB8" s="4" t="n">
-        <x:v>490648</x:v>
+        <x:v>490622</x:v>
       </x:c>
       <x:c r="EC8" s="4" t="n">
-        <x:v>492561</x:v>
+        <x:v>492643</x:v>
       </x:c>
       <x:c r="ED8" s="4" t="n">
-        <x:v>494188</x:v>
+        <x:v>494173</x:v>
       </x:c>
       <x:c r="EE8" s="4" t="n">
-        <x:v>495822</x:v>
+        <x:v>495824</x:v>
       </x:c>
       <x:c r="EF8" s="4" t="n">
-        <x:v>500711</x:v>
+        <x:v>500705</x:v>
       </x:c>
       <x:c r="EG8" s="4" t="n">
-        <x:v>503912</x:v>
+        <x:v>503957</x:v>
       </x:c>
       <x:c r="EH8" s="4" t="n">
-        <x:v>506828</x:v>
+        <x:v>506882</x:v>
       </x:c>
       <x:c r="EI8" s="4" t="n">
-        <x:v>513506</x:v>
+        <x:v>513532</x:v>
       </x:c>
       <x:c r="EJ8" s="4" t="n">
-        <x:v>513207</x:v>
+        <x:v>513144</x:v>
       </x:c>
       <x:c r="EK8" s="4" t="n">
-        <x:v>518677</x:v>
+        <x:v>518688</x:v>
       </x:c>
       <x:c r="EL8" s="4" t="n">
-        <x:v>525867</x:v>
+        <x:v>525988</x:v>
       </x:c>
       <x:c r="EM8" s="4" t="n">
-        <x:v>529369</x:v>
+        <x:v>529395</x:v>
       </x:c>
       <x:c r="EN8" s="4" t="n">
-        <x:v>535528</x:v>
+        <x:v>535398</x:v>
       </x:c>
       <x:c r="EO8" s="4" t="n">
-        <x:v>540313</x:v>
+        <x:v>540341</x:v>
       </x:c>
       <x:c r="EP8" s="4" t="n">
-        <x:v>542992</x:v>
+        <x:v>543188</x:v>
       </x:c>
       <x:c r="EQ8" s="4" t="n">
-        <x:v>541837</x:v>
+        <x:v>541798</x:v>
       </x:c>
       <x:c r="ER8" s="4" t="n">
-        <x:v>546625</x:v>
+        <x:v>546459</x:v>
       </x:c>
       <x:c r="ES8" s="4" t="n">
-        <x:v>548094</x:v>
+        <x:v>548134</x:v>
       </x:c>
       <x:c r="ET8" s="4" t="n">
-        <x:v>555845</x:v>
+        <x:v>556041</x:v>
       </x:c>
       <x:c r="EU8" s="4" t="n">
-        <x:v>557275</x:v>
+        <x:v>557260</x:v>
       </x:c>
       <x:c r="EV8" s="4" t="n">
-        <x:v>560226</x:v>
+        <x:v>560067</x:v>
       </x:c>
       <x:c r="EW8" s="4" t="n">
-        <x:v>562916</x:v>
+        <x:v>562955</x:v>
       </x:c>
       <x:c r="EX8" s="4" t="n">
-        <x:v>568106</x:v>
+        <x:v>568336</x:v>
       </x:c>
       <x:c r="EY8" s="4" t="n">
-        <x:v>572355</x:v>
+        <x:v>572287</x:v>
       </x:c>
       <x:c r="EZ8" s="4" t="n">
-        <x:v>566373</x:v>
+        <x:v>566272</x:v>
       </x:c>
       <x:c r="FA8" s="4" t="n">
-        <x:v>570467</x:v>
+        <x:v>570539</x:v>
       </x:c>
       <x:c r="FB8" s="4" t="n">
-        <x:v>568948</x:v>
+        <x:v>569145</x:v>
       </x:c>
       <x:c r="FC8" s="4" t="n">
-        <x:v>574348</x:v>
+        <x:v>574199</x:v>
       </x:c>
       <x:c r="FD8" s="4" t="n">
-        <x:v>573537</x:v>
+        <x:v>573458</x:v>
       </x:c>
       <x:c r="FE8" s="4" t="n">
-        <x:v>576996</x:v>
+        <x:v>577108</x:v>
       </x:c>
       <x:c r="FF8" s="4" t="n">
-        <x:v>566639</x:v>
+        <x:v>567050</x:v>
       </x:c>
       <x:c r="FG8" s="4" t="n">
-        <x:v>522572</x:v>
+        <x:v>522312</x:v>
       </x:c>
       <x:c r="FH8" s="4" t="n">
-        <x:v>547352</x:v>
+        <x:v>547400</x:v>
       </x:c>
       <x:c r="FI8" s="4" t="n">
-        <x:v>550132</x:v>
+        <x:v>550095</x:v>
       </x:c>
       <x:c r="FJ8" s="4" t="n">
-        <x:v>562031</x:v>
+        <x:v>561565</x:v>
       </x:c>
       <x:c r="FK8" s="4" t="n">
-        <x:v>569856</x:v>
+        <x:v>570803</x:v>
       </x:c>
       <x:c r="FL8" s="4" t="n">
-        <x:v>583305</x:v>
+        <x:v>585173</x:v>
+      </x:c>
+      <x:c r="FM8" s="4" t="n">
+        <x:v>593452</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:168">
+    <x:row r="9" spans="1:169">
       <x:c r="A9" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F9" s="4" t="n">
         <x:v>213754</x:v>
@@ -4234,366 +4248,369 @@
         <x:v>254614</x:v>
       </x:c>
       <x:c r="BB9" s="4" t="n">
-        <x:v>264579</x:v>
+        <x:v>264591</x:v>
       </x:c>
       <x:c r="BC9" s="4" t="n">
-        <x:v>262828</x:v>
+        <x:v>262839</x:v>
       </x:c>
       <x:c r="BD9" s="4" t="n">
-        <x:v>261396</x:v>
+        <x:v>261410</x:v>
       </x:c>
       <x:c r="BE9" s="4" t="n">
-        <x:v>260842</x:v>
+        <x:v>260846</x:v>
       </x:c>
       <x:c r="BF9" s="4" t="n">
-        <x:v>259471</x:v>
+        <x:v>259473</x:v>
       </x:c>
       <x:c r="BG9" s="4" t="n">
         <x:v>260334</x:v>
       </x:c>
       <x:c r="BH9" s="4" t="n">
-        <x:v>259127</x:v>
+        <x:v>259134</x:v>
       </x:c>
       <x:c r="BI9" s="4" t="n">
-        <x:v>258183</x:v>
+        <x:v>258204</x:v>
       </x:c>
       <x:c r="BJ9" s="4" t="n">
-        <x:v>260918</x:v>
+        <x:v>260914</x:v>
       </x:c>
       <x:c r="BK9" s="4" t="n">
-        <x:v>260673</x:v>
+        <x:v>260677</x:v>
       </x:c>
       <x:c r="BL9" s="4" t="n">
-        <x:v>261086</x:v>
+        <x:v>261092</x:v>
       </x:c>
       <x:c r="BM9" s="4" t="n">
-        <x:v>260547</x:v>
+        <x:v>260559</x:v>
       </x:c>
       <x:c r="BN9" s="4" t="n">
-        <x:v>260789</x:v>
+        <x:v>260797</x:v>
       </x:c>
       <x:c r="BO9" s="4" t="n">
-        <x:v>260373</x:v>
+        <x:v>260384</x:v>
       </x:c>
       <x:c r="BP9" s="4" t="n">
-        <x:v>259048</x:v>
+        <x:v>259056</x:v>
       </x:c>
       <x:c r="BQ9" s="4" t="n">
-        <x:v>261976</x:v>
+        <x:v>261966</x:v>
       </x:c>
       <x:c r="BR9" s="4" t="n">
-        <x:v>259029</x:v>
+        <x:v>259059</x:v>
       </x:c>
       <x:c r="BS9" s="4" t="n">
-        <x:v>259805</x:v>
+        <x:v>259828</x:v>
       </x:c>
       <x:c r="BT9" s="4" t="n">
-        <x:v>262564</x:v>
+        <x:v>262547</x:v>
       </x:c>
       <x:c r="BU9" s="4" t="n">
-        <x:v>261110</x:v>
+        <x:v>261098</x:v>
       </x:c>
       <x:c r="BV9" s="4" t="n">
-        <x:v>269338</x:v>
+        <x:v>269364</x:v>
       </x:c>
       <x:c r="BW9" s="4" t="n">
-        <x:v>269240</x:v>
+        <x:v>269260</x:v>
       </x:c>
       <x:c r="BX9" s="4" t="n">
-        <x:v>272103</x:v>
+        <x:v>272101</x:v>
       </x:c>
       <x:c r="BY9" s="4" t="n">
-        <x:v>271877</x:v>
+        <x:v>271885</x:v>
       </x:c>
       <x:c r="BZ9" s="4" t="n">
         <x:v>275284</x:v>
       </x:c>
       <x:c r="CA9" s="4" t="n">
-        <x:v>275105</x:v>
+        <x:v>275111</x:v>
       </x:c>
       <x:c r="CB9" s="4" t="n">
-        <x:v>273217</x:v>
+        <x:v>273221</x:v>
       </x:c>
       <x:c r="CC9" s="4" t="n">
-        <x:v>273288</x:v>
+        <x:v>273294</x:v>
       </x:c>
       <x:c r="CD9" s="4" t="n">
-        <x:v>272053</x:v>
+        <x:v>272063</x:v>
       </x:c>
       <x:c r="CE9" s="4" t="n">
-        <x:v>272181</x:v>
+        <x:v>272194</x:v>
       </x:c>
       <x:c r="CF9" s="4" t="n">
-        <x:v>273576</x:v>
+        <x:v>273574</x:v>
       </x:c>
       <x:c r="CG9" s="4" t="n">
-        <x:v>272170</x:v>
+        <x:v>272168</x:v>
       </x:c>
       <x:c r="CH9" s="4" t="n">
-        <x:v>272040</x:v>
+        <x:v>272051</x:v>
       </x:c>
       <x:c r="CI9" s="4" t="n">
-        <x:v>272493</x:v>
+        <x:v>272504</x:v>
       </x:c>
       <x:c r="CJ9" s="4" t="n">
-        <x:v>273273</x:v>
+        <x:v>273281</x:v>
       </x:c>
       <x:c r="CK9" s="4" t="n">
-        <x:v>275974</x:v>
+        <x:v>275981</x:v>
       </x:c>
       <x:c r="CL9" s="4" t="n">
-        <x:v>277727</x:v>
+        <x:v>277731</x:v>
       </x:c>
       <x:c r="CM9" s="4" t="n">
-        <x:v>278914</x:v>
+        <x:v>278919</x:v>
       </x:c>
       <x:c r="CN9" s="4" t="n">
-        <x:v>279439</x:v>
+        <x:v>279448</x:v>
       </x:c>
       <x:c r="CO9" s="4" t="n">
-        <x:v>280561</x:v>
+        <x:v>280570</x:v>
       </x:c>
       <x:c r="CP9" s="4" t="n">
-        <x:v>281205</x:v>
+        <x:v>281208</x:v>
       </x:c>
       <x:c r="CQ9" s="4" t="n">
-        <x:v>281260</x:v>
+        <x:v>281267</x:v>
       </x:c>
       <x:c r="CR9" s="4" t="n">
-        <x:v>281895</x:v>
+        <x:v>281907</x:v>
       </x:c>
       <x:c r="CS9" s="4" t="n">
-        <x:v>280989</x:v>
+        <x:v>281001</x:v>
       </x:c>
       <x:c r="CT9" s="4" t="n">
-        <x:v>279516</x:v>
+        <x:v>279519</x:v>
       </x:c>
       <x:c r="CU9" s="4" t="n">
         <x:v>279313</x:v>
       </x:c>
       <x:c r="CV9" s="4" t="n">
-        <x:v>277861</x:v>
+        <x:v>277874</x:v>
       </x:c>
       <x:c r="CW9" s="4" t="n">
-        <x:v>277613</x:v>
+        <x:v>277620</x:v>
       </x:c>
       <x:c r="CX9" s="4" t="n">
-        <x:v>278918</x:v>
+        <x:v>278921</x:v>
       </x:c>
       <x:c r="CY9" s="4" t="n">
         <x:v>278896</x:v>
       </x:c>
       <x:c r="CZ9" s="4" t="n">
-        <x:v>278118</x:v>
+        <x:v>278129</x:v>
       </x:c>
       <x:c r="DA9" s="4" t="n">
-        <x:v>279262</x:v>
+        <x:v>279269</x:v>
       </x:c>
       <x:c r="DB9" s="4" t="n">
-        <x:v>282061</x:v>
+        <x:v>282060</x:v>
       </x:c>
       <x:c r="DC9" s="4" t="n">
-        <x:v>282446</x:v>
+        <x:v>282460</x:v>
       </x:c>
       <x:c r="DD9" s="4" t="n">
-        <x:v>285416</x:v>
+        <x:v>285419</x:v>
       </x:c>
       <x:c r="DE9" s="4" t="n">
-        <x:v>285808</x:v>
+        <x:v>285810</x:v>
       </x:c>
       <x:c r="DF9" s="4" t="n">
-        <x:v>284734</x:v>
+        <x:v>284744</x:v>
       </x:c>
       <x:c r="DG9" s="4" t="n">
-        <x:v>286722</x:v>
+        <x:v>286728</x:v>
       </x:c>
       <x:c r="DH9" s="4" t="n">
-        <x:v>286030</x:v>
+        <x:v>286039</x:v>
       </x:c>
       <x:c r="DI9" s="4" t="n">
-        <x:v>288065</x:v>
+        <x:v>288071</x:v>
       </x:c>
       <x:c r="DJ9" s="4" t="n">
-        <x:v>287891</x:v>
+        <x:v>287905</x:v>
       </x:c>
       <x:c r="DK9" s="4" t="n">
         <x:v>289306</x:v>
       </x:c>
       <x:c r="DL9" s="4" t="n">
-        <x:v>290241</x:v>
+        <x:v>290239</x:v>
       </x:c>
       <x:c r="DM9" s="4" t="n">
-        <x:v>289553</x:v>
+        <x:v>289563</x:v>
       </x:c>
       <x:c r="DN9" s="4" t="n">
-        <x:v>297225</x:v>
+        <x:v>297232</x:v>
       </x:c>
       <x:c r="DO9" s="4" t="n">
-        <x:v>294645</x:v>
+        <x:v>294661</x:v>
       </x:c>
       <x:c r="DP9" s="4" t="n">
-        <x:v>295882</x:v>
+        <x:v>295886</x:v>
       </x:c>
       <x:c r="DQ9" s="4" t="n">
-        <x:v>296656</x:v>
+        <x:v>296657</x:v>
       </x:c>
       <x:c r="DR9" s="4" t="n">
-        <x:v>297494</x:v>
+        <x:v>297501</x:v>
       </x:c>
       <x:c r="DS9" s="4" t="n">
-        <x:v>298873</x:v>
+        <x:v>298872</x:v>
       </x:c>
       <x:c r="DT9" s="4" t="n">
-        <x:v>298276</x:v>
+        <x:v>298289</x:v>
       </x:c>
       <x:c r="DU9" s="4" t="n">
-        <x:v>300425</x:v>
+        <x:v>300429</x:v>
       </x:c>
       <x:c r="DV9" s="4" t="n">
-        <x:v>300257</x:v>
+        <x:v>300264</x:v>
       </x:c>
       <x:c r="DW9" s="4" t="n">
-        <x:v>301444</x:v>
+        <x:v>301448</x:v>
       </x:c>
       <x:c r="DX9" s="4" t="n">
-        <x:v>302005</x:v>
+        <x:v>302013</x:v>
       </x:c>
       <x:c r="DY9" s="4" t="n">
-        <x:v>302401</x:v>
+        <x:v>302406</x:v>
       </x:c>
       <x:c r="DZ9" s="4" t="n">
-        <x:v>303933</x:v>
+        <x:v>303936</x:v>
       </x:c>
       <x:c r="EA9" s="4" t="n">
-        <x:v>305479</x:v>
+        <x:v>305489</x:v>
       </x:c>
       <x:c r="EB9" s="4" t="n">
-        <x:v>307848</x:v>
+        <x:v>307857</x:v>
       </x:c>
       <x:c r="EC9" s="4" t="n">
-        <x:v>308559</x:v>
+        <x:v>308570</x:v>
       </x:c>
       <x:c r="ED9" s="4" t="n">
-        <x:v>310731</x:v>
+        <x:v>310736</x:v>
       </x:c>
       <x:c r="EE9" s="4" t="n">
-        <x:v>311085</x:v>
+        <x:v>311086</x:v>
       </x:c>
       <x:c r="EF9" s="4" t="n">
-        <x:v>311183</x:v>
+        <x:v>311190</x:v>
       </x:c>
       <x:c r="EG9" s="4" t="n">
-        <x:v>312355</x:v>
+        <x:v>312365</x:v>
       </x:c>
       <x:c r="EH9" s="4" t="n">
-        <x:v>312693</x:v>
+        <x:v>312707</x:v>
       </x:c>
       <x:c r="EI9" s="4" t="n">
-        <x:v>315265</x:v>
+        <x:v>315273</x:v>
       </x:c>
       <x:c r="EJ9" s="4" t="n">
-        <x:v>317004</x:v>
+        <x:v>317009</x:v>
       </x:c>
       <x:c r="EK9" s="4" t="n">
-        <x:v>318426</x:v>
+        <x:v>318427</x:v>
       </x:c>
       <x:c r="EL9" s="4" t="n">
-        <x:v>319528</x:v>
+        <x:v>319538</x:v>
       </x:c>
       <x:c r="EM9" s="4" t="n">
-        <x:v>319068</x:v>
+        <x:v>319080</x:v>
       </x:c>
       <x:c r="EN9" s="4" t="n">
-        <x:v>322739</x:v>
+        <x:v>322750</x:v>
       </x:c>
       <x:c r="EO9" s="4" t="n">
-        <x:v>325938</x:v>
+        <x:v>325943</x:v>
       </x:c>
       <x:c r="EP9" s="4" t="n">
-        <x:v>329499</x:v>
+        <x:v>329506</x:v>
       </x:c>
       <x:c r="EQ9" s="4" t="n">
-        <x:v>333278</x:v>
+        <x:v>333277</x:v>
       </x:c>
       <x:c r="ER9" s="4" t="n">
-        <x:v>332068</x:v>
+        <x:v>332078</x:v>
       </x:c>
       <x:c r="ES9" s="4" t="n">
-        <x:v>332858</x:v>
+        <x:v>332863</x:v>
       </x:c>
       <x:c r="ET9" s="4" t="n">
-        <x:v>332610</x:v>
+        <x:v>332621</x:v>
       </x:c>
       <x:c r="EU9" s="4" t="n">
-        <x:v>333088</x:v>
+        <x:v>333091</x:v>
       </x:c>
       <x:c r="EV9" s="4" t="n">
-        <x:v>334912</x:v>
+        <x:v>334921</x:v>
       </x:c>
       <x:c r="EW9" s="4" t="n">
-        <x:v>335106</x:v>
+        <x:v>335108</x:v>
       </x:c>
       <x:c r="EX9" s="4" t="n">
-        <x:v>335189</x:v>
+        <x:v>335199</x:v>
       </x:c>
       <x:c r="EY9" s="4" t="n">
-        <x:v>338101</x:v>
+        <x:v>338120</x:v>
       </x:c>
       <x:c r="EZ9" s="4" t="n">
-        <x:v>337728</x:v>
+        <x:v>337733</x:v>
       </x:c>
       <x:c r="FA9" s="4" t="n">
-        <x:v>338878</x:v>
+        <x:v>338861</x:v>
       </x:c>
       <x:c r="FB9" s="4" t="n">
-        <x:v>340367</x:v>
+        <x:v>340377</x:v>
       </x:c>
       <x:c r="FC9" s="4" t="n">
-        <x:v>337021</x:v>
+        <x:v>337097</x:v>
       </x:c>
       <x:c r="FD9" s="4" t="n">
-        <x:v>338068</x:v>
+        <x:v>338064</x:v>
       </x:c>
       <x:c r="FE9" s="4" t="n">
-        <x:v>338709</x:v>
+        <x:v>338532</x:v>
       </x:c>
       <x:c r="FF9" s="4" t="n">
-        <x:v>336101</x:v>
+        <x:v>336295</x:v>
       </x:c>
       <x:c r="FG9" s="4" t="n">
-        <x:v>327475</x:v>
+        <x:v>327679</x:v>
       </x:c>
       <x:c r="FH9" s="4" t="n">
-        <x:v>333424</x:v>
+        <x:v>333043</x:v>
       </x:c>
       <x:c r="FI9" s="4" t="n">
-        <x:v>336116</x:v>
+        <x:v>335970</x:v>
       </x:c>
       <x:c r="FJ9" s="4" t="n">
-        <x:v>341301</x:v>
+        <x:v>339866</x:v>
       </x:c>
       <x:c r="FK9" s="4" t="n">
-        <x:v>343739</x:v>
+        <x:v>341670</x:v>
       </x:c>
       <x:c r="FL9" s="4" t="n">
-        <x:v>344549</x:v>
+        <x:v>342199</x:v>
+      </x:c>
+      <x:c r="FM9" s="4" t="n">
+        <x:v>343062</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:168">
+    <x:row r="10" spans="1:169">
       <x:c r="A10" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F10" s="4" t="n">
         <x:v>110946</x:v>
@@ -4740,1522 +4757,1531 @@
         <x:v>134617</x:v>
       </x:c>
       <x:c r="BB10" s="4" t="n">
-        <x:v>123431</x:v>
+        <x:v>123517</x:v>
       </x:c>
       <x:c r="BC10" s="4" t="n">
-        <x:v>123232</x:v>
+        <x:v>123229</x:v>
       </x:c>
       <x:c r="BD10" s="4" t="n">
-        <x:v>120806</x:v>
+        <x:v>120766</x:v>
       </x:c>
       <x:c r="BE10" s="4" t="n">
-        <x:v>123806</x:v>
+        <x:v>123815</x:v>
       </x:c>
       <x:c r="BF10" s="4" t="n">
-        <x:v>129300</x:v>
+        <x:v>129421</x:v>
       </x:c>
       <x:c r="BG10" s="4" t="n">
-        <x:v>128127</x:v>
+        <x:v>128136</x:v>
       </x:c>
       <x:c r="BH10" s="4" t="n">
-        <x:v>130954</x:v>
+        <x:v>130921</x:v>
       </x:c>
       <x:c r="BI10" s="4" t="n">
-        <x:v>139124</x:v>
+        <x:v>139138</x:v>
       </x:c>
       <x:c r="BJ10" s="4" t="n">
-        <x:v>137845</x:v>
+        <x:v>137948</x:v>
       </x:c>
       <x:c r="BK10" s="4" t="n">
-        <x:v>137879</x:v>
+        <x:v>137862</x:v>
       </x:c>
       <x:c r="BL10" s="4" t="n">
-        <x:v>145068</x:v>
+        <x:v>145015</x:v>
       </x:c>
       <x:c r="BM10" s="4" t="n">
-        <x:v>150605</x:v>
+        <x:v>150588</x:v>
       </x:c>
       <x:c r="BN10" s="4" t="n">
-        <x:v>147143</x:v>
+        <x:v>147179</x:v>
       </x:c>
       <x:c r="BO10" s="4" t="n">
-        <x:v>147173</x:v>
+        <x:v>147161</x:v>
       </x:c>
       <x:c r="BP10" s="4" t="n">
-        <x:v>152784</x:v>
+        <x:v>152815</x:v>
       </x:c>
       <x:c r="BQ10" s="4" t="n">
-        <x:v>153583</x:v>
+        <x:v>153533</x:v>
       </x:c>
       <x:c r="BR10" s="4" t="n">
-        <x:v>149832</x:v>
+        <x:v>149645</x:v>
       </x:c>
       <x:c r="BS10" s="4" t="n">
-        <x:v>153598</x:v>
+        <x:v>153665</x:v>
       </x:c>
       <x:c r="BT10" s="4" t="n">
-        <x:v>151468</x:v>
+        <x:v>151519</x:v>
       </x:c>
       <x:c r="BU10" s="4" t="n">
-        <x:v>157163</x:v>
+        <x:v>157126</x:v>
       </x:c>
       <x:c r="BV10" s="4" t="n">
-        <x:v>159676</x:v>
+        <x:v>159592</x:v>
       </x:c>
       <x:c r="BW10" s="4" t="n">
-        <x:v>163103</x:v>
+        <x:v>163002</x:v>
       </x:c>
       <x:c r="BX10" s="4" t="n">
-        <x:v>166177</x:v>
+        <x:v>166263</x:v>
       </x:c>
       <x:c r="BY10" s="4" t="n">
-        <x:v>169741</x:v>
+        <x:v>169785</x:v>
       </x:c>
       <x:c r="BZ10" s="4" t="n">
-        <x:v>172480</x:v>
+        <x:v>172377</x:v>
       </x:c>
       <x:c r="CA10" s="4" t="n">
-        <x:v>170612</x:v>
+        <x:v>170558</x:v>
       </x:c>
       <x:c r="CB10" s="4" t="n">
-        <x:v>178081</x:v>
+        <x:v>178182</x:v>
       </x:c>
       <x:c r="CC10" s="4" t="n">
-        <x:v>176059</x:v>
+        <x:v>176178</x:v>
       </x:c>
       <x:c r="CD10" s="4" t="n">
-        <x:v>178756</x:v>
+        <x:v>178751</x:v>
       </x:c>
       <x:c r="CE10" s="4" t="n">
-        <x:v>185073</x:v>
+        <x:v>184957</x:v>
       </x:c>
       <x:c r="CF10" s="4" t="n">
-        <x:v>188128</x:v>
+        <x:v>188118</x:v>
       </x:c>
       <x:c r="CG10" s="4" t="n">
-        <x:v>190992</x:v>
+        <x:v>191120</x:v>
       </x:c>
       <x:c r="CH10" s="4" t="n">
-        <x:v>188727</x:v>
+        <x:v>188695</x:v>
       </x:c>
       <x:c r="CI10" s="4" t="n">
-        <x:v>187782</x:v>
+        <x:v>187690</x:v>
       </x:c>
       <x:c r="CJ10" s="4" t="n">
-        <x:v>189519</x:v>
+        <x:v>189477</x:v>
       </x:c>
       <x:c r="CK10" s="4" t="n">
-        <x:v>196149</x:v>
+        <x:v>196197</x:v>
       </x:c>
       <x:c r="CL10" s="4" t="n">
-        <x:v>181871</x:v>
+        <x:v>181741</x:v>
       </x:c>
       <x:c r="CM10" s="4" t="n">
-        <x:v>191317</x:v>
+        <x:v>191352</x:v>
       </x:c>
       <x:c r="CN10" s="4" t="n">
-        <x:v>188499</x:v>
+        <x:v>188466</x:v>
       </x:c>
       <x:c r="CO10" s="4" t="n">
-        <x:v>190071</x:v>
+        <x:v>190057</x:v>
       </x:c>
       <x:c r="CP10" s="4" t="n">
-        <x:v>196997</x:v>
+        <x:v>196900</x:v>
       </x:c>
       <x:c r="CQ10" s="4" t="n">
-        <x:v>191449</x:v>
+        <x:v>191455</x:v>
       </x:c>
       <x:c r="CR10" s="4" t="n">
-        <x:v>191181</x:v>
+        <x:v>191174</x:v>
       </x:c>
       <x:c r="CS10" s="4" t="n">
-        <x:v>192140</x:v>
+        <x:v>192053</x:v>
       </x:c>
       <x:c r="CT10" s="4" t="n">
-        <x:v>195646</x:v>
+        <x:v>195638</x:v>
       </x:c>
       <x:c r="CU10" s="4" t="n">
-        <x:v>199517</x:v>
+        <x:v>199588</x:v>
       </x:c>
       <x:c r="CV10" s="4" t="n">
-        <x:v>204716</x:v>
+        <x:v>204741</x:v>
       </x:c>
       <x:c r="CW10" s="4" t="n">
-        <x:v>208290</x:v>
+        <x:v>208284</x:v>
       </x:c>
       <x:c r="CX10" s="4" t="n">
-        <x:v>208117</x:v>
+        <x:v>208007</x:v>
       </x:c>
       <x:c r="CY10" s="4" t="n">
-        <x:v>210217</x:v>
+        <x:v>210390</x:v>
       </x:c>
       <x:c r="CZ10" s="4" t="n">
-        <x:v>216684</x:v>
+        <x:v>216735</x:v>
       </x:c>
       <x:c r="DA10" s="4" t="n">
-        <x:v>213276</x:v>
+        <x:v>213262</x:v>
       </x:c>
       <x:c r="DB10" s="4" t="n">
-        <x:v>220356</x:v>
+        <x:v>220479</x:v>
       </x:c>
       <x:c r="DC10" s="4" t="n">
-        <x:v>232553</x:v>
+        <x:v>232500</x:v>
       </x:c>
       <x:c r="DD10" s="4" t="n">
-        <x:v>234697</x:v>
+        <x:v>234624</x:v>
       </x:c>
       <x:c r="DE10" s="4" t="n">
-        <x:v>238817</x:v>
+        <x:v>238787</x:v>
       </x:c>
       <x:c r="DF10" s="4" t="n">
-        <x:v>249066</x:v>
+        <x:v>249205</x:v>
       </x:c>
       <x:c r="DG10" s="4" t="n">
-        <x:v>249171</x:v>
+        <x:v>249113</x:v>
       </x:c>
       <x:c r="DH10" s="4" t="n">
-        <x:v>248972</x:v>
+        <x:v>248856</x:v>
       </x:c>
       <x:c r="DI10" s="4" t="n">
-        <x:v>257499</x:v>
+        <x:v>257414</x:v>
       </x:c>
       <x:c r="DJ10" s="4" t="n">
-        <x:v>257002</x:v>
+        <x:v>257001</x:v>
       </x:c>
       <x:c r="DK10" s="4" t="n">
-        <x:v>251657</x:v>
+        <x:v>251796</x:v>
       </x:c>
       <x:c r="DL10" s="4" t="n">
-        <x:v>248701</x:v>
+        <x:v>248695</x:v>
       </x:c>
       <x:c r="DM10" s="4" t="n">
-        <x:v>249004</x:v>
+        <x:v>248925</x:v>
       </x:c>
       <x:c r="DN10" s="4" t="n">
-        <x:v>223393</x:v>
+        <x:v>223341</x:v>
       </x:c>
       <x:c r="DO10" s="4" t="n">
-        <x:v>218973</x:v>
+        <x:v>218972</x:v>
       </x:c>
       <x:c r="DP10" s="4" t="n">
-        <x:v>216561</x:v>
+        <x:v>216587</x:v>
       </x:c>
       <x:c r="DQ10" s="4" t="n">
-        <x:v>220394</x:v>
+        <x:v>220444</x:v>
       </x:c>
       <x:c r="DR10" s="4" t="n">
-        <x:v>218876</x:v>
+        <x:v>218765</x:v>
       </x:c>
       <x:c r="DS10" s="4" t="n">
-        <x:v>228479</x:v>
+        <x:v>228536</x:v>
       </x:c>
       <x:c r="DT10" s="4" t="n">
-        <x:v>240136</x:v>
+        <x:v>240167</x:v>
       </x:c>
       <x:c r="DU10" s="4" t="n">
-        <x:v>243291</x:v>
+        <x:v>243444</x:v>
       </x:c>
       <x:c r="DV10" s="4" t="n">
-        <x:v>238905</x:v>
+        <x:v>238812</x:v>
       </x:c>
       <x:c r="DW10" s="4" t="n">
-        <x:v>253309</x:v>
+        <x:v>253327</x:v>
       </x:c>
       <x:c r="DX10" s="4" t="n">
-        <x:v>251462</x:v>
+        <x:v>251486</x:v>
       </x:c>
       <x:c r="DY10" s="4" t="n">
-        <x:v>244056</x:v>
+        <x:v>244196</x:v>
       </x:c>
       <x:c r="DZ10" s="4" t="n">
-        <x:v>251027</x:v>
+        <x:v>251037</x:v>
       </x:c>
       <x:c r="EA10" s="4" t="n">
-        <x:v>245379</x:v>
+        <x:v>245311</x:v>
       </x:c>
       <x:c r="EB10" s="4" t="n">
-        <x:v>239395</x:v>
+        <x:v>239327</x:v>
       </x:c>
       <x:c r="EC10" s="4" t="n">
-        <x:v>245555</x:v>
+        <x:v>245595</x:v>
       </x:c>
       <x:c r="ED10" s="4" t="n">
-        <x:v>240461</x:v>
+        <x:v>240300</x:v>
       </x:c>
       <x:c r="EE10" s="4" t="n">
-        <x:v>244450</x:v>
+        <x:v>244418</x:v>
       </x:c>
       <x:c r="EF10" s="4" t="n">
-        <x:v>250009</x:v>
+        <x:v>250054</x:v>
       </x:c>
       <x:c r="EG10" s="4" t="n">
-        <x:v>251375</x:v>
+        <x:v>251417</x:v>
       </x:c>
       <x:c r="EH10" s="4" t="n">
-        <x:v>257282</x:v>
+        <x:v>257123</x:v>
       </x:c>
       <x:c r="EI10" s="4" t="n">
-        <x:v>259368</x:v>
+        <x:v>259235</x:v>
       </x:c>
       <x:c r="EJ10" s="4" t="n">
-        <x:v>261877</x:v>
+        <x:v>261922</x:v>
       </x:c>
       <x:c r="EK10" s="4" t="n">
-        <x:v>268545</x:v>
+        <x:v>268620</x:v>
       </x:c>
       <x:c r="EL10" s="4" t="n">
-        <x:v>272591</x:v>
+        <x:v>272389</x:v>
       </x:c>
       <x:c r="EM10" s="4" t="n">
-        <x:v>277925</x:v>
+        <x:v>277864</x:v>
       </x:c>
       <x:c r="EN10" s="4" t="n">
-        <x:v>277181</x:v>
+        <x:v>277229</x:v>
       </x:c>
       <x:c r="EO10" s="4" t="n">
-        <x:v>287804</x:v>
+        <x:v>288054</x:v>
       </x:c>
       <x:c r="EP10" s="4" t="n">
-        <x:v>285501</x:v>
+        <x:v>285116</x:v>
       </x:c>
       <x:c r="EQ10" s="4" t="n">
-        <x:v>291423</x:v>
+        <x:v>291475</x:v>
       </x:c>
       <x:c r="ER10" s="4" t="n">
-        <x:v>289584</x:v>
+        <x:v>289704</x:v>
       </x:c>
       <x:c r="ES10" s="4" t="n">
-        <x:v>291780</x:v>
+        <x:v>292257</x:v>
       </x:c>
       <x:c r="ET10" s="4" t="n">
-        <x:v>300852</x:v>
+        <x:v>300563</x:v>
       </x:c>
       <x:c r="EU10" s="4" t="n">
-        <x:v>308125</x:v>
+        <x:v>307800</x:v>
       </x:c>
       <x:c r="EV10" s="4" t="n">
-        <x:v>315518</x:v>
+        <x:v>315683</x:v>
       </x:c>
       <x:c r="EW10" s="4" t="n">
-        <x:v>302776</x:v>
+        <x:v>303381</x:v>
       </x:c>
       <x:c r="EX10" s="4" t="n">
-        <x:v>313991</x:v>
+        <x:v>313388</x:v>
       </x:c>
       <x:c r="EY10" s="4" t="n">
-        <x:v>313362</x:v>
+        <x:v>312964</x:v>
       </x:c>
       <x:c r="EZ10" s="4" t="n">
-        <x:v>307194</x:v>
+        <x:v>307494</x:v>
       </x:c>
       <x:c r="FA10" s="4" t="n">
-        <x:v>310120</x:v>
+        <x:v>310995</x:v>
       </x:c>
       <x:c r="FB10" s="4" t="n">
-        <x:v>312456</x:v>
+        <x:v>311522</x:v>
       </x:c>
       <x:c r="FC10" s="4" t="n">
-        <x:v>301979</x:v>
+        <x:v>301309</x:v>
       </x:c>
       <x:c r="FD10" s="4" t="n">
-        <x:v>308647</x:v>
+        <x:v>309110</x:v>
       </x:c>
       <x:c r="FE10" s="4" t="n">
-        <x:v>317855</x:v>
+        <x:v>319336</x:v>
       </x:c>
       <x:c r="FF10" s="4" t="n">
-        <x:v>314402</x:v>
+        <x:v>312924</x:v>
       </x:c>
       <x:c r="FG10" s="4" t="n">
-        <x:v>296620</x:v>
+        <x:v>295829</x:v>
       </x:c>
       <x:c r="FH10" s="4" t="n">
-        <x:v>311596</x:v>
+        <x:v>312288</x:v>
       </x:c>
       <x:c r="FI10" s="4" t="n">
-        <x:v>311886</x:v>
+        <x:v>314291</x:v>
       </x:c>
       <x:c r="FJ10" s="4" t="n">
-        <x:v>314221</x:v>
+        <x:v>317512</x:v>
       </x:c>
       <x:c r="FK10" s="4" t="n">
-        <x:v>327257</x:v>
+        <x:v>327467</x:v>
       </x:c>
       <x:c r="FL10" s="4" t="n">
-        <x:v>335773</x:v>
+        <x:v>331531</x:v>
+      </x:c>
+      <x:c r="FM10" s="4" t="n">
+        <x:v>331120</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:168">
+    <x:row r="11" spans="1:169">
       <x:c r="A11" s="2" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F11" s="4" t="n">
-        <x:v>92502</x:v>
+        <x:v>92570</x:v>
       </x:c>
       <x:c r="G11" s="4" t="n">
-        <x:v>93484</x:v>
+        <x:v>93553</x:v>
       </x:c>
       <x:c r="H11" s="4" t="n">
-        <x:v>96693</x:v>
+        <x:v>96764</x:v>
       </x:c>
       <x:c r="I11" s="4" t="n">
-        <x:v>100984</x:v>
+        <x:v>101058</x:v>
       </x:c>
       <x:c r="J11" s="4" t="n">
-        <x:v>100318</x:v>
+        <x:v>100392</x:v>
       </x:c>
       <x:c r="K11" s="4" t="n">
-        <x:v>100883</x:v>
+        <x:v>100957</x:v>
       </x:c>
       <x:c r="L11" s="4" t="n">
-        <x:v>101623</x:v>
+        <x:v>101697</x:v>
       </x:c>
       <x:c r="M11" s="4" t="n">
-        <x:v>103458</x:v>
+        <x:v>103534</x:v>
       </x:c>
       <x:c r="N11" s="4" t="n">
-        <x:v>108217</x:v>
+        <x:v>108296</x:v>
       </x:c>
       <x:c r="O11" s="4" t="n">
-        <x:v>111596</x:v>
+        <x:v>111678</x:v>
       </x:c>
       <x:c r="P11" s="4" t="n">
-        <x:v>111114</x:v>
+        <x:v>111195</x:v>
       </x:c>
       <x:c r="Q11" s="4" t="n">
-        <x:v>113322</x:v>
+        <x:v>113405</x:v>
       </x:c>
       <x:c r="R11" s="4" t="n">
-        <x:v>121727</x:v>
+        <x:v>121816</x:v>
       </x:c>
       <x:c r="S11" s="4" t="n">
-        <x:v>118233</x:v>
+        <x:v>118320</x:v>
       </x:c>
       <x:c r="T11" s="4" t="n">
-        <x:v>118621</x:v>
+        <x:v>118707</x:v>
       </x:c>
       <x:c r="U11" s="4" t="n">
-        <x:v>122125</x:v>
+        <x:v>122215</x:v>
       </x:c>
       <x:c r="V11" s="4" t="n">
-        <x:v>115828</x:v>
+        <x:v>115913</x:v>
       </x:c>
       <x:c r="W11" s="4" t="n">
-        <x:v>121015</x:v>
+        <x:v>121104</x:v>
       </x:c>
       <x:c r="X11" s="4" t="n">
-        <x:v>126994</x:v>
+        <x:v>127087</x:v>
       </x:c>
       <x:c r="Y11" s="4" t="n">
-        <x:v>123915</x:v>
+        <x:v>124006</x:v>
       </x:c>
       <x:c r="Z11" s="4" t="n">
-        <x:v>125267</x:v>
+        <x:v>125359</x:v>
       </x:c>
       <x:c r="AA11" s="4" t="n">
-        <x:v>126653</x:v>
+        <x:v>126746</x:v>
       </x:c>
       <x:c r="AB11" s="4" t="n">
-        <x:v>127876</x:v>
+        <x:v>127969</x:v>
       </x:c>
       <x:c r="AC11" s="4" t="n">
-        <x:v>126738</x:v>
+        <x:v>126831</x:v>
       </x:c>
       <x:c r="AD11" s="4" t="n">
-        <x:v>127612</x:v>
+        <x:v>127706</x:v>
       </x:c>
       <x:c r="AE11" s="4" t="n">
-        <x:v>129770</x:v>
+        <x:v>129865</x:v>
       </x:c>
       <x:c r="AF11" s="4" t="n">
-        <x:v>131119</x:v>
+        <x:v>131216</x:v>
       </x:c>
       <x:c r="AG11" s="4" t="n">
-        <x:v>136659</x:v>
+        <x:v>136759</x:v>
       </x:c>
       <x:c r="AH11" s="4" t="n">
-        <x:v>130194</x:v>
+        <x:v>130290</x:v>
       </x:c>
       <x:c r="AI11" s="4" t="n">
-        <x:v>135234</x:v>
+        <x:v>135333</x:v>
       </x:c>
       <x:c r="AJ11" s="4" t="n">
-        <x:v>133112</x:v>
+        <x:v>133209</x:v>
       </x:c>
       <x:c r="AK11" s="4" t="n">
-        <x:v>138304</x:v>
+        <x:v>138405</x:v>
       </x:c>
       <x:c r="AL11" s="4" t="n">
-        <x:v>139143</x:v>
+        <x:v>139246</x:v>
       </x:c>
       <x:c r="AM11" s="4" t="n">
-        <x:v>137867</x:v>
+        <x:v>137969</x:v>
       </x:c>
       <x:c r="AN11" s="4" t="n">
-        <x:v>140415</x:v>
+        <x:v>140518</x:v>
       </x:c>
       <x:c r="AO11" s="4" t="n">
-        <x:v>139953</x:v>
+        <x:v>140056</x:v>
       </x:c>
       <x:c r="AP11" s="4" t="n">
-        <x:v>141965</x:v>
+        <x:v>142069</x:v>
       </x:c>
       <x:c r="AQ11" s="4" t="n">
-        <x:v>144004</x:v>
+        <x:v>144110</x:v>
       </x:c>
       <x:c r="AR11" s="4" t="n">
-        <x:v>140820</x:v>
+        <x:v>140923</x:v>
       </x:c>
       <x:c r="AS11" s="4" t="n">
-        <x:v>144189</x:v>
+        <x:v>144296</x:v>
       </x:c>
       <x:c r="AT11" s="4" t="n">
-        <x:v>140431</x:v>
+        <x:v>140534</x:v>
       </x:c>
       <x:c r="AU11" s="4" t="n">
-        <x:v>141757</x:v>
+        <x:v>141861</x:v>
       </x:c>
       <x:c r="AV11" s="4" t="n">
-        <x:v>135878</x:v>
+        <x:v>135977</x:v>
       </x:c>
       <x:c r="AW11" s="4" t="n">
-        <x:v>141824</x:v>
+        <x:v>141928</x:v>
       </x:c>
       <x:c r="AX11" s="4" t="n">
-        <x:v>144853</x:v>
+        <x:v>144960</x:v>
       </x:c>
       <x:c r="AY11" s="4" t="n">
-        <x:v>141200</x:v>
+        <x:v>141304</x:v>
       </x:c>
       <x:c r="AZ11" s="4" t="n">
-        <x:v>144966</x:v>
+        <x:v>145073</x:v>
       </x:c>
       <x:c r="BA11" s="4" t="n">
-        <x:v>140276</x:v>
+        <x:v>140379</x:v>
       </x:c>
       <x:c r="BB11" s="4" t="n">
-        <x:v>147543</x:v>
+        <x:v>147703</x:v>
       </x:c>
       <x:c r="BC11" s="4" t="n">
-        <x:v>149346</x:v>
+        <x:v>149510</x:v>
       </x:c>
       <x:c r="BD11" s="4" t="n">
-        <x:v>159388</x:v>
+        <x:v>159492</x:v>
       </x:c>
       <x:c r="BE11" s="4" t="n">
-        <x:v>159078</x:v>
+        <x:v>159171</x:v>
       </x:c>
       <x:c r="BF11" s="4" t="n">
-        <x:v>166378</x:v>
+        <x:v>166527</x:v>
       </x:c>
       <x:c r="BG11" s="4" t="n">
-        <x:v>170912</x:v>
+        <x:v>171084</x:v>
       </x:c>
       <x:c r="BH11" s="4" t="n">
-        <x:v>173475</x:v>
+        <x:v>173635</x:v>
       </x:c>
       <x:c r="BI11" s="4" t="n">
-        <x:v>186031</x:v>
+        <x:v>186133</x:v>
       </x:c>
       <x:c r="BJ11" s="4" t="n">
-        <x:v>193847</x:v>
+        <x:v>193953</x:v>
       </x:c>
       <x:c r="BK11" s="4" t="n">
-        <x:v>194774</x:v>
+        <x:v>194968</x:v>
       </x:c>
       <x:c r="BL11" s="4" t="n">
-        <x:v>193901</x:v>
+        <x:v>194146</x:v>
       </x:c>
       <x:c r="BM11" s="4" t="n">
-        <x:v>195761</x:v>
+        <x:v>195890</x:v>
       </x:c>
       <x:c r="BN11" s="4" t="n">
-        <x:v>197567</x:v>
+        <x:v>197642</x:v>
       </x:c>
       <x:c r="BO11" s="4" t="n">
-        <x:v>203195</x:v>
+        <x:v>203381</x:v>
       </x:c>
       <x:c r="BP11" s="4" t="n">
-        <x:v>202211</x:v>
+        <x:v>202479</x:v>
       </x:c>
       <x:c r="BQ11" s="4" t="n">
-        <x:v>209924</x:v>
+        <x:v>210092</x:v>
       </x:c>
       <x:c r="BR11" s="4" t="n">
-        <x:v>219401</x:v>
+        <x:v>219580</x:v>
       </x:c>
       <x:c r="BS11" s="4" t="n">
-        <x:v>231523</x:v>
+        <x:v>231659</x:v>
       </x:c>
       <x:c r="BT11" s="4" t="n">
-        <x:v>235061</x:v>
+        <x:v>235363</x:v>
       </x:c>
       <x:c r="BU11" s="4" t="n">
-        <x:v>242874</x:v>
+        <x:v>243056</x:v>
       </x:c>
       <x:c r="BV11" s="4" t="n">
-        <x:v>245325</x:v>
+        <x:v>245534</x:v>
       </x:c>
       <x:c r="BW11" s="4" t="n">
-        <x:v>247647</x:v>
+        <x:v>247805</x:v>
       </x:c>
       <x:c r="BX11" s="4" t="n">
-        <x:v>255107</x:v>
+        <x:v>255417</x:v>
       </x:c>
       <x:c r="BY11" s="4" t="n">
-        <x:v>262111</x:v>
+        <x:v>262297</x:v>
       </x:c>
       <x:c r="BZ11" s="4" t="n">
-        <x:v>260540</x:v>
+        <x:v>260795</x:v>
       </x:c>
       <x:c r="CA11" s="4" t="n">
-        <x:v>266171</x:v>
+        <x:v>266317</x:v>
       </x:c>
       <x:c r="CB11" s="4" t="n">
-        <x:v>275441</x:v>
+        <x:v>275736</x:v>
       </x:c>
       <x:c r="CC11" s="4" t="n">
-        <x:v>277298</x:v>
+        <x:v>277491</x:v>
       </x:c>
       <x:c r="CD11" s="4" t="n">
-        <x:v>286385</x:v>
+        <x:v>286621</x:v>
       </x:c>
       <x:c r="CE11" s="4" t="n">
-        <x:v>299457</x:v>
+        <x:v>299664</x:v>
       </x:c>
       <x:c r="CF11" s="4" t="n">
-        <x:v>311606</x:v>
+        <x:v>311895</x:v>
       </x:c>
       <x:c r="CG11" s="4" t="n">
-        <x:v>315048</x:v>
+        <x:v>315346</x:v>
       </x:c>
       <x:c r="CH11" s="4" t="n">
-        <x:v>307501</x:v>
+        <x:v>307702</x:v>
       </x:c>
       <x:c r="CI11" s="4" t="n">
-        <x:v>301759</x:v>
+        <x:v>302005</x:v>
       </x:c>
       <x:c r="CJ11" s="4" t="n">
-        <x:v>304618</x:v>
+        <x:v>304925</x:v>
       </x:c>
       <x:c r="CK11" s="4" t="n">
-        <x:v>308162</x:v>
+        <x:v>308484</x:v>
       </x:c>
       <x:c r="CL11" s="4" t="n">
-        <x:v>311179</x:v>
+        <x:v>311419</x:v>
       </x:c>
       <x:c r="CM11" s="4" t="n">
-        <x:v>313951</x:v>
+        <x:v>314197</x:v>
       </x:c>
       <x:c r="CN11" s="4" t="n">
-        <x:v>305640</x:v>
+        <x:v>305903</x:v>
       </x:c>
       <x:c r="CO11" s="4" t="n">
-        <x:v>312132</x:v>
+        <x:v>312441</x:v>
       </x:c>
       <x:c r="CP11" s="4" t="n">
-        <x:v>318179</x:v>
+        <x:v>318435</x:v>
       </x:c>
       <x:c r="CQ11" s="4" t="n">
-        <x:v>320165</x:v>
+        <x:v>320471</x:v>
       </x:c>
       <x:c r="CR11" s="4" t="n">
-        <x:v>327467</x:v>
+        <x:v>327759</x:v>
       </x:c>
       <x:c r="CS11" s="4" t="n">
-        <x:v>333133</x:v>
+        <x:v>333424</x:v>
       </x:c>
       <x:c r="CT11" s="4" t="n">
-        <x:v>346079</x:v>
+        <x:v>346358</x:v>
       </x:c>
       <x:c r="CU11" s="4" t="n">
-        <x:v>361973</x:v>
+        <x:v>362273</x:v>
       </x:c>
       <x:c r="CV11" s="4" t="n">
-        <x:v>361244</x:v>
+        <x:v>361550</x:v>
       </x:c>
       <x:c r="CW11" s="4" t="n">
-        <x:v>364672</x:v>
+        <x:v>364867</x:v>
       </x:c>
       <x:c r="CX11" s="4" t="n">
-        <x:v>365584</x:v>
+        <x:v>366007</x:v>
       </x:c>
       <x:c r="CY11" s="4" t="n">
-        <x:v>377821</x:v>
+        <x:v>378069</x:v>
       </x:c>
       <x:c r="CZ11" s="4" t="n">
-        <x:v>390209</x:v>
+        <x:v>390534</x:v>
       </x:c>
       <x:c r="DA11" s="4" t="n">
-        <x:v>392235</x:v>
+        <x:v>392396</x:v>
       </x:c>
       <x:c r="DB11" s="4" t="n">
-        <x:v>408166</x:v>
+        <x:v>408511</x:v>
       </x:c>
       <x:c r="DC11" s="4" t="n">
-        <x:v>406988</x:v>
+        <x:v>407446</x:v>
       </x:c>
       <x:c r="DD11" s="4" t="n">
-        <x:v>417666</x:v>
+        <x:v>418013</x:v>
       </x:c>
       <x:c r="DE11" s="4" t="n">
-        <x:v>431407</x:v>
+        <x:v>431660</x:v>
       </x:c>
       <x:c r="DF11" s="4" t="n">
-        <x:v>425441</x:v>
+        <x:v>425756</x:v>
       </x:c>
       <x:c r="DG11" s="4" t="n">
-        <x:v>433290</x:v>
+        <x:v>433830</x:v>
       </x:c>
       <x:c r="DH11" s="4" t="n">
-        <x:v>438324</x:v>
+        <x:v>438676</x:v>
       </x:c>
       <x:c r="DI11" s="4" t="n">
-        <x:v>446905</x:v>
+        <x:v>447234</x:v>
       </x:c>
       <x:c r="DJ11" s="4" t="n">
-        <x:v>455690</x:v>
+        <x:v>456104</x:v>
       </x:c>
       <x:c r="DK11" s="4" t="n">
-        <x:v>451110</x:v>
+        <x:v>451481</x:v>
       </x:c>
       <x:c r="DL11" s="4" t="n">
-        <x:v>446886</x:v>
+        <x:v>447223</x:v>
       </x:c>
       <x:c r="DM11" s="4" t="n">
-        <x:v>416675</x:v>
+        <x:v>417025</x:v>
       </x:c>
       <x:c r="DN11" s="4" t="n">
-        <x:v>384125</x:v>
+        <x:v>384417</x:v>
       </x:c>
       <x:c r="DO11" s="4" t="n">
-        <x:v>371366</x:v>
+        <x:v>371758</x:v>
       </x:c>
       <x:c r="DP11" s="4" t="n">
-        <x:v>380859</x:v>
+        <x:v>381127</x:v>
       </x:c>
       <x:c r="DQ11" s="4" t="n">
-        <x:v>380965</x:v>
+        <x:v>381358</x:v>
       </x:c>
       <x:c r="DR11" s="4" t="n">
-        <x:v>395291</x:v>
+        <x:v>395598</x:v>
       </x:c>
       <x:c r="DS11" s="4" t="n">
-        <x:v>414133</x:v>
+        <x:v>414446</x:v>
       </x:c>
       <x:c r="DT11" s="4" t="n">
-        <x:v>425093</x:v>
+        <x:v>425290</x:v>
       </x:c>
       <x:c r="DU11" s="4" t="n">
-        <x:v>437450</x:v>
+        <x:v>437928</x:v>
       </x:c>
       <x:c r="DV11" s="4" t="n">
-        <x:v>440885</x:v>
+        <x:v>441186</x:v>
       </x:c>
       <x:c r="DW11" s="4" t="n">
-        <x:v>442936</x:v>
+        <x:v>443321</x:v>
       </x:c>
       <x:c r="DX11" s="4" t="n">
-        <x:v>458489</x:v>
+        <x:v>458668</x:v>
       </x:c>
       <x:c r="DY11" s="4" t="n">
-        <x:v>443406</x:v>
+        <x:v>443895</x:v>
       </x:c>
       <x:c r="DZ11" s="4" t="n">
-        <x:v>454153</x:v>
+        <x:v>454476</x:v>
       </x:c>
       <x:c r="EA11" s="4" t="n">
-        <x:v>460933</x:v>
+        <x:v>461345</x:v>
       </x:c>
       <x:c r="EB11" s="4" t="n">
-        <x:v>453849</x:v>
+        <x:v>454084</x:v>
       </x:c>
       <x:c r="EC11" s="4" t="n">
-        <x:v>445395</x:v>
+        <x:v>446005</x:v>
       </x:c>
       <x:c r="ED11" s="4" t="n">
-        <x:v>443433</x:v>
+        <x:v>443859</x:v>
       </x:c>
       <x:c r="EE11" s="4" t="n">
-        <x:v>449281</x:v>
+        <x:v>449604</x:v>
       </x:c>
       <x:c r="EF11" s="4" t="n">
-        <x:v>452427</x:v>
+        <x:v>452719</x:v>
       </x:c>
       <x:c r="EG11" s="4" t="n">
-        <x:v>448771</x:v>
+        <x:v>449252</x:v>
       </x:c>
       <x:c r="EH11" s="4" t="n">
-        <x:v>462004</x:v>
+        <x:v>462467</x:v>
       </x:c>
       <x:c r="EI11" s="4" t="n">
-        <x:v>467153</x:v>
+        <x:v>467623</x:v>
       </x:c>
       <x:c r="EJ11" s="4" t="n">
-        <x:v>471011</x:v>
+        <x:v>471376</x:v>
       </x:c>
       <x:c r="EK11" s="4" t="n">
-        <x:v>474418</x:v>
+        <x:v>474749</x:v>
       </x:c>
       <x:c r="EL11" s="4" t="n">
-        <x:v>482576</x:v>
+        <x:v>483078</x:v>
       </x:c>
       <x:c r="EM11" s="4" t="n">
-        <x:v>486992</x:v>
+        <x:v>487541</x:v>
       </x:c>
       <x:c r="EN11" s="4" t="n">
-        <x:v>500779</x:v>
+        <x:v>501226</x:v>
       </x:c>
       <x:c r="EO11" s="4" t="n">
-        <x:v>505573</x:v>
+        <x:v>505648</x:v>
       </x:c>
       <x:c r="EP11" s="4" t="n">
-        <x:v>500781</x:v>
+        <x:v>501384</x:v>
       </x:c>
       <x:c r="EQ11" s="4" t="n">
-        <x:v>497089</x:v>
+        <x:v>497559</x:v>
       </x:c>
       <x:c r="ER11" s="4" t="n">
-        <x:v>505392</x:v>
+        <x:v>505996</x:v>
       </x:c>
       <x:c r="ES11" s="4" t="n">
-        <x:v>513571</x:v>
+        <x:v>513394</x:v>
       </x:c>
       <x:c r="ET11" s="4" t="n">
-        <x:v>507505</x:v>
+        <x:v>507880</x:v>
       </x:c>
       <x:c r="EU11" s="4" t="n">
-        <x:v>528035</x:v>
+        <x:v>528790</x:v>
       </x:c>
       <x:c r="EV11" s="4" t="n">
-        <x:v>530715</x:v>
+        <x:v>531658</x:v>
       </x:c>
       <x:c r="EW11" s="4" t="n">
-        <x:v>541420</x:v>
+        <x:v>541072</x:v>
       </x:c>
       <x:c r="EX11" s="4" t="n">
-        <x:v>539605</x:v>
+        <x:v>540029</x:v>
       </x:c>
       <x:c r="EY11" s="4" t="n">
-        <x:v>541920</x:v>
+        <x:v>542648</x:v>
       </x:c>
       <x:c r="EZ11" s="4" t="n">
-        <x:v>552204</x:v>
+        <x:v>553514</x:v>
       </x:c>
       <x:c r="FA11" s="4" t="n">
-        <x:v>567134</x:v>
+        <x:v>566553</x:v>
       </x:c>
       <x:c r="FB11" s="4" t="n">
-        <x:v>573375</x:v>
+        <x:v>573713</x:v>
       </x:c>
       <x:c r="FC11" s="4" t="n">
-        <x:v>590372</x:v>
+        <x:v>591391</x:v>
       </x:c>
       <x:c r="FD11" s="4" t="n">
-        <x:v>596785</x:v>
+        <x:v>598419</x:v>
       </x:c>
       <x:c r="FE11" s="4" t="n">
-        <x:v>573774</x:v>
+        <x:v>572762</x:v>
       </x:c>
       <x:c r="FF11" s="4" t="n">
-        <x:v>587056</x:v>
+        <x:v>586549</x:v>
       </x:c>
       <x:c r="FG11" s="4" t="n">
-        <x:v>486120</x:v>
+        <x:v>487707</x:v>
       </x:c>
       <x:c r="FH11" s="4" t="n">
-        <x:v>556014</x:v>
+        <x:v>557563</x:v>
       </x:c>
       <x:c r="FI11" s="4" t="n">
-        <x:v>588748</x:v>
+        <x:v>588103</x:v>
       </x:c>
       <x:c r="FJ11" s="4" t="n">
-        <x:v>591550</x:v>
+        <x:v>590234</x:v>
       </x:c>
       <x:c r="FK11" s="4" t="n">
-        <x:v>587567</x:v>
+        <x:v>586715</x:v>
       </x:c>
       <x:c r="FL11" s="4" t="n">
-        <x:v>590357</x:v>
+        <x:v>590882</x:v>
+      </x:c>
+      <x:c r="FM11" s="4" t="n">
+        <x:v>611031</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:168">
+    <x:row r="12" spans="1:169">
       <x:c r="A12" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D12" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F12" s="4" t="n">
-        <x:v>69973</x:v>
+        <x:v>70048</x:v>
       </x:c>
       <x:c r="G12" s="4" t="n">
-        <x:v>71714</x:v>
+        <x:v>71790</x:v>
       </x:c>
       <x:c r="H12" s="4" t="n">
-        <x:v>73580</x:v>
+        <x:v>73658</x:v>
       </x:c>
       <x:c r="I12" s="4" t="n">
-        <x:v>76642</x:v>
+        <x:v>76724</x:v>
       </x:c>
       <x:c r="J12" s="4" t="n">
-        <x:v>75040</x:v>
+        <x:v>75120</x:v>
       </x:c>
       <x:c r="K12" s="4" t="n">
-        <x:v>75007</x:v>
+        <x:v>75087</x:v>
       </x:c>
       <x:c r="L12" s="4" t="n">
-        <x:v>74977</x:v>
+        <x:v>75057</x:v>
       </x:c>
       <x:c r="M12" s="4" t="n">
-        <x:v>75923</x:v>
+        <x:v>76004</x:v>
       </x:c>
       <x:c r="N12" s="4" t="n">
-        <x:v>81312</x:v>
+        <x:v>81400</x:v>
       </x:c>
       <x:c r="O12" s="4" t="n">
-        <x:v>84024</x:v>
+        <x:v>84114</x:v>
       </x:c>
       <x:c r="P12" s="4" t="n">
-        <x:v>83942</x:v>
+        <x:v>84032</x:v>
       </x:c>
       <x:c r="Q12" s="4" t="n">
-        <x:v>86234</x:v>
+        <x:v>86326</x:v>
       </x:c>
       <x:c r="R12" s="4" t="n">
-        <x:v>92063</x:v>
+        <x:v>92162</x:v>
       </x:c>
       <x:c r="S12" s="4" t="n">
-        <x:v>88618</x:v>
+        <x:v>88713</x:v>
       </x:c>
       <x:c r="T12" s="4" t="n">
-        <x:v>90831</x:v>
+        <x:v>90929</x:v>
       </x:c>
       <x:c r="U12" s="4" t="n">
-        <x:v>94366</x:v>
+        <x:v>94467</x:v>
       </x:c>
       <x:c r="V12" s="4" t="n">
-        <x:v>90306</x:v>
+        <x:v>90402</x:v>
       </x:c>
       <x:c r="W12" s="4" t="n">
-        <x:v>94000</x:v>
+        <x:v>94101</x:v>
       </x:c>
       <x:c r="X12" s="4" t="n">
-        <x:v>98247</x:v>
+        <x:v>98352</x:v>
       </x:c>
       <x:c r="Y12" s="4" t="n">
-        <x:v>96325</x:v>
+        <x:v>96428</x:v>
       </x:c>
       <x:c r="Z12" s="4" t="n">
-        <x:v>97071</x:v>
+        <x:v>97175</x:v>
       </x:c>
       <x:c r="AA12" s="4" t="n">
-        <x:v>98282</x:v>
+        <x:v>98387</x:v>
       </x:c>
       <x:c r="AB12" s="4" t="n">
-        <x:v>98964</x:v>
+        <x:v>99070</x:v>
       </x:c>
       <x:c r="AC12" s="4" t="n">
-        <x:v>97590</x:v>
+        <x:v>97694</x:v>
       </x:c>
       <x:c r="AD12" s="4" t="n">
-        <x:v>99052</x:v>
+        <x:v>99158</x:v>
       </x:c>
       <x:c r="AE12" s="4" t="n">
-        <x:v>100471</x:v>
+        <x:v>100578</x:v>
       </x:c>
       <x:c r="AF12" s="4" t="n">
-        <x:v>101151</x:v>
+        <x:v>101260</x:v>
       </x:c>
       <x:c r="AG12" s="4" t="n">
-        <x:v>104379</x:v>
+        <x:v>104491</x:v>
       </x:c>
       <x:c r="AH12" s="4" t="n">
-        <x:v>100122</x:v>
+        <x:v>100229</x:v>
       </x:c>
       <x:c r="AI12" s="4" t="n">
-        <x:v>104089</x:v>
+        <x:v>104200</x:v>
       </x:c>
       <x:c r="AJ12" s="4" t="n">
-        <x:v>102318</x:v>
+        <x:v>102427</x:v>
       </x:c>
       <x:c r="AK12" s="4" t="n">
-        <x:v>106390</x:v>
+        <x:v>106504</x:v>
       </x:c>
       <x:c r="AL12" s="4" t="n">
-        <x:v>107931</x:v>
+        <x:v>108046</x:v>
       </x:c>
       <x:c r="AM12" s="4" t="n">
-        <x:v>106063</x:v>
+        <x:v>106176</x:v>
       </x:c>
       <x:c r="AN12" s="4" t="n">
-        <x:v>107593</x:v>
+        <x:v>107708</x:v>
       </x:c>
       <x:c r="AO12" s="4" t="n">
-        <x:v>106119</x:v>
+        <x:v>106232</x:v>
       </x:c>
       <x:c r="AP12" s="4" t="n">
-        <x:v>106796</x:v>
+        <x:v>106910</x:v>
       </x:c>
       <x:c r="AQ12" s="4" t="n">
-        <x:v>108596</x:v>
+        <x:v>108712</x:v>
       </x:c>
       <x:c r="AR12" s="4" t="n">
-        <x:v>105773</x:v>
+        <x:v>105886</x:v>
       </x:c>
       <x:c r="AS12" s="4" t="n">
-        <x:v>109032</x:v>
+        <x:v>109149</x:v>
       </x:c>
       <x:c r="AT12" s="4" t="n">
-        <x:v>105908</x:v>
+        <x:v>106021</x:v>
       </x:c>
       <x:c r="AU12" s="4" t="n">
-        <x:v>106933</x:v>
+        <x:v>107047</x:v>
       </x:c>
       <x:c r="AV12" s="4" t="n">
-        <x:v>102800</x:v>
+        <x:v>102910</x:v>
       </x:c>
       <x:c r="AW12" s="4" t="n">
-        <x:v>106393</x:v>
+        <x:v>106507</x:v>
       </x:c>
       <x:c r="AX12" s="4" t="n">
-        <x:v>108482</x:v>
+        <x:v>108598</x:v>
       </x:c>
       <x:c r="AY12" s="4" t="n">
-        <x:v>105677</x:v>
+        <x:v>105789</x:v>
       </x:c>
       <x:c r="AZ12" s="4" t="n">
-        <x:v>108313</x:v>
+        <x:v>108429</x:v>
       </x:c>
       <x:c r="BA12" s="4" t="n">
-        <x:v>103902</x:v>
+        <x:v>104013</x:v>
       </x:c>
       <x:c r="BB12" s="4" t="n">
-        <x:v>109603</x:v>
+        <x:v>109762</x:v>
       </x:c>
       <x:c r="BC12" s="4" t="n">
-        <x:v>112017</x:v>
+        <x:v>112182</x:v>
       </x:c>
       <x:c r="BD12" s="4" t="n">
-        <x:v>121394</x:v>
+        <x:v>121521</x:v>
       </x:c>
       <x:c r="BE12" s="4" t="n">
-        <x:v>121088</x:v>
+        <x:v>121187</x:v>
       </x:c>
       <x:c r="BF12" s="4" t="n">
-        <x:v>127132</x:v>
+        <x:v>127290</x:v>
       </x:c>
       <x:c r="BG12" s="4" t="n">
-        <x:v>132124</x:v>
+        <x:v>132307</x:v>
       </x:c>
       <x:c r="BH12" s="4" t="n">
-        <x:v>133590</x:v>
+        <x:v>133776</x:v>
       </x:c>
       <x:c r="BI12" s="4" t="n">
-        <x:v>145405</x:v>
+        <x:v>145517</x:v>
       </x:c>
       <x:c r="BJ12" s="4" t="n">
-        <x:v>154058</x:v>
+        <x:v>154191</x:v>
       </x:c>
       <x:c r="BK12" s="4" t="n">
-        <x:v>153302</x:v>
+        <x:v>153510</x:v>
       </x:c>
       <x:c r="BL12" s="4" t="n">
-        <x:v>152891</x:v>
+        <x:v>153154</x:v>
       </x:c>
       <x:c r="BM12" s="4" t="n">
-        <x:v>156177</x:v>
+        <x:v>156310</x:v>
       </x:c>
       <x:c r="BN12" s="4" t="n">
-        <x:v>155819</x:v>
+        <x:v>155929</x:v>
       </x:c>
       <x:c r="BO12" s="4" t="n">
-        <x:v>161915</x:v>
+        <x:v>162121</x:v>
       </x:c>
       <x:c r="BP12" s="4" t="n">
-        <x:v>160617</x:v>
+        <x:v>160902</x:v>
       </x:c>
       <x:c r="BQ12" s="4" t="n">
-        <x:v>167328</x:v>
+        <x:v>167493</x:v>
       </x:c>
       <x:c r="BR12" s="4" t="n">
-        <x:v>174546</x:v>
+        <x:v>174725</x:v>
       </x:c>
       <x:c r="BS12" s="4" t="n">
-        <x:v>183094</x:v>
+        <x:v>183276</x:v>
       </x:c>
       <x:c r="BT12" s="4" t="n">
-        <x:v>186555</x:v>
+        <x:v>186877</x:v>
       </x:c>
       <x:c r="BU12" s="4" t="n">
-        <x:v>192392</x:v>
+        <x:v>192576</x:v>
       </x:c>
       <x:c r="BV12" s="4" t="n">
-        <x:v>194777</x:v>
+        <x:v>194992</x:v>
       </x:c>
       <x:c r="BW12" s="4" t="n">
-        <x:v>195967</x:v>
+        <x:v>196155</x:v>
       </x:c>
       <x:c r="BX12" s="4" t="n">
-        <x:v>200543</x:v>
+        <x:v>200873</x:v>
       </x:c>
       <x:c r="BY12" s="4" t="n">
-        <x:v>206522</x:v>
+        <x:v>206725</x:v>
       </x:c>
       <x:c r="BZ12" s="4" t="n">
-        <x:v>204456</x:v>
+        <x:v>204709</x:v>
       </x:c>
       <x:c r="CA12" s="4" t="n">
-        <x:v>207579</x:v>
+        <x:v>207763</x:v>
       </x:c>
       <x:c r="CB12" s="4" t="n">
-        <x:v>215660</x:v>
+        <x:v>215980</x:v>
       </x:c>
       <x:c r="CC12" s="4" t="n">
-        <x:v>217432</x:v>
+        <x:v>217656</x:v>
       </x:c>
       <x:c r="CD12" s="4" t="n">
-        <x:v>224605</x:v>
+        <x:v>224868</x:v>
       </x:c>
       <x:c r="CE12" s="4" t="n">
-        <x:v>235010</x:v>
+        <x:v>235236</x:v>
       </x:c>
       <x:c r="CF12" s="4" t="n">
-        <x:v>244466</x:v>
+        <x:v>244774</x:v>
       </x:c>
       <x:c r="CG12" s="4" t="n">
-        <x:v>243517</x:v>
+        <x:v>243836</x:v>
       </x:c>
       <x:c r="CH12" s="4" t="n">
-        <x:v>234666</x:v>
+        <x:v>234899</x:v>
       </x:c>
       <x:c r="CI12" s="4" t="n">
-        <x:v>229530</x:v>
+        <x:v>229771</x:v>
       </x:c>
       <x:c r="CJ12" s="4" t="n">
-        <x:v>230104</x:v>
+        <x:v>230414</x:v>
       </x:c>
       <x:c r="CK12" s="4" t="n">
-        <x:v>233291</x:v>
+        <x:v>233619</x:v>
       </x:c>
       <x:c r="CL12" s="4" t="n">
-        <x:v>237958</x:v>
+        <x:v>238204</x:v>
       </x:c>
       <x:c r="CM12" s="4" t="n">
-        <x:v>239687</x:v>
+        <x:v>239937</x:v>
       </x:c>
       <x:c r="CN12" s="4" t="n">
-        <x:v>231982</x:v>
+        <x:v>232266</x:v>
       </x:c>
       <x:c r="CO12" s="4" t="n">
-        <x:v>238666</x:v>
+        <x:v>238990</x:v>
       </x:c>
       <x:c r="CP12" s="4" t="n">
-        <x:v>242167</x:v>
+        <x:v>242432</x:v>
       </x:c>
       <x:c r="CQ12" s="4" t="n">
-        <x:v>245549</x:v>
+        <x:v>245838</x:v>
       </x:c>
       <x:c r="CR12" s="4" t="n">
-        <x:v>251480</x:v>
+        <x:v>251790</x:v>
       </x:c>
       <x:c r="CS12" s="4" t="n">
-        <x:v>254405</x:v>
+        <x:v>254719</x:v>
       </x:c>
       <x:c r="CT12" s="4" t="n">
-        <x:v>264750</x:v>
+        <x:v>265052</x:v>
       </x:c>
       <x:c r="CU12" s="4" t="n">
-        <x:v>277021</x:v>
+        <x:v>277323</x:v>
       </x:c>
       <x:c r="CV12" s="4" t="n">
-        <x:v>274791</x:v>
+        <x:v>275115</x:v>
       </x:c>
       <x:c r="CW12" s="4" t="n">
-        <x:v>277952</x:v>
+        <x:v>278223</x:v>
       </x:c>
       <x:c r="CX12" s="4" t="n">
-        <x:v>280424</x:v>
+        <x:v>280823</x:v>
       </x:c>
       <x:c r="CY12" s="4" t="n">
-        <x:v>290084</x:v>
+        <x:v>290374</x:v>
       </x:c>
       <x:c r="CZ12" s="4" t="n">
-        <x:v>297592</x:v>
+        <x:v>297926</x:v>
       </x:c>
       <x:c r="DA12" s="4" t="n">
-        <x:v>293110</x:v>
+        <x:v>293353</x:v>
       </x:c>
       <x:c r="DB12" s="4" t="n">
-        <x:v>308938</x:v>
+        <x:v>309332</x:v>
       </x:c>
       <x:c r="DC12" s="4" t="n">
-        <x:v>307152</x:v>
+        <x:v>307592</x:v>
       </x:c>
       <x:c r="DD12" s="4" t="n">
-        <x:v>317342</x:v>
+        <x:v>317667</x:v>
       </x:c>
       <x:c r="DE12" s="4" t="n">
-        <x:v>329713</x:v>
+        <x:v>330005</x:v>
       </x:c>
       <x:c r="DF12" s="4" t="n">
-        <x:v>318287</x:v>
+        <x:v>318668</x:v>
       </x:c>
       <x:c r="DG12" s="4" t="n">
-        <x:v>322003</x:v>
+        <x:v>322528</x:v>
       </x:c>
       <x:c r="DH12" s="4" t="n">
-        <x:v>328178</x:v>
+        <x:v>328501</x:v>
       </x:c>
       <x:c r="DI12" s="4" t="n">
-        <x:v>336218</x:v>
+        <x:v>336546</x:v>
       </x:c>
       <x:c r="DJ12" s="4" t="n">
-        <x:v>341432</x:v>
+        <x:v>341872</x:v>
       </x:c>
       <x:c r="DK12" s="4" t="n">
-        <x:v>338062</x:v>
+        <x:v>338497</x:v>
       </x:c>
       <x:c r="DL12" s="4" t="n">
-        <x:v>333218</x:v>
+        <x:v>333542</x:v>
       </x:c>
       <x:c r="DM12" s="4" t="n">
-        <x:v>298388</x:v>
+        <x:v>298719</x:v>
       </x:c>
       <x:c r="DN12" s="4" t="n">
-        <x:v>269024</x:v>
+        <x:v>269335</x:v>
       </x:c>
       <x:c r="DO12" s="4" t="n">
-        <x:v>259096</x:v>
+        <x:v>259467</x:v>
       </x:c>
       <x:c r="DP12" s="4" t="n">
-        <x:v>270510</x:v>
+        <x:v>270752</x:v>
       </x:c>
       <x:c r="DQ12" s="4" t="n">
-        <x:v>274767</x:v>
+        <x:v>275148</x:v>
       </x:c>
       <x:c r="DR12" s="4" t="n">
-        <x:v>285345</x:v>
+        <x:v>285675</x:v>
       </x:c>
       <x:c r="DS12" s="4" t="n">
-        <x:v>306141</x:v>
+        <x:v>306492</x:v>
       </x:c>
       <x:c r="DT12" s="4" t="n">
-        <x:v>314205</x:v>
+        <x:v>314407</x:v>
       </x:c>
       <x:c r="DU12" s="4" t="n">
-        <x:v>325292</x:v>
+        <x:v>325786</x:v>
       </x:c>
       <x:c r="DV12" s="4" t="n">
-        <x:v>328385</x:v>
+        <x:v>328740</x:v>
       </x:c>
       <x:c r="DW12" s="4" t="n">
-        <x:v>326121</x:v>
+        <x:v>326520</x:v>
       </x:c>
       <x:c r="DX12" s="4" t="n">
-        <x:v>339356</x:v>
+        <x:v>339539</x:v>
       </x:c>
       <x:c r="DY12" s="4" t="n">
-        <x:v>322259</x:v>
+        <x:v>322762</x:v>
       </x:c>
       <x:c r="DZ12" s="4" t="n">
-        <x:v>332569</x:v>
+        <x:v>332964</x:v>
       </x:c>
       <x:c r="EA12" s="4" t="n">
-        <x:v>336358</x:v>
+        <x:v>336760</x:v>
       </x:c>
       <x:c r="EB12" s="4" t="n">
-        <x:v>332295</x:v>
+        <x:v>332492</x:v>
       </x:c>
       <x:c r="EC12" s="4" t="n">
-        <x:v>322599</x:v>
+        <x:v>323156</x:v>
       </x:c>
       <x:c r="ED12" s="4" t="n">
-        <x:v>315495</x:v>
+        <x:v>315935</x:v>
       </x:c>
       <x:c r="EE12" s="4" t="n">
-        <x:v>321455</x:v>
+        <x:v>321786</x:v>
       </x:c>
       <x:c r="EF12" s="4" t="n">
-        <x:v>322424</x:v>
+        <x:v>322685</x:v>
       </x:c>
       <x:c r="EG12" s="4" t="n">
-        <x:v>320381</x:v>
+        <x:v>320829</x:v>
       </x:c>
       <x:c r="EH12" s="4" t="n">
-        <x:v>328731</x:v>
+        <x:v>329200</x:v>
       </x:c>
       <x:c r="EI12" s="4" t="n">
-        <x:v>331366</x:v>
+        <x:v>331777</x:v>
       </x:c>
       <x:c r="EJ12" s="4" t="n">
-        <x:v>333507</x:v>
+        <x:v>333834</x:v>
       </x:c>
       <x:c r="EK12" s="4" t="n">
-        <x:v>332900</x:v>
+        <x:v>333248</x:v>
       </x:c>
       <x:c r="EL12" s="4" t="n">
-        <x:v>329121</x:v>
+        <x:v>329577</x:v>
       </x:c>
       <x:c r="EM12" s="4" t="n">
-        <x:v>335161</x:v>
+        <x:v>335632</x:v>
       </x:c>
       <x:c r="EN12" s="4" t="n">
-        <x:v>342501</x:v>
+        <x:v>342903</x:v>
       </x:c>
       <x:c r="EO12" s="4" t="n">
-        <x:v>345000</x:v>
+        <x:v>345220</x:v>
       </x:c>
       <x:c r="EP12" s="4" t="n">
-        <x:v>346205</x:v>
+        <x:v>346660</x:v>
       </x:c>
       <x:c r="EQ12" s="4" t="n">
-        <x:v>340908</x:v>
+        <x:v>341350</x:v>
       </x:c>
       <x:c r="ER12" s="4" t="n">
-        <x:v>345093</x:v>
+        <x:v>345632</x:v>
       </x:c>
       <x:c r="ES12" s="4" t="n">
-        <x:v>350636</x:v>
+        <x:v>350750</x:v>
       </x:c>
       <x:c r="ET12" s="4" t="n">
-        <x:v>355220</x:v>
+        <x:v>355528</x:v>
       </x:c>
       <x:c r="EU12" s="4" t="n">
-        <x:v>366134</x:v>
+        <x:v>366717</x:v>
       </x:c>
       <x:c r="EV12" s="4" t="n">
-        <x:v>370839</x:v>
+        <x:v>371616</x:v>
       </x:c>
       <x:c r="EW12" s="4" t="n">
-        <x:v>383087</x:v>
+        <x:v>383119</x:v>
       </x:c>
       <x:c r="EX12" s="4" t="n">
-        <x:v>379949</x:v>
+        <x:v>380264</x:v>
       </x:c>
       <x:c r="EY12" s="4" t="n">
-        <x:v>387362</x:v>
+        <x:v>387940</x:v>
       </x:c>
       <x:c r="EZ12" s="4" t="n">
-        <x:v>392492</x:v>
+        <x:v>393526</x:v>
       </x:c>
       <x:c r="FA12" s="4" t="n">
-        <x:v>398701</x:v>
+        <x:v>398654</x:v>
       </x:c>
       <x:c r="FB12" s="4" t="n">
-        <x:v>397636</x:v>
+        <x:v>397841</x:v>
       </x:c>
       <x:c r="FC12" s="4" t="n">
-        <x:v>403443</x:v>
+        <x:v>404132</x:v>
       </x:c>
       <x:c r="FD12" s="4" t="n">
-        <x:v>412338</x:v>
+        <x:v>413549</x:v>
       </x:c>
       <x:c r="FE12" s="4" t="n">
-        <x:v>402736</x:v>
+        <x:v>402582</x:v>
       </x:c>
       <x:c r="FF12" s="4" t="n">
-        <x:v>415097</x:v>
+        <x:v>414830</x:v>
       </x:c>
       <x:c r="FG12" s="4" t="n">
-        <x:v>344797</x:v>
+        <x:v>344983</x:v>
       </x:c>
       <x:c r="FH12" s="4" t="n">
-        <x:v>407665</x:v>
+        <x:v>408691</x:v>
       </x:c>
       <x:c r="FI12" s="4" t="n">
-        <x:v>422436</x:v>
+        <x:v>421614</x:v>
       </x:c>
       <x:c r="FJ12" s="4" t="n">
-        <x:v>426927</x:v>
+        <x:v>426982</x:v>
       </x:c>
       <x:c r="FK12" s="4" t="n">
-        <x:v>425439</x:v>
+        <x:v>425707</x:v>
       </x:c>
       <x:c r="FL12" s="4" t="n">
-        <x:v>422454</x:v>
+        <x:v>423239</x:v>
+      </x:c>
+      <x:c r="FM12" s="4" t="n">
+        <x:v>436504</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:168">
+    <x:row r="13" spans="1:169">
       <x:c r="A13" s="2" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D13" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E13" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F13" s="4" t="n">
-        <x:v>23277</x:v>
+        <x:v>23272</x:v>
       </x:c>
       <x:c r="G13" s="4" t="n">
-        <x:v>21651</x:v>
+        <x:v>21647</x:v>
       </x:c>
       <x:c r="H13" s="4" t="n">
-        <x:v>23402</x:v>
+        <x:v>23397</x:v>
       </x:c>
       <x:c r="I13" s="4" t="n">
-        <x:v>24168</x:v>
+        <x:v>24163</x:v>
       </x:c>
       <x:c r="J13" s="4" t="n">
-        <x:v>26114</x:v>
+        <x:v>26108</x:v>
       </x:c>
       <x:c r="K13" s="4" t="n">
-        <x:v>26778</x:v>
+        <x:v>26773</x:v>
       </x:c>
       <x:c r="L13" s="4" t="n">
-        <x:v>27502</x:v>
+        <x:v>27497</x:v>
       </x:c>
       <x:c r="M13" s="4" t="n">
-        <x:v>28869</x:v>
+        <x:v>28863</x:v>
       </x:c>
       <x:c r="N13" s="4" t="n">
-        <x:v>27181</x:v>
+        <x:v>27176</x:v>
       </x:c>
       <x:c r="O13" s="4" t="n">
-        <x:v>28159</x:v>
+        <x:v>28153</x:v>
       </x:c>
       <x:c r="P13" s="4" t="n">
-        <x:v>27943</x:v>
+        <x:v>27937</x:v>
       </x:c>
       <x:c r="Q13" s="4" t="n">
-        <x:v>26743</x:v>
+        <x:v>26738</x:v>
       </x:c>
       <x:c r="R13" s="4" t="n">
-        <x:v>29538</x:v>
+        <x:v>29532</x:v>
       </x:c>
       <x:c r="S13" s="4" t="n">
-        <x:v>30462</x:v>
+        <x:v>30456</x:v>
       </x:c>
       <x:c r="T13" s="4" t="n">
-        <x:v>28095</x:v>
+        <x:v>28089</x:v>
       </x:c>
       <x:c r="U13" s="4" t="n">
-        <x:v>26729</x:v>
+        <x:v>26724</x:v>
       </x:c>
       <x:c r="V13" s="4" t="n">
-        <x:v>24609</x:v>
+        <x:v>24604</x:v>
       </x:c>
       <x:c r="W13" s="4" t="n">
-        <x:v>26463</x:v>
+        <x:v>26458</x:v>
       </x:c>
       <x:c r="X13" s="4" t="n">
-        <x:v>28914</x:v>
+        <x:v>28908</x:v>
       </x:c>
       <x:c r="Y13" s="4" t="n">
-        <x:v>26391</x:v>
+        <x:v>26385</x:v>
       </x:c>
       <x:c r="Z13" s="4" t="n">
-        <x:v>27583</x:v>
+        <x:v>27578</x:v>
       </x:c>
       <x:c r="AA13" s="4" t="n">
-        <x:v>27693</x:v>
+        <x:v>27688</x:v>
       </x:c>
       <x:c r="AB13" s="4" t="n">
-        <x:v>28913</x:v>
+        <x:v>28907</x:v>
       </x:c>
       <x:c r="AC13" s="4" t="n">
-        <x:v>28522</x:v>
+        <x:v>28516</x:v>
       </x:c>
       <x:c r="AD13" s="4" t="n">
-        <x:v>27832</x:v>
+        <x:v>27826</x:v>
       </x:c>
       <x:c r="AE13" s="4" t="n">
-        <x:v>28574</x:v>
+        <x:v>28568</x:v>
       </x:c>
       <x:c r="AF13" s="4" t="n">
-        <x:v>30132</x:v>
+        <x:v>30126</x:v>
       </x:c>
       <x:c r="AG13" s="4" t="n">
-        <x:v>32035</x:v>
+        <x:v>32028</x:v>
       </x:c>
       <x:c r="AH13" s="4" t="n">
-        <x:v>29791</x:v>
+        <x:v>29785</x:v>
       </x:c>
       <x:c r="AI13" s="4" t="n">
-        <x:v>30610</x:v>
+        <x:v>30603</x:v>
       </x:c>
       <x:c r="AJ13" s="4" t="n">
-        <x:v>30933</x:v>
+        <x:v>30926</x:v>
       </x:c>
       <x:c r="AK13" s="4" t="n">
-        <x:v>31440</x:v>
+        <x:v>31434</x:v>
       </x:c>
       <x:c r="AL13" s="4" t="n">
-        <x:v>30316</x:v>
+        <x:v>30309</x:v>
       </x:c>
       <x:c r="AM13" s="4" t="n">
-        <x:v>31294</x:v>
+        <x:v>31287</x:v>
       </x:c>
       <x:c r="AN13" s="4" t="n">
-        <x:v>32981</x:v>
+        <x:v>32974</x:v>
       </x:c>
       <x:c r="AO13" s="4" t="n">
-        <x:v>34292</x:v>
+        <x:v>34284</x:v>
       </x:c>
       <x:c r="AP13" s="4" t="n">
-        <x:v>35785</x:v>
+        <x:v>35777</x:v>
       </x:c>
       <x:c r="AQ13" s="4" t="n">
-        <x:v>35717</x:v>
+        <x:v>35710</x:v>
       </x:c>
       <x:c r="AR13" s="4" t="n">
-        <x:v>35414</x:v>
+        <x:v>35406</x:v>
       </x:c>
       <x:c r="AS13" s="4" t="n">
-        <x:v>35839</x:v>
+        <x:v>35831</x:v>
       </x:c>
       <x:c r="AT13" s="4" t="n">
-        <x:v>34987</x:v>
+        <x:v>34980</x:v>
       </x:c>
       <x:c r="AU13" s="4" t="n">
-        <x:v>35239</x:v>
+        <x:v>35231</x:v>
       </x:c>
       <x:c r="AV13" s="4" t="n">
-        <x:v>33115</x:v>
+        <x:v>33107</x:v>
       </x:c>
       <x:c r="AW13" s="4" t="n">
-        <x:v>36752</x:v>
+        <x:v>36744</x:v>
       </x:c>
       <x:c r="AX13" s="4" t="n">
-        <x:v>37342</x:v>
+        <x:v>37334</x:v>
       </x:c>
       <x:c r="AY13" s="4" t="n">
-        <x:v>36294</x:v>
+        <x:v>36286</x:v>
       </x:c>
       <x:c r="AZ13" s="4" t="n">
-        <x:v>36358</x:v>
+        <x:v>36350</x:v>
       </x:c>
       <x:c r="BA13" s="4" t="n">
-        <x:v>38529</x:v>
+        <x:v>38521</x:v>
       </x:c>
       <x:c r="BB13" s="4" t="n">
         <x:v>38964</x:v>
@@ -6264,85 +6290,85 @@
         <x:v>38061</x:v>
       </x:c>
       <x:c r="BD13" s="4" t="n">
-        <x:v>38253</x:v>
+        <x:v>38232</x:v>
       </x:c>
       <x:c r="BE13" s="4" t="n">
-        <x:v>38267</x:v>
+        <x:v>38270</x:v>
       </x:c>
       <x:c r="BF13" s="4" t="n">
-        <x:v>39398</x:v>
+        <x:v>39394</x:v>
       </x:c>
       <x:c r="BG13" s="4" t="n">
-        <x:v>38513</x:v>
+        <x:v>38508</x:v>
       </x:c>
       <x:c r="BH13" s="4" t="n">
-        <x:v>39751</x:v>
+        <x:v>39728</x:v>
       </x:c>
       <x:c r="BI13" s="4" t="n">
-        <x:v>39876</x:v>
+        <x:v>39881</x:v>
       </x:c>
       <x:c r="BJ13" s="4" t="n">
-        <x:v>38248</x:v>
+        <x:v>38235</x:v>
       </x:c>
       <x:c r="BK13" s="4" t="n">
-        <x:v>40359</x:v>
+        <x:v>40356</x:v>
       </x:c>
       <x:c r="BL13" s="4" t="n">
-        <x:v>39821</x:v>
+        <x:v>39810</x:v>
       </x:c>
       <x:c r="BM13" s="4" t="n">
-        <x:v>37852</x:v>
+        <x:v>37870</x:v>
       </x:c>
       <x:c r="BN13" s="4" t="n">
-        <x:v>40545</x:v>
+        <x:v>40524</x:v>
       </x:c>
       <x:c r="BO13" s="4" t="n">
-        <x:v>39511</x:v>
+        <x:v>39504</x:v>
       </x:c>
       <x:c r="BP13" s="4" t="n">
-        <x:v>39999</x:v>
+        <x:v>39989</x:v>
       </x:c>
       <x:c r="BQ13" s="4" t="n">
-        <x:v>40751</x:v>
+        <x:v>40778</x:v>
       </x:c>
       <x:c r="BR13" s="4" t="n">
-        <x:v>43051</x:v>
+        <x:v>43072</x:v>
       </x:c>
       <x:c r="BS13" s="4" t="n">
-        <x:v>46808</x:v>
+        <x:v>46773</x:v>
       </x:c>
       <x:c r="BT13" s="4" t="n">
-        <x:v>46689</x:v>
+        <x:v>46679</x:v>
       </x:c>
       <x:c r="BU13" s="4" t="n">
-        <x:v>48699</x:v>
+        <x:v>48719</x:v>
       </x:c>
       <x:c r="BV13" s="4" t="n">
-        <x:v>48638</x:v>
+        <x:v>48652</x:v>
       </x:c>
       <x:c r="BW13" s="4" t="n">
-        <x:v>49910</x:v>
+        <x:v>49898</x:v>
       </x:c>
       <x:c r="BX13" s="4" t="n">
-        <x:v>53064</x:v>
+        <x:v>53052</x:v>
       </x:c>
       <x:c r="BY13" s="4" t="n">
-        <x:v>53932</x:v>
+        <x:v>53935</x:v>
       </x:c>
       <x:c r="BZ13" s="4" t="n">
-        <x:v>54609</x:v>
+        <x:v>54629</x:v>
       </x:c>
       <x:c r="CA13" s="4" t="n">
-        <x:v>57369</x:v>
+        <x:v>57344</x:v>
       </x:c>
       <x:c r="CB13" s="4" t="n">
-        <x:v>58328</x:v>
+        <x:v>58314</x:v>
       </x:c>
       <x:c r="CC13" s="4" t="n">
-        <x:v>58334</x:v>
+        <x:v>58318</x:v>
       </x:c>
       <x:c r="CD13" s="4" t="n">
-        <x:v>60200</x:v>
+        <x:v>60190</x:v>
       </x:c>
       <x:c r="CE13" s="4" t="n">
         <x:v>62767</x:v>
@@ -6351,393 +6377,390 @@
         <x:v>65405</x:v>
       </x:c>
       <x:c r="CG13" s="4" t="n">
-        <x:v>70455</x:v>
+        <x:v>70445</x:v>
       </x:c>
       <x:c r="CH13" s="4" t="n">
-        <x:v>72120</x:v>
+        <x:v>72096</x:v>
       </x:c>
       <x:c r="CI13" s="4" t="n">
-        <x:v>71637</x:v>
+        <x:v>71653</x:v>
       </x:c>
       <x:c r="CJ13" s="4" t="n">
-        <x:v>74150</x:v>
+        <x:v>74151</x:v>
       </x:c>
       <x:c r="CK13" s="4" t="n">
         <x:v>74428</x:v>
       </x:c>
       <x:c r="CL13" s="4" t="n">
-        <x:v>72443</x:v>
+        <x:v>72448</x:v>
       </x:c>
       <x:c r="CM13" s="4" t="n">
-        <x:v>73532</x:v>
+        <x:v>73539</x:v>
       </x:c>
       <x:c r="CN13" s="4" t="n">
-        <x:v>73131</x:v>
+        <x:v>73116</x:v>
       </x:c>
       <x:c r="CO13" s="4" t="n">
-        <x:v>72687</x:v>
+        <x:v>72681</x:v>
       </x:c>
       <x:c r="CP13" s="4" t="n">
         <x:v>75362</x:v>
       </x:c>
       <x:c r="CQ13" s="4" t="n">
-        <x:v>73743</x:v>
+        <x:v>73773</x:v>
       </x:c>
       <x:c r="CR13" s="4" t="n">
-        <x:v>75055</x:v>
+        <x:v>75048</x:v>
       </x:c>
       <x:c r="CS13" s="4" t="n">
-        <x:v>77947</x:v>
+        <x:v>77932</x:v>
       </x:c>
       <x:c r="CT13" s="4" t="n">
-        <x:v>80465</x:v>
+        <x:v>80452</x:v>
       </x:c>
       <x:c r="CU13" s="4" t="n">
-        <x:v>84036</x:v>
+        <x:v>84046</x:v>
       </x:c>
       <x:c r="CV13" s="4" t="n">
-        <x:v>85720</x:v>
+        <x:v>85710</x:v>
       </x:c>
       <x:c r="CW13" s="4" t="n">
-        <x:v>85921</x:v>
+        <x:v>85849</x:v>
       </x:c>
       <x:c r="CX13" s="4" t="n">
-        <x:v>84205</x:v>
+        <x:v>84243</x:v>
       </x:c>
       <x:c r="CY13" s="4" t="n">
-        <x:v>86729</x:v>
+        <x:v>86700</x:v>
       </x:c>
       <x:c r="CZ13" s="4" t="n">
-        <x:v>91730</x:v>
+        <x:v>91732</x:v>
       </x:c>
       <x:c r="DA13" s="4" t="n">
-        <x:v>98697</x:v>
+        <x:v>98614</x:v>
       </x:c>
       <x:c r="DB13" s="4" t="n">
-        <x:v>98485</x:v>
+        <x:v>98441</x:v>
       </x:c>
       <x:c r="DC13" s="4" t="n">
-        <x:v>99165</x:v>
+        <x:v>99189</x:v>
       </x:c>
       <x:c r="DD13" s="4" t="n">
-        <x:v>99467</x:v>
+        <x:v>99502</x:v>
       </x:c>
       <x:c r="DE13" s="4" t="n">
-        <x:v>100658</x:v>
+        <x:v>100632</x:v>
       </x:c>
       <x:c r="DF13" s="4" t="n">
-        <x:v>106675</x:v>
+        <x:v>106608</x:v>
       </x:c>
       <x:c r="DG13" s="4" t="n">
+        <x:v>110984</x:v>
+      </x:c>
+      <x:c r="DH13" s="4" t="n">
+        <x:v>109668</x:v>
+      </x:c>
+      <x:c r="DI13" s="4" t="n">
+        <x:v>110044</x:v>
+      </x:c>
+      <x:c r="DJ13" s="4" t="n">
+        <x:v>113684</x:v>
+      </x:c>
+      <x:c r="DK13" s="4" t="n">
+        <x:v>112435</x:v>
+      </x:c>
+      <x:c r="DL13" s="4" t="n">
+        <x:v>113262</x:v>
+      </x:c>
+      <x:c r="DM13" s="4" t="n">
+        <x:v>118779</x:v>
+      </x:c>
+      <x:c r="DN13" s="4" t="n">
+        <x:v>115948</x:v>
+      </x:c>
+      <x:c r="DO13" s="4" t="n">
+        <x:v>113199</x:v>
+      </x:c>
+      <x:c r="DP13" s="4" t="n">
         <x:v>110970</x:v>
-      </x:c>
-      <x:c r="DH13" s="4" t="n">
-        <x:v>109633</x:v>
-      </x:c>
-      <x:c r="DI13" s="4" t="n">
-        <x:v>110035</x:v>
-      </x:c>
-      <x:c r="DJ13" s="4" t="n">
-        <x:v>113708</x:v>
-      </x:c>
-      <x:c r="DK13" s="4" t="n">
-        <x:v>112499</x:v>
-      </x:c>
-      <x:c r="DL13" s="4" t="n">
-        <x:v>113245</x:v>
-      </x:c>
-      <x:c r="DM13" s="4" t="n">
-        <x:v>118773</x:v>
-      </x:c>
-      <x:c r="DN13" s="4" t="n">
-        <x:v>115989</x:v>
-      </x:c>
-      <x:c r="DO13" s="4" t="n">
-        <x:v>113200</x:v>
-      </x:c>
-      <x:c r="DP13" s="4" t="n">
-        <x:v>110959</x:v>
       </x:c>
       <x:c r="DQ13" s="4" t="n">
         <x:v>106507</x:v>
       </x:c>
       <x:c r="DR13" s="4" t="n">
-        <x:v>110224</x:v>
+        <x:v>110188</x:v>
       </x:c>
       <x:c r="DS13" s="4" t="n">
-        <x:v>107732</x:v>
+        <x:v>107691</x:v>
       </x:c>
       <x:c r="DT13" s="4" t="n">
-        <x:v>110625</x:v>
+        <x:v>110621</x:v>
       </x:c>
       <x:c r="DU13" s="4" t="n">
-        <x:v>111738</x:v>
+        <x:v>111719</x:v>
       </x:c>
       <x:c r="DV13" s="4" t="n">
-        <x:v>112089</x:v>
+        <x:v>112035</x:v>
       </x:c>
       <x:c r="DW13" s="4" t="n">
-        <x:v>116636</x:v>
+        <x:v>116616</x:v>
       </x:c>
       <x:c r="DX13" s="4" t="n">
-        <x:v>118837</x:v>
+        <x:v>118835</x:v>
       </x:c>
       <x:c r="DY13" s="4" t="n">
-        <x:v>121227</x:v>
+        <x:v>121199</x:v>
       </x:c>
       <x:c r="DZ13" s="4" t="n">
-        <x:v>121454</x:v>
+        <x:v>121372</x:v>
       </x:c>
       <x:c r="EA13" s="4" t="n">
-        <x:v>124484</x:v>
+        <x:v>124485</x:v>
       </x:c>
       <x:c r="EB13" s="4" t="n">
-        <x:v>121425</x:v>
+        <x:v>121459</x:v>
       </x:c>
       <x:c r="EC13" s="4" t="n">
-        <x:v>122792</x:v>
+        <x:v>122833</x:v>
       </x:c>
       <x:c r="ED13" s="4" t="n">
-        <x:v>127991</x:v>
+        <x:v>127957</x:v>
       </x:c>
       <x:c r="EE13" s="4" t="n">
-        <x:v>127849</x:v>
+        <x:v>127823</x:v>
       </x:c>
       <x:c r="EF13" s="4" t="n">
-        <x:v>130047</x:v>
+        <x:v>130061</x:v>
       </x:c>
       <x:c r="EG13" s="4" t="n">
-        <x:v>128424</x:v>
+        <x:v>128440</x:v>
       </x:c>
       <x:c r="EH13" s="4" t="n">
-        <x:v>133310</x:v>
+        <x:v>133285</x:v>
       </x:c>
       <x:c r="EI13" s="4" t="n">
-        <x:v>135816</x:v>
+        <x:v>135853</x:v>
       </x:c>
       <x:c r="EJ13" s="4" t="n">
-        <x:v>137530</x:v>
+        <x:v>137544</x:v>
       </x:c>
       <x:c r="EK13" s="4" t="n">
-        <x:v>141518</x:v>
+        <x:v>141475</x:v>
       </x:c>
       <x:c r="EL13" s="4" t="n">
-        <x:v>153469</x:v>
+        <x:v>153475</x:v>
       </x:c>
       <x:c r="EM13" s="4" t="n">
-        <x:v>151846</x:v>
+        <x:v>151889</x:v>
       </x:c>
       <x:c r="EN13" s="4" t="n">
-        <x:v>158293</x:v>
+        <x:v>158298</x:v>
       </x:c>
       <x:c r="EO13" s="4" t="n">
-        <x:v>160588</x:v>
+        <x:v>160402</x:v>
       </x:c>
       <x:c r="EP13" s="4" t="n">
-        <x:v>154651</x:v>
+        <x:v>154763</x:v>
       </x:c>
       <x:c r="EQ13" s="4" t="n">
-        <x:v>156214</x:v>
+        <x:v>156203</x:v>
       </x:c>
       <x:c r="ER13" s="4" t="n">
-        <x:v>160309</x:v>
+        <x:v>160333</x:v>
       </x:c>
       <x:c r="ES13" s="4" t="n">
-        <x:v>162943</x:v>
+        <x:v>162614</x:v>
       </x:c>
       <x:c r="ET13" s="4" t="n">
-        <x:v>152506</x:v>
+        <x:v>152541</x:v>
       </x:c>
       <x:c r="EU13" s="4" t="n">
-        <x:v>162040</x:v>
+        <x:v>162176</x:v>
       </x:c>
       <x:c r="EV13" s="4" t="n">
-        <x:v>160091</x:v>
+        <x:v>160224</x:v>
       </x:c>
       <x:c r="EW13" s="4" t="n">
-        <x:v>158677</x:v>
+        <x:v>158273</x:v>
       </x:c>
       <x:c r="EX13" s="4" t="n">
-        <x:v>159886</x:v>
+        <x:v>159966</x:v>
       </x:c>
       <x:c r="EY13" s="4" t="n">
-        <x:v>154787</x:v>
+        <x:v>154916</x:v>
       </x:c>
       <x:c r="EZ13" s="4" t="n">
-        <x:v>159946</x:v>
+        <x:v>160198</x:v>
       </x:c>
       <x:c r="FA13" s="4" t="n">
-        <x:v>168675</x:v>
+        <x:v>168109</x:v>
       </x:c>
       <x:c r="FB13" s="4" t="n">
-        <x:v>176266</x:v>
+        <x:v>176367</x:v>
       </x:c>
       <x:c r="FC13" s="4" t="n">
-        <x:v>187684</x:v>
+        <x:v>187971</x:v>
       </x:c>
       <x:c r="FD13" s="4" t="n">
-        <x:v>185050</x:v>
+        <x:v>185434</x:v>
       </x:c>
       <x:c r="FE13" s="4" t="n">
-        <x:v>171396</x:v>
+        <x:v>170491</x:v>
       </x:c>
       <x:c r="FF13" s="4" t="n">
-        <x:v>171959</x:v>
+        <x:v>171719</x:v>
       </x:c>
       <x:c r="FG13" s="4" t="n">
-        <x:v>141323</x:v>
+        <x:v>142724</x:v>
       </x:c>
       <x:c r="FH13" s="4" t="n">
-        <x:v>148349</x:v>
+        <x:v>148872</x:v>
       </x:c>
       <x:c r="FI13" s="4" t="n">
-        <x:v>166312</x:v>
+        <x:v>166489</x:v>
       </x:c>
       <x:c r="FJ13" s="4" t="n">
-        <x:v>164623</x:v>
+        <x:v>163252</x:v>
       </x:c>
       <x:c r="FK13" s="4" t="n">
-        <x:v>162128</x:v>
+        <x:v>161008</x:v>
       </x:c>
       <x:c r="FL13" s="4" t="n">
-        <x:v>167903</x:v>
+        <x:v>167643</x:v>
+      </x:c>
+      <x:c r="FM13" s="4" t="n">
+        <x:v>174527</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:168">
+    <x:row r="15" spans="1:169">
       <x:c r="A15" s="5" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:168">
+    <x:row r="17" spans="1:169">
       <x:c r="A17" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:168">
+    <x:row r="18" spans="1:169">
       <x:c r="A18" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:168">
+    <x:row r="20" spans="1:169">
       <x:c r="A20" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:168">
+    <x:row r="21" spans="1:169">
       <x:c r="A21" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:168">
+    <x:row r="23" spans="1:169">
       <x:c r="A23" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:168">
+    <x:row r="24" spans="1:169">
       <x:c r="A24" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:168">
+    <x:row r="25" spans="1:169">
       <x:c r="A25" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:168">
+    <x:row r="26" spans="1:169">
       <x:c r="A26" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:169">
+      <x:c r="A28" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:169">
+      <x:c r="A29" s="0" t="s">
         <x:v>187</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:168">
-      <x:c r="A27" s="0" t="s"/>
+    <x:row r="30" spans="1:169">
+      <x:c r="A30" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
     </x:row>
-    <x:row r="28" spans="1:168">
-      <x:c r="A28" s="0" t="s">
-        <x:v>188</x:v>
+    <x:row r="35" spans="1:169">
+      <x:c r="A35" s="0" t="s">
+        <x:v>191</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:168">
-      <x:c r="A29" s="0" t="s">
-        <x:v>186</x:v>
+    <x:row r="36" spans="1:169">
+      <x:c r="A36" s="0" t="s">
+        <x:v>192</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:168">
-      <x:c r="A30" s="0" t="s">
-        <x:v>189</x:v>
+    <x:row r="38" spans="1:169">
+      <x:c r="A38" s="0" t="s">
+        <x:v>193</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:168">
-      <x:c r="A31" s="0" t="s"/>
+    <x:row r="39" spans="1:169">
+      <x:c r="A39" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
     </x:row>
-    <x:row r="32" spans="1:168">
-      <x:c r="A32" s="0" t="s"/>
+    <x:row r="41" spans="1:169">
+      <x:c r="A41" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
     </x:row>
-    <x:row r="35" spans="1:168">
-      <x:c r="A35" s="0" t="s">
-        <x:v>190</x:v>
+    <x:row r="42" spans="1:169">
+      <x:c r="A42" s="0" t="s">
+        <x:v>196</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:168">
-      <x:c r="A36" s="0" t="s">
-        <x:v>191</x:v>
+    <x:row r="45" spans="1:169">
+      <x:c r="A45" s="0" t="s">
+        <x:v>197</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:168">
-      <x:c r="A38" s="0" t="s">
-        <x:v>192</x:v>
+    <x:row r="47" spans="1:169">
+      <x:c r="A47" s="0" t="s">
+        <x:v>198</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:168">
-      <x:c r="A39" s="0" t="s">
-        <x:v>193</x:v>
+    <x:row r="49" spans="1:169">
+      <x:c r="A49" s="0" t="s">
+        <x:v>199</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:168">
-      <x:c r="A41" s="0" t="s">
-        <x:v>194</x:v>
+    <x:row r="51" spans="1:169">
+      <x:c r="A51" s="0" t="s">
+        <x:v>200</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:168">
-      <x:c r="A42" s="0" t="s">
-        <x:v>195</x:v>
+    <x:row r="52" spans="1:169">
+      <x:c r="A52" s="0" t="s">
+        <x:v>201</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:168">
-      <x:c r="A45" s="0" t="s">
-        <x:v>196</x:v>
+    <x:row r="54" spans="1:169">
+      <x:c r="A54" s="0" t="s">
+        <x:v>202</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:168">
-      <x:c r="A47" s="0" t="s">
-        <x:v>197</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:168">
-      <x:c r="A49" s="0" t="s">
-        <x:v>198</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:168">
-      <x:c r="A51" s="0" t="s">
-        <x:v>199</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:168">
-      <x:c r="A52" s="0" t="s">
-        <x:v>200</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:168">
-      <x:c r="A54" s="0" t="s">
-        <x:v>201</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:168">
+    <x:row r="55" spans="1:169">
       <x:c r="A55" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="1">
+    <x:mergeCell ref="A15:FM15"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
